--- a/Noyau RH FPE/4. REFERENTIEL DE PAYE/2. Barème RIFSEEP/Barème_RIFSEEP_2025.xlsx
+++ b/Noyau RH FPE/4. REFERENTIEL DE PAYE/2. Barème RIFSEEP/Barème_RIFSEEP_2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\03-BARRI\REFERENTIELS\RDP\Entités\Préparation chargement Portail BARRI-Chatbot REBECCA\Chargement 2025\05-25 Chargement Mai 2025\Autres documentations RdP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\03-BARRI\REFERENTIELS\RDP\RIFSEEP\RIFSEEP_Nouveau format\Versions publiées sur le portail BARRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF28FF5-4324-4E2A-9A92-D4130E36F744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2F2907-291F-4B9D-8F7C-EF204BED4F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-4290" windowWidth="25440" windowHeight="15270" tabRatio="799" xr2:uid="{4D1EF597-009E-4554-B873-B93708779636}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Barèmes EF GEF par Niveaux'!$A$2:$S$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Barèmes réglementaires'!$A$3:$M$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Barèmes réglementaires'!$A$3:$M$258</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Liste des arrêtés d''adhésion'!$A$4:$G$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Liste EF GEF - réforme HFP'!$A$2:$F$862</definedName>
     <definedName name="Adjoint_administratif__ex_1°_et_2°_classe">#REF!</definedName>
@@ -115,6 +115,8 @@
     <definedName name="Administrateur_général" localSheetId="0">#REF!</definedName>
     <definedName name="Administrateur_général" localSheetId="6">#REF!</definedName>
     <definedName name="Administrateur_général">#REF!</definedName>
+    <definedName name="AGRS1515037A">'Barèmes réglementaires'!$A$123</definedName>
+    <definedName name="AGRS1628341A">'Barèmes réglementaires'!$A$125</definedName>
     <definedName name="Architecte_urbaniste" localSheetId="1">#REF!</definedName>
     <definedName name="Architecte_urbaniste" localSheetId="5">#REF!</definedName>
     <definedName name="Architecte_urbaniste" localSheetId="4">#REF!</definedName>
@@ -259,6 +261,8 @@
     <definedName name="Conseiller_tehnique_supérieur_SS" localSheetId="0">#REF!</definedName>
     <definedName name="Conseiller_tehnique_supérieur_SS" localSheetId="6">#REF!</definedName>
     <definedName name="Conseiller_tehnique_supérieur_SS">#REF!</definedName>
+    <definedName name="CPAF1936225A">'Barèmes réglementaires'!$A$29</definedName>
+    <definedName name="CPAF1936226A">'Barèmes réglementaires'!$A$41</definedName>
     <definedName name="directeur_de_projet" localSheetId="1">#REF!</definedName>
     <definedName name="directeur_de_projet" localSheetId="5">#REF!</definedName>
     <definedName name="directeur_de_projet" localSheetId="4">#REF!</definedName>
@@ -449,23 +453,41 @@
     <definedName name="Inspecteur_général_de_2e_classe_et_Inspecteur">#REF!</definedName>
     <definedName name="Inspecteur_général_et_Inspecteur_général_de_1re_classe">#REF!</definedName>
     <definedName name="Inspection_Générale">#REF!</definedName>
-    <definedName name="MCCB1529548A">'Barèmes réglementaires'!#REF!</definedName>
+    <definedName name="MCCB1529548A">'Barèmes réglementaires'!$A$162</definedName>
+    <definedName name="MCCB1529548A1">'Barèmes réglementaires'!$A$162</definedName>
+    <definedName name="MCCB1638056A">'Barèmes réglementaires'!$A$199</definedName>
     <definedName name="MCCB1638063A">'Barèmes réglementaires'!#REF!</definedName>
+    <definedName name="MCCB1638063A1">'Barèmes réglementaires'!$A$220</definedName>
     <definedName name="MCCB1638064A">'Barèmes réglementaires'!#REF!</definedName>
+    <definedName name="MCCB1638064A1">'Barèmes réglementaires'!$A$211</definedName>
     <definedName name="MCCB1638067A">'Barèmes réglementaires'!#REF!</definedName>
+    <definedName name="MCCB1638067A1">'Barèmes réglementaires'!$A$199</definedName>
     <definedName name="MCCB1638073A">'Barèmes réglementaires'!#REF!</definedName>
+    <definedName name="MCCB1638073A1">'Barèmes réglementaires'!$A$182</definedName>
     <definedName name="MCCB1638075A">'Barèmes réglementaires'!#REF!</definedName>
-    <definedName name="MICB1725552A">'Barèmes réglementaires'!#REF!</definedName>
+    <definedName name="MCCB1638075A1">'Barèmes réglementaires'!$A$191</definedName>
+    <definedName name="MICB1725552A">'Barèmes réglementaires'!$A$170</definedName>
+    <definedName name="MICB1725552A1">'Barèmes réglementaires'!$A$170</definedName>
     <definedName name="MICB1828514A">'Barèmes réglementaires'!#REF!</definedName>
+    <definedName name="MICB1828514A1">'Barèmes réglementaires'!$A$224</definedName>
+    <definedName name="PRMX2205145A">'Barèmes réglementaires'!$A$4</definedName>
+    <definedName name="PRMX2233010A">'Barèmes réglementaires'!$A$121</definedName>
     <definedName name="RDFF1409306A">'Barèmes réglementaires'!$A$92</definedName>
     <definedName name="RDFF1503470A">'Barèmes réglementaires'!$A$101</definedName>
     <definedName name="RDFF1503471A">'Barèmes réglementaires'!$A$74</definedName>
     <definedName name="RDFF1505045A">'Barèmes réglementaires'!$A$20</definedName>
     <definedName name="RDFF1509522A">'Barèmes réglementaires'!$A$49</definedName>
+    <definedName name="RDFF1613061A">'Barèmes réglementaires'!$A$108</definedName>
+    <definedName name="RDFF1613062A">'Barèmes réglementaires'!$A$116</definedName>
     <definedName name="RDFF1617168A">'Barèmes réglementaires'!$A$117</definedName>
+    <definedName name="RDFF1634962A" localSheetId="3">'Barèmes réglementaires'!$A$248</definedName>
     <definedName name="RDFF1634962A">'Barèmes réglementaires'!#REF!</definedName>
+    <definedName name="RDFF1634966A">'Barèmes réglementaires'!$A$158</definedName>
+    <definedName name="RDFF1634968A" localSheetId="3">'Barèmes réglementaires'!$A$239</definedName>
     <definedName name="RDFF1634968A">'Barèmes réglementaires'!#REF!</definedName>
     <definedName name="RDFF1634971A">'Barèmes réglementaires'!#REF!</definedName>
+    <definedName name="RDFF1634971A1">'Barèmes réglementaires'!$A$230</definedName>
+    <definedName name="RDFF1634973A" localSheetId="3">'Barèmes réglementaires'!$A$250</definedName>
     <definedName name="RDFF1634973A">'Barèmes réglementaires'!#REF!</definedName>
     <definedName name="Secrétaire_administratif_classe_exceptionnelle" localSheetId="1">#REF!</definedName>
     <definedName name="Secrétaire_administratif_classe_exceptionnelle" localSheetId="5">#REF!</definedName>
@@ -533,6 +555,7 @@
     <definedName name="Technicien_de_la_recherche_et_technicien_de_recherche_et_de_formation_de_classe_supérieure" localSheetId="0">#REF!</definedName>
     <definedName name="Technicien_de_la_recherche_et_technicien_de_recherche_et_de_formation_de_classe_supérieure" localSheetId="6">#REF!</definedName>
     <definedName name="Technicien_de_la_recherche_et_technicien_de_recherche_et_de_formation_de_classe_supérieure">#REF!</definedName>
+    <definedName name="TREK1831053A">'Barèmes réglementaires'!$A$122</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -553,7 +576,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6061" uniqueCount="2298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6577" uniqueCount="2385">
   <si>
     <t>Liste des arrêtés d'adhésion des corps et emplois bénéficiant du RIFSEEP</t>
   </si>
@@ -7710,6 +7733,336 @@
   <si>
     <t>Cet onglet trace les livraisons successives du barème RIFSEEP.</t>
   </si>
+  <si>
+    <t>CULTURE</t>
+  </si>
+  <si>
+    <t>Emploi de chef de service de l’Inspection générale des affaires culturelles</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>er</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> janvier 2016</t>
+    </r>
+  </si>
+  <si>
+    <t>MCCB1529546A</t>
+  </si>
+  <si>
+    <t>Corps des inspecteurs généraux des affaires culturelles</t>
+  </si>
+  <si>
+    <t>Corps des inspecteurs et conseillers de la création, des enseignements artistiques et de l’action culturelle</t>
+  </si>
+  <si>
+    <t>MCCB1529548A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emploi de chef de mission du ministère de la culture et de la communication </t>
+  </si>
+  <si>
+    <t>RDFF1528406A</t>
+  </si>
+  <si>
+    <t> MCCB1529547A</t>
+  </si>
+  <si>
+    <t>MCCB1529544A</t>
+  </si>
+  <si>
+    <t>MCCB1529550A</t>
+  </si>
+  <si>
+    <t>Emplois de responsabilités supérieures (chefs de service, sous-directeurs, directeurs de projet et experts de haut niveau)</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>er</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> janvier 2017</t>
+    </r>
+  </si>
+  <si>
+    <t>MCCB1637610A</t>
+  </si>
+  <si>
+    <t>Emploi d'administrateur général de l'Etablissement public du musée du Louvre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RDFF1617168A</t>
+  </si>
+  <si>
+    <t>Emploi de directeur du musée national des châteaux de Versailles et de Trianon</t>
+  </si>
+  <si>
+    <t>Emploi d'administrateur général de l'Etablissement public du château, du musée et du domaine national de Versailles</t>
+  </si>
+  <si>
+    <t>1er janvier 2017</t>
+  </si>
+  <si>
+    <t>Emploi de directeur général de la Bibliothèque nationale de France</t>
+  </si>
+  <si>
+    <t>Emploi de directeur chargé des collections de la Bibliothèque nationale de France</t>
+  </si>
+  <si>
+    <t>Emploi de directeur chargé des services et des réseaux de la Bibliothèque nationale de France</t>
+  </si>
+  <si>
+    <t>Emploi de directeur chargé de l'administration et du personnel de la Bibliothèque nationale de France</t>
+  </si>
+  <si>
+    <t>Emploi de directeur délégué chargé des ressources humaines de la Bibliothèque nationale de France</t>
+  </si>
+  <si>
+    <t>Corps des conservateurs du patrimoine</t>
+  </si>
+  <si>
+    <t>MICB1725552A</t>
+  </si>
+  <si>
+    <t>Corps des architectes et urbanistes de l'Etat</t>
+  </si>
+  <si>
+    <t>TREK1727049A</t>
+  </si>
+  <si>
+    <t>A renvoyer sur le barème TREK</t>
+  </si>
+  <si>
+    <t>Corps des techniciens d'art</t>
+  </si>
+  <si>
+    <t>MCCB1638073A</t>
+  </si>
+  <si>
+    <t>Corps des chefs de travaux d'art</t>
+  </si>
+  <si>
+    <t>MCCB1638075A</t>
+  </si>
+  <si>
+    <t>Corps des ingénieurs des services culturels et du patrimoine</t>
+  </si>
+  <si>
+    <t>MCCB1638067A</t>
+  </si>
+  <si>
+    <t>Corps des techniciens des services culturels et des bâtiments de France</t>
+  </si>
+  <si>
+    <t>MCCB1638064A</t>
+  </si>
+  <si>
+    <t>Corps des adjoints techniques d'accueil, de surveillance et de magasinage</t>
+  </si>
+  <si>
+    <t>MCCB1638063A</t>
+  </si>
+  <si>
+    <t>Corps des adjoints techniques du ministère chargé de la culture</t>
+  </si>
+  <si>
+    <t>MCCB1638071A</t>
+  </si>
+  <si>
+    <t>Corps des chargés d'études documentaires</t>
+  </si>
+  <si>
+    <t>Corps des secrétaires de documentation</t>
+  </si>
+  <si>
+    <t>MICB1828514A</t>
+  </si>
+  <si>
+    <t>Corps des ingénieurs de recherche</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>er</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> septembre 2017</t>
+    </r>
+  </si>
+  <si>
+    <t>MICB1817450A</t>
+  </si>
+  <si>
+    <t>Corps des ingénieurs d'études</t>
+  </si>
+  <si>
+    <t>Corps des assistants ingénieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RDFF1634962A</t>
+  </si>
+  <si>
+    <t>Corps des techniciens de recherche</t>
+  </si>
+  <si>
+    <t>Inspecteur et conseiller hors classe</t>
+  </si>
+  <si>
+    <t>Inspecteur et conseiller</t>
+  </si>
+  <si>
+    <t>Conservateurs généraux du patrimoine</t>
+  </si>
+  <si>
+    <t>Conservateurs en chef du patrimoine</t>
+  </si>
+  <si>
+    <t>Conservateurs du patrimoine</t>
+  </si>
+  <si>
+    <t>Technicien de classe exceptionnelle</t>
+  </si>
+  <si>
+    <t>Technicien de classe supérieure</t>
+  </si>
+  <si>
+    <t>Technicien de classe normale</t>
+  </si>
+  <si>
+    <t>Chef de travaux d'art principal</t>
+  </si>
+  <si>
+    <t>Chef de travaux d'art</t>
+  </si>
+  <si>
+    <t>Ingénieurs des services culturels et du patrimoine hors classe</t>
+  </si>
+  <si>
+    <t>Ingénieurs des services culturels et du patrimoine de classe supérieure</t>
+  </si>
+  <si>
+    <t>Ingénieurs des services culturels et du patrimoine de classe normale</t>
+  </si>
+  <si>
+    <t>Adjoint technique principal d'accueil, de surveillance et de magasinage de 1re et 2e classe</t>
+  </si>
+  <si>
+    <t>Adjoint principal d'accueil, de surveillance et de magasinage de 1re et 2e classe</t>
+  </si>
+  <si>
+    <t>Secrétaire de documentation de classe exceptionnelle</t>
+  </si>
+  <si>
+    <t>Secrétaire de documentation de classe supérieure</t>
+  </si>
+  <si>
+    <t>Secrétaire de documentation de classe normale</t>
+  </si>
+  <si>
+    <t>3 500</t>
+  </si>
+  <si>
+    <t>3 200</t>
+  </si>
+  <si>
+    <t>3 000</t>
+  </si>
+  <si>
+    <t>2 800</t>
+  </si>
+  <si>
+    <t>2 600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDFF1634962A </t>
+  </si>
+  <si>
+    <t>2 200</t>
+  </si>
+  <si>
+    <t>20 400</t>
+  </si>
+  <si>
+    <t>13 260</t>
+  </si>
+  <si>
+    <t>17 850</t>
+  </si>
+  <si>
+    <t>11 600</t>
+  </si>
+  <si>
+    <t>MCCB1638064A1</t>
+  </si>
+  <si>
+    <t>MCCB1638063A1</t>
+  </si>
+  <si>
+    <t>MICB1828514A1</t>
+  </si>
+  <si>
+    <t>RDFF1634971A1</t>
+  </si>
+  <si>
+    <t>JUIN 2025</t>
+  </si>
+  <si>
+    <t>Intégration du Ministère de la Culture</t>
+  </si>
 </sst>
 </file>
 
@@ -7718,7 +8071,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7974,6 +8327,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -8666,7 +9045,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="366">
+  <cellXfs count="432">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9148,12 +9527,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9248,6 +9621,216 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9287,6 +9870,51 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9374,15 +10002,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9700,48 +10319,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -10784,6 +11361,71 @@
             </a:rPr>
             <a:t>Retour SOMMAIRE</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1022350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>377825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F9CD57-7A9D-43F2-9C85-5D2E6698E791}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2200275" y="27727275"/>
+          <a:ext cx="336550" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0000FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12460,19 +13102,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="364" t="s">
+      <c r="C1" s="267" t="s">
         <v>2287</v>
       </c>
-      <c r="D1" s="365"/>
-      <c r="E1" s="352"/>
-      <c r="F1" s="352"/>
-      <c r="G1" s="352"/>
-      <c r="H1" s="352"/>
-      <c r="I1" s="352"/>
-      <c r="J1" s="352"/>
-      <c r="K1" s="352"/>
-      <c r="L1" s="352"/>
-      <c r="M1" s="352"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="125"/>
@@ -12507,10 +13149,10 @@
     </row>
     <row r="5" spans="2:13" ht="94.5" x14ac:dyDescent="0.25">
       <c r="B5" s="125"/>
-      <c r="C5" s="353" t="s">
+      <c r="C5" s="203" t="s">
         <v>2288</v>
       </c>
-      <c r="D5" s="359" t="s">
+      <c r="D5" s="209" t="s">
         <v>2290</v>
       </c>
       <c r="E5" s="125"/>
@@ -12536,10 +13178,10 @@
     </row>
     <row r="8" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B8" s="125"/>
-      <c r="C8" s="354" t="s">
+      <c r="C8" s="204" t="s">
         <v>2289</v>
       </c>
-      <c r="D8" s="360" t="s">
+      <c r="D8" s="210" t="s">
         <v>2291</v>
       </c>
       <c r="E8" s="125"/>
@@ -12570,10 +13212,10 @@
     </row>
     <row r="11" spans="2:13" ht="63" x14ac:dyDescent="0.25">
       <c r="B11" s="125"/>
-      <c r="C11" s="355" t="s">
+      <c r="C11" s="205" t="s">
         <v>2292</v>
       </c>
-      <c r="D11" s="361" t="s">
+      <c r="D11" s="211" t="s">
         <v>2295</v>
       </c>
       <c r="E11" s="125"/>
@@ -12585,7 +13227,7 @@
     <row r="12" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="125"/>
       <c r="C12" s="125"/>
-      <c r="D12" s="358"/>
+      <c r="D12" s="208"/>
       <c r="E12" s="125"/>
       <c r="F12" s="125"/>
       <c r="G12" s="125"/>
@@ -12605,10 +13247,10 @@
     </row>
     <row r="14" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="125"/>
-      <c r="C14" s="356" t="s">
+      <c r="C14" s="206" t="s">
         <v>2293</v>
       </c>
-      <c r="D14" s="362" t="s">
+      <c r="D14" s="212" t="s">
         <v>2296</v>
       </c>
       <c r="E14" s="125"/>
@@ -12639,10 +13281,10 @@
     </row>
     <row r="17" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="125"/>
-      <c r="C17" s="357" t="s">
+      <c r="C17" s="207" t="s">
         <v>2294</v>
       </c>
-      <c r="D17" s="363" t="s">
+      <c r="D17" s="213" t="s">
         <v>2297</v>
       </c>
       <c r="E17" s="125"/>
@@ -12676,7 +13318,7 @@
   <sheetPr>
     <tabColor rgb="FF75DBFF"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -12696,32 +13338,32 @@
   <sheetData>
     <row r="1" spans="1:7" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="278" t="s">
         <v>2203</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211"/>
+      <c r="B2" s="279"/>
+      <c r="C2" s="279"/>
       <c r="D2" s="161"/>
-      <c r="E2" s="212" t="s">
+      <c r="E2" s="280" t="s">
         <v>2197</v>
       </c>
-      <c r="F2" s="212"/>
-      <c r="G2" s="213"/>
+      <c r="F2" s="280"/>
+      <c r="G2" s="281"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="271" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="205"/>
+      <c r="B3" s="272"/>
+      <c r="C3" s="273"/>
       <c r="D3" s="161"/>
-      <c r="E3" s="208" t="s">
+      <c r="E3" s="276" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="206" t="s">
+      <c r="F3" s="274" t="s">
         <v>2205</v>
       </c>
-      <c r="G3" s="201" t="s">
+      <c r="G3" s="269" t="s">
         <v>115</v>
       </c>
     </row>
@@ -12736,9 +13378,9 @@
         <v>1</v>
       </c>
       <c r="D4" s="162"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="202"/>
+      <c r="E4" s="277"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="270"/>
     </row>
     <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
@@ -13009,7 +13651,7 @@
       <c r="F17" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="G17" s="179" t="s">
+      <c r="G17" s="177" t="s">
         <v>102</v>
       </c>
     </row>
@@ -13045,29 +13687,589 @@
         <v>2196</v>
       </c>
       <c r="D19" s="163"/>
-      <c r="E19" s="198" t="s">
+      <c r="E19" s="196" t="s">
         <v>137</v>
       </c>
-      <c r="F19" s="199" t="s">
+      <c r="F19" s="197" t="s">
         <v>137</v>
       </c>
       <c r="G19" s="110" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="167"/>
-      <c r="C20" s="168"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="167"/>
-      <c r="C21" s="168"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="167"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="167"/>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="214" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B20" s="215" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C20" s="216" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D20" s="217"/>
+      <c r="E20" s="218" t="s">
+        <v>2301</v>
+      </c>
+      <c r="F20" s="219" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="220"/>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="221" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B21" s="222" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C21" s="223" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D21" s="217"/>
+      <c r="E21" s="224" t="s">
+        <v>2301</v>
+      </c>
+      <c r="F21" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="225"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="221" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B22" s="222" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C22" s="223" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D22" s="217"/>
+      <c r="E22" s="224" t="s">
+        <v>2304</v>
+      </c>
+      <c r="F22" s="107" t="s">
+        <v>2304</v>
+      </c>
+      <c r="G22" s="225"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="221" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B23" s="222" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C23" s="223" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D23" s="217"/>
+      <c r="E23" s="224" t="s">
+        <v>2306</v>
+      </c>
+      <c r="F23" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="225"/>
+    </row>
+    <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="221" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B24" s="222" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="223" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D24" s="217"/>
+      <c r="E24" s="224" t="s">
+        <v>2307</v>
+      </c>
+      <c r="F24" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="225"/>
+    </row>
+    <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="221" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B25" s="222" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="223" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D25" s="217"/>
+      <c r="E25" s="224" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F25" s="108" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="225"/>
+    </row>
+    <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="221" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B26" s="222" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="223" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D26" s="217"/>
+      <c r="E26" s="224" t="s">
+        <v>2309</v>
+      </c>
+      <c r="F26" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="225"/>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="221" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B27" s="222" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C27" s="223" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D27" s="217"/>
+      <c r="E27" s="224" t="s">
+        <v>2312</v>
+      </c>
+      <c r="F27" s="107" t="s">
+        <v>135</v>
+      </c>
+      <c r="G27" s="225"/>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="221" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B28" s="222" t="s">
+        <v>2313</v>
+      </c>
+      <c r="C28" s="223" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D28" s="217"/>
+      <c r="E28" s="224" t="s">
+        <v>2312</v>
+      </c>
+      <c r="F28" s="107" t="s">
+        <v>2314</v>
+      </c>
+      <c r="G28" s="225"/>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="221" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B29" s="222" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C29" s="223" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D29" s="217"/>
+      <c r="E29" s="224" t="s">
+        <v>2312</v>
+      </c>
+      <c r="F29" s="107" t="s">
+        <v>2314</v>
+      </c>
+      <c r="G29" s="225"/>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="221" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B30" s="222" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C30" s="223" t="s">
+        <v>2317</v>
+      </c>
+      <c r="D30" s="217"/>
+      <c r="E30" s="224" t="s">
+        <v>2312</v>
+      </c>
+      <c r="F30" s="107" t="s">
+        <v>2314</v>
+      </c>
+      <c r="G30" s="225"/>
+    </row>
+    <row r="31" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="221" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B31" s="222" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C31" s="223" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D31" s="217"/>
+      <c r="E31" s="224" t="s">
+        <v>2312</v>
+      </c>
+      <c r="F31" s="107" t="s">
+        <v>2314</v>
+      </c>
+      <c r="G31" s="225"/>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="221" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B32" s="222" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C32" s="223" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D32" s="217"/>
+      <c r="E32" s="224" t="s">
+        <v>2312</v>
+      </c>
+      <c r="F32" s="107" t="s">
+        <v>2314</v>
+      </c>
+      <c r="G32" s="225"/>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="221" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B33" s="222" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C33" s="223" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D33" s="217"/>
+      <c r="E33" s="224" t="s">
+        <v>2312</v>
+      </c>
+      <c r="F33" s="107" t="s">
+        <v>2314</v>
+      </c>
+      <c r="G33" s="225"/>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="221" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B34" s="222" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C34" s="223" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D34" s="217"/>
+      <c r="E34" s="224" t="s">
+        <v>2312</v>
+      </c>
+      <c r="F34" s="107" t="s">
+        <v>2314</v>
+      </c>
+      <c r="G34" s="225"/>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="221" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B35" s="222" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C35" s="223" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D35" s="217"/>
+      <c r="E35" s="224" t="s">
+        <v>2312</v>
+      </c>
+      <c r="F35" s="107" t="s">
+        <v>2314</v>
+      </c>
+      <c r="G35" s="225"/>
+    </row>
+    <row r="36" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="221" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B36" s="222" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C36" s="223" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D36" s="217"/>
+      <c r="E36" s="224" t="s">
+        <v>2324</v>
+      </c>
+      <c r="F36" s="107" t="s">
+        <v>2324</v>
+      </c>
+      <c r="G36" s="225"/>
+    </row>
+    <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="221" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B37" s="222" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C37" s="223" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D37" s="217"/>
+      <c r="E37" s="224" t="s">
+        <v>2326</v>
+      </c>
+      <c r="F37" s="107" t="s">
+        <v>2326</v>
+      </c>
+      <c r="G37" s="226" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="221" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B38" s="222" t="s">
+        <v>2328</v>
+      </c>
+      <c r="C38" s="223" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D38" s="217"/>
+      <c r="E38" s="224" t="s">
+        <v>2329</v>
+      </c>
+      <c r="F38" s="107" t="s">
+        <v>2329</v>
+      </c>
+      <c r="G38" s="225"/>
+    </row>
+    <row r="39" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="221" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B39" s="222" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C39" s="223" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D39" s="217"/>
+      <c r="E39" s="224" t="s">
+        <v>2331</v>
+      </c>
+      <c r="F39" s="107" t="s">
+        <v>2331</v>
+      </c>
+      <c r="G39" s="225"/>
+    </row>
+    <row r="40" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="221" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B40" s="222" t="s">
+        <v>2332</v>
+      </c>
+      <c r="C40" s="223" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D40" s="217"/>
+      <c r="E40" s="224" t="s">
+        <v>2333</v>
+      </c>
+      <c r="F40" s="107" t="s">
+        <v>2333</v>
+      </c>
+      <c r="G40" s="225"/>
+    </row>
+    <row r="41" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="221" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B41" s="222" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C41" s="223" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D41" s="217"/>
+      <c r="E41" s="224" t="s">
+        <v>2335</v>
+      </c>
+      <c r="F41" s="107" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G41" s="225"/>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="221" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B42" s="222" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C42" s="223" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D42" s="217"/>
+      <c r="E42" s="224" t="s">
+        <v>2337</v>
+      </c>
+      <c r="F42" s="107" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G42" s="225"/>
+    </row>
+    <row r="43" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="221" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B43" s="222" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C43" s="223" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D43" s="217"/>
+      <c r="E43" s="224" t="s">
+        <v>2339</v>
+      </c>
+      <c r="F43" s="107" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" s="225"/>
+    </row>
+    <row r="44" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="221" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B44" s="222" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C44" s="223" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D44" s="217"/>
+      <c r="E44" s="224" t="s">
+        <v>137</v>
+      </c>
+      <c r="F44" s="107" t="s">
+        <v>137</v>
+      </c>
+      <c r="G44" s="226" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="221" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B45" s="222" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C45" s="223" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D45" s="217"/>
+      <c r="E45" s="224" t="s">
+        <v>2342</v>
+      </c>
+      <c r="F45" s="107" t="s">
+        <v>2381</v>
+      </c>
+      <c r="G45" s="225"/>
+    </row>
+    <row r="46" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="221" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B46" s="222" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C46" s="223" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D46" s="217"/>
+      <c r="E46" s="224" t="s">
+        <v>2345</v>
+      </c>
+      <c r="F46" s="107" t="s">
+        <v>2382</v>
+      </c>
+      <c r="G46" s="225"/>
+    </row>
+    <row r="47" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="221" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B47" s="222" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C47" s="223" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D47" s="217"/>
+      <c r="E47" s="224" t="s">
+        <v>2345</v>
+      </c>
+      <c r="F47" s="266" t="s">
+        <v>106</v>
+      </c>
+      <c r="G47" s="225"/>
+    </row>
+    <row r="48" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="221" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B48" s="222" t="s">
+        <v>2347</v>
+      </c>
+      <c r="C48" s="223" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D48" s="217"/>
+      <c r="E48" s="224" t="s">
+        <v>2345</v>
+      </c>
+      <c r="F48" s="107" t="s">
+        <v>2348</v>
+      </c>
+      <c r="G48" s="225"/>
+    </row>
+    <row r="49" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="227" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B49" s="228" t="s">
+        <v>2349</v>
+      </c>
+      <c r="C49" s="229" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D49" s="217"/>
+      <c r="E49" s="230" t="s">
+        <v>2345</v>
+      </c>
+      <c r="F49" s="231" t="s">
+        <v>104</v>
+      </c>
+      <c r="G49" s="225"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:G19" xr:uid="{4636A8B7-342B-4EBD-BCE7-981D0F88701D}"/>
@@ -13104,15 +14306,75 @@
     <hyperlink ref="F16" location="'Barèmes réglementaires'!A116" display="RDFF1613062A" xr:uid="{EA10A2F0-15F7-4A79-BFE6-1DBCB033EB32}"/>
     <hyperlink ref="F17" location="'Barèmes réglementaires'!A117" display="RDFF1617168A" xr:uid="{EEC1A44C-03B2-4A19-B688-F59ED4EEF267}"/>
     <hyperlink ref="F18" location="'Barèmes réglementaires'!A121" display="PRMX2233010A" xr:uid="{9EF925E4-0DDC-4292-B7E2-6ADD58A43065}"/>
-    <hyperlink ref="F19" location="'Barèmes réglementaires'!A124" display="TREK1831053A" xr:uid="{9A32CA48-D2FA-429F-96F3-DE62C7D351E9}"/>
+    <hyperlink ref="F19" location="TREK1831053A" display="TREK1831053A" xr:uid="{9A32CA48-D2FA-429F-96F3-DE62C7D351E9}"/>
     <hyperlink ref="F14" location="'Barèmes réglementaires'!A101" display="S/O" xr:uid="{1800C48C-D9EA-483B-B4B6-40D3D37AF5CB}"/>
     <hyperlink ref="F10" location="'Barèmes réglementaires'!A74" display="RDFF1503471A" xr:uid="{EF0C77E8-C1EB-43AA-A97E-FFA77A4C2068}"/>
     <hyperlink ref="B17" r:id="rId13" xr:uid="{A873A1CF-EF33-4233-A8E8-1803ED8D2957}"/>
     <hyperlink ref="F13" location="'Barèmes réglementaires'!A105" display="S/O" xr:uid="{BEB9842C-628D-4A04-B1F2-436D78D81058}"/>
+    <hyperlink ref="B24" r:id="rId14" display="https://www.legifrance.gouv.fr/affichTexte.do?cidTexte=JORFTEXT000031741651&amp;fastPos=38&amp;fastReqId=474225788&amp;categorieLien=cid&amp;oldAction=rechTexte" xr:uid="{4AFF0118-9E2B-44DD-983A-FCAC3C91CDE6}"/>
+    <hyperlink ref="B25" r:id="rId15" display="https://www.legifrance.gouv.fr/affichTexte.do?cidTexte=JORFTEXT000031741663&amp;fastPos=37&amp;fastReqId=474225788&amp;categorieLien=cid&amp;oldAction=rechTexte" xr:uid="{23EB5841-6714-4948-AAED-D5C5C9ADD260}"/>
+    <hyperlink ref="B26" r:id="rId16" display="https://www.legifrance.gouv.fr/affichTexte.do?cidTexte=JORFTEXT000031741639&amp;fastPos=63&amp;fastReqId=474225788&amp;categorieLien=cid&amp;oldAction=rechTexte" xr:uid="{2F5A0692-263F-4821-808D-53B84B001AE7}"/>
+    <hyperlink ref="B36" r:id="rId17" display="https://www.legifrance.gouv.fr/affichTexte.do?cidTexte=JORFTEXT000036196069&amp;fastPos=1&amp;fastReqId=1539971127&amp;categorieLien=id&amp;oldAction=rechTexte" xr:uid="{A8C4A206-5F07-477F-B4ED-4C0111762D5D}"/>
+    <hyperlink ref="B37" r:id="rId18" display="https://www.legifrance.gouv.fr/affichTexte.do?cidTexte=JORFTEXT000036334865&amp;fastPos=3&amp;fastReqId=14519766&amp;categorieLien=id&amp;oldAction=rechTexte" xr:uid="{8B689CC9-284F-4893-A7D5-B3601E4A7009}"/>
+    <hyperlink ref="B38" r:id="rId19" display="https://www.legifrance.gouv.fr/affichTexte.do?cidTexte=JORFTEXT000033759380&amp;fastPos=6&amp;fastReqId=454055728&amp;categorieLien=id&amp;oldAction=rechTexte" xr:uid="{9DD803EE-A089-47F3-A1C5-01F9AD84E21D}"/>
+    <hyperlink ref="B39" r:id="rId20" display="https://www.legifrance.gouv.fr/loda/id/LEGIARTI000043084956/2017-01-01/" xr:uid="{93CDDB5E-96BC-4C4F-9E95-CBA9D88040E1}"/>
+    <hyperlink ref="B40" r:id="rId21" display="https://www.legifrance.gouv.fr/affichTexte.do?cidTexte=JORFTEXT000033759316&amp;fastPos=1&amp;fastReqId=990084758&amp;categorieLien=id&amp;oldAction=rechTexte" xr:uid="{BC6D4847-C0BD-4052-B061-84F4DA4031BB}"/>
+    <hyperlink ref="B44" r:id="rId22" display="https://www.legifrance.gouv.fr/affichTexte.do?cidTexte=JORFTEXT000038015362&amp;fastPos=1&amp;fastReqId=307415556&amp;categorieLien=id&amp;oldAction=rechTexte" xr:uid="{24BE5947-44A0-4DB1-B0D4-24E8B897C21A}"/>
+    <hyperlink ref="B45" r:id="rId23" display="https://www.legifrance.gouv.fr/affichTexte.do?cidTexte=JORFTEXT000038386948&amp;fastPos=1&amp;fastReqId=331079522&amp;categorieLien=id&amp;oldAction=rechTexte" xr:uid="{469D1CF6-23CF-4D36-A5DF-6DA300300ECB}"/>
+    <hyperlink ref="B46" r:id="rId24" display="https://www.legifrance.gouv.fr/affichTexte.do?cidTexte=JORFTEXT000038391715&amp;categorieLien=id" xr:uid="{EDA9DF08-B60A-4A89-90D5-4CF7ADA7F423}"/>
+    <hyperlink ref="B47" r:id="rId25" display="https://www.legifrance.gouv.fr/affichTexte.do?cidTexte=JORFTEXT000038391715&amp;categorieLien=id" xr:uid="{2EA4A06F-9A7E-48F9-A82A-9FA3DE3F3838}"/>
+    <hyperlink ref="B48" r:id="rId26" display="https://www.legifrance.gouv.fr/affichTexte.do?cidTexte=JORFTEXT000038391715&amp;categorieLien=id" xr:uid="{0A5D5B3A-5870-43FD-B986-606DCB906D79}"/>
+    <hyperlink ref="B49" r:id="rId27" display="https://www.legifrance.gouv.fr/affichTexte.do?cidTexte=JORFTEXT000038391715&amp;categorieLien=id" xr:uid="{A966C1F9-AC3E-407D-8ACC-63AE73C1940F}"/>
+    <hyperlink ref="B23" r:id="rId28" xr:uid="{FEED22BD-53DF-4A74-B5C5-BE22D0E16D45}"/>
+    <hyperlink ref="B27" r:id="rId29" xr:uid="{A94391FB-B5D7-4CCD-B52E-C4A7C0DBA2F9}"/>
+    <hyperlink ref="B28" r:id="rId30" xr:uid="{25DA728E-1F4A-406A-AC7B-522FA64D1775}"/>
+    <hyperlink ref="B29" r:id="rId31" xr:uid="{86ECC94A-8FE7-425B-8EE1-0E45F9822A01}"/>
+    <hyperlink ref="B30" r:id="rId32" xr:uid="{3683E0CE-958E-4226-A2C8-F2A5129A8648}"/>
+    <hyperlink ref="B31" r:id="rId33" xr:uid="{F9927943-D6A5-454C-86A9-1B6FA9CAC1B8}"/>
+    <hyperlink ref="B32" r:id="rId34" xr:uid="{CB0F9946-B57B-4F9B-9752-1C37319FE838}"/>
+    <hyperlink ref="B33" r:id="rId35" xr:uid="{1EE70550-6812-4429-A4CE-DDF148DC5DE3}"/>
+    <hyperlink ref="B34" r:id="rId36" xr:uid="{5736F3CF-E69F-480C-93E0-40F1599A6D6C}"/>
+    <hyperlink ref="B35" r:id="rId37" xr:uid="{CCFD0340-7579-4FD6-9F47-4E9D97B1748F}"/>
+    <hyperlink ref="B41" r:id="rId38" xr:uid="{94EAD928-2C01-4175-9823-1F931217640C}"/>
+    <hyperlink ref="B42" r:id="rId39" xr:uid="{FB6C6B98-CA6C-4D03-95DF-3D3F54E387F7}"/>
+    <hyperlink ref="B43" r:id="rId40" xr:uid="{EC9C228A-6D7E-440F-BAFF-78ABAE3E59F5}"/>
+    <hyperlink ref="F25" location="RDFF1503471A" display="RDFF1503471A" xr:uid="{ADEF44D4-2E6B-4087-9D73-3209EAC30311}"/>
+    <hyperlink ref="F26" location="RDFF1409306A" display="RDFF1409306A" xr:uid="{58CFFC98-32D1-4C5C-AA81-8398B87F2794}"/>
+    <hyperlink ref="F24" location="RDFF1509522A" display="RDFF1509522A" xr:uid="{EC651C97-BAD3-468A-93BB-2FB6DA5E825D}"/>
+    <hyperlink ref="F43" location="RDFF1503470A" display="RDFF1503470A" xr:uid="{3F60E066-1DBE-4DE8-B6D0-6475F4D2225D}"/>
+    <hyperlink ref="F21" location="RDFF1505045A" display="RDFF1505045A" xr:uid="{02646D1E-E3B8-4E58-961D-99A80F34A22B}"/>
+    <hyperlink ref="F22" location="MCCB1529548A" display="MCCB1529548A" xr:uid="{B2564925-7E34-446B-8B1F-AD0070D805C0}"/>
+    <hyperlink ref="F23" location="RDFF1509522A" display="RDFF1509522A" xr:uid="{3105E33E-FABD-4507-A6B2-BCF701488712}"/>
+    <hyperlink ref="F20" location="RDFF1505045A" display="RDFF1505045A" xr:uid="{B694A936-ACC7-45A3-A0D6-0BD3CC0C018A}"/>
+    <hyperlink ref="F28" location="RDFF1617168A" display=" RDFF1617168A" xr:uid="{C3314D61-2CD7-46E7-89B2-0318C6FF82A5}"/>
+    <hyperlink ref="F29" location="RDFF1617168A" display=" RDFF1617168A" xr:uid="{A8372B85-F3FB-47B4-BD79-96E3BEE52D5D}"/>
+    <hyperlink ref="F30" location="RDFF1617168A" display=" RDFF1617168A" xr:uid="{B9134DEE-4306-477E-AED7-738785F3B183}"/>
+    <hyperlink ref="F31" location="RDFF1617168A" display=" RDFF1617168A" xr:uid="{66E8A9D6-C7A3-43A1-8555-08639956AC0A}"/>
+    <hyperlink ref="F32" location="RDFF1617168A" display=" RDFF1617168A" xr:uid="{0CDD7A37-EE27-49A5-9283-2CD6DE3B2AB7}"/>
+    <hyperlink ref="F33" location="RDFF1617168A" display=" RDFF1617168A" xr:uid="{EDE3075C-831E-4E04-BFE4-9AB5E2A044BF}"/>
+    <hyperlink ref="F34" location="RDFF1617168A" display=" RDFF1617168A" xr:uid="{4F79B550-96B2-406E-8B24-920C3BDD372C}"/>
+    <hyperlink ref="F35" location="RDFF1617168A" display=" RDFF1617168A" xr:uid="{961716A8-FB11-4EFC-BD74-A63A5B996553}"/>
+    <hyperlink ref="F36" location="MICB1725552A" display="MICB1725552A" xr:uid="{028FA7A5-FF2C-45DA-BA46-661D2BCCA4B4}"/>
+    <hyperlink ref="F37" r:id="rId41" xr:uid="{91CE4D3C-DE7D-45C9-A696-7938342FAB07}"/>
+    <hyperlink ref="F38" location="MCCB1638073A1" display="MCCB1638073A" xr:uid="{5232CE76-D9F1-4749-B279-B8367C31CC13}"/>
+    <hyperlink ref="F39" location="MCCB1638075A1" display="MCCB1638075A" xr:uid="{CF8B9B77-1E0D-44D6-AEA4-D1B1F0BF96E5}"/>
+    <hyperlink ref="F40" location="MCCB1638056A" display="MCCB1638067A" xr:uid="{01671006-6123-4EF3-A42A-BA5C214C4065}"/>
+    <hyperlink ref="F41" location="MCCB1638064A1" display="MCCB1638064A1" xr:uid="{EC004B3D-BF4F-408C-A44D-849B87D58194}"/>
+    <hyperlink ref="F42" location="MCCB1638063A1" display="MCCB1638063A1" xr:uid="{4FAE4576-2731-4873-A167-AF2A361B081B}"/>
+    <hyperlink ref="F44" r:id="rId42" xr:uid="{264DFA5F-B095-4F68-8BCF-07DB7B7C502A}"/>
+    <hyperlink ref="F45" location="MICB1828514A1" display="MICB1828514A1" xr:uid="{3654F3BA-A9F0-480D-A242-5C577B8FC675}"/>
+    <hyperlink ref="F48" location="'Barèmes réglementaires'!RDFF1634962A" display=" RDFF1634962A" xr:uid="{71ED87FC-7CFF-42E9-97E8-EBA8A68A3A46}"/>
+    <hyperlink ref="F46" location="RDFF1634971A1" display="RDFF1634971A1" xr:uid="{2ABD125C-6346-480A-8A0E-058BCC049E83}"/>
+    <hyperlink ref="F27" location="RDFF1617168A" display="RDFF1617168A" xr:uid="{393F1CC2-31EE-42D3-8FCD-2623A285FD0F}"/>
+    <hyperlink ref="B21" r:id="rId43" display="https://www.legifrance.gouv.fr/affichTexte.do?cidTexte=JORFTEXT000031741646&amp;fastPos=39&amp;fastReqId=474225788&amp;categorieLien=cid&amp;oldAction=rechTexte" xr:uid="{69E742CD-5E2F-4F2E-9EFA-16792F4F987B}"/>
+    <hyperlink ref="B22" r:id="rId44" xr:uid="{3394CEAA-BDF9-4E6A-991F-6386B28D009F}"/>
+    <hyperlink ref="B20" r:id="rId45" xr:uid="{18935C15-A880-46B8-B05B-5E8EABC69179}"/>
+    <hyperlink ref="F47" location="'Barèmes réglementaires'!RDFF1634968A" display="RDFF1634968A" xr:uid="{FCB26CEC-7FA9-4E2A-9F16-528518F7DA80}"/>
+    <hyperlink ref="F49" location="'Barèmes réglementaires'!RDFF1634973A" display="RDFF1634973A" xr:uid="{066265DC-E337-4B2E-9366-E4E7497F68A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
-  <drawing r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
+  <drawing r:id="rId47"/>
 </worksheet>
 </file>
 
@@ -13122,10 +14384,10 @@
     <tabColor rgb="FFC1F5FB"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M161"/>
+  <dimension ref="A1:M258"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight"/>
@@ -13150,22 +14412,22 @@
   <sheetData>
     <row r="1" spans="1:13" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="392" t="s">
         <v>2198</v>
       </c>
-      <c r="B2" s="313"/>
-      <c r="C2" s="313"/>
-      <c r="D2" s="313"/>
-      <c r="E2" s="313"/>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313"/>
-      <c r="H2" s="314"/>
-      <c r="J2" s="315" t="s">
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
+      <c r="H2" s="394"/>
+      <c r="J2" s="395" t="s">
         <v>2197</v>
       </c>
-      <c r="K2" s="316"/>
-      <c r="L2" s="316"/>
-      <c r="M2" s="317"/>
+      <c r="K2" s="396"/>
+      <c r="L2" s="396"/>
+      <c r="M2" s="397"/>
     </row>
     <row r="3" spans="1:13" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
@@ -13206,10 +14468,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="221" t="s">
+      <c r="A4" s="304" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="216" t="s">
+      <c r="B4" s="299" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="42" t="s">
@@ -13230,22 +14492,22 @@
       <c r="H4" s="44">
         <v>15750</v>
       </c>
-      <c r="J4" s="296" t="s">
+      <c r="J4" s="376" t="s">
         <v>112</v>
       </c>
-      <c r="K4" s="298" t="s">
+      <c r="K4" s="378" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="325" t="s">
+      <c r="L4" s="405" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="327" t="s">
+      <c r="M4" s="407" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="222"/>
-      <c r="B5" s="214"/>
+      <c r="A5" s="305"/>
+      <c r="B5" s="297"/>
       <c r="C5" s="45" t="s">
         <v>27</v>
       </c>
@@ -13264,14 +14526,14 @@
       <c r="H5" s="47">
         <v>14300</v>
       </c>
-      <c r="J5" s="297"/>
-      <c r="K5" s="299"/>
-      <c r="L5" s="326"/>
-      <c r="M5" s="318"/>
+      <c r="J5" s="377"/>
+      <c r="K5" s="379"/>
+      <c r="L5" s="406"/>
+      <c r="M5" s="398"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="222"/>
-      <c r="B6" s="214"/>
+      <c r="A6" s="305"/>
+      <c r="B6" s="297"/>
       <c r="C6" s="45" t="s">
         <v>28</v>
       </c>
@@ -13290,14 +14552,14 @@
       <c r="H6" s="47">
         <v>12800</v>
       </c>
-      <c r="J6" s="297"/>
-      <c r="K6" s="299"/>
-      <c r="L6" s="326"/>
-      <c r="M6" s="318"/>
+      <c r="J6" s="377"/>
+      <c r="K6" s="379"/>
+      <c r="L6" s="406"/>
+      <c r="M6" s="398"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="222"/>
-      <c r="B7" s="214"/>
+      <c r="A7" s="305"/>
+      <c r="B7" s="297"/>
       <c r="C7" s="45" t="s">
         <v>29</v>
       </c>
@@ -13316,14 +14578,14 @@
       <c r="H7" s="47">
         <v>11350</v>
       </c>
-      <c r="J7" s="297"/>
-      <c r="K7" s="299"/>
-      <c r="L7" s="326"/>
-      <c r="M7" s="318"/>
+      <c r="J7" s="377"/>
+      <c r="K7" s="379"/>
+      <c r="L7" s="406"/>
+      <c r="M7" s="398"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="222"/>
-      <c r="B8" s="214" t="s">
+      <c r="A8" s="305"/>
+      <c r="B8" s="297" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="45" t="s">
@@ -13344,18 +14606,18 @@
       <c r="H8" s="47">
         <v>15750</v>
       </c>
-      <c r="J8" s="297"/>
-      <c r="K8" s="299"/>
-      <c r="L8" s="326" t="s">
+      <c r="J8" s="377"/>
+      <c r="K8" s="379"/>
+      <c r="L8" s="406" t="s">
         <v>120</v>
       </c>
-      <c r="M8" s="318" t="s">
+      <c r="M8" s="398" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="222"/>
-      <c r="B9" s="214"/>
+      <c r="A9" s="305"/>
+      <c r="B9" s="297"/>
       <c r="C9" s="45" t="s">
         <v>27</v>
       </c>
@@ -13374,14 +14636,14 @@
       <c r="H9" s="47">
         <v>14300</v>
       </c>
-      <c r="J9" s="297"/>
-      <c r="K9" s="299"/>
-      <c r="L9" s="326"/>
-      <c r="M9" s="318"/>
+      <c r="J9" s="377"/>
+      <c r="K9" s="379"/>
+      <c r="L9" s="406"/>
+      <c r="M9" s="398"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="222"/>
-      <c r="B10" s="214"/>
+      <c r="A10" s="305"/>
+      <c r="B10" s="297"/>
       <c r="C10" s="45" t="s">
         <v>28</v>
       </c>
@@ -13400,14 +14662,14 @@
       <c r="H10" s="47">
         <v>12800</v>
       </c>
-      <c r="J10" s="297"/>
-      <c r="K10" s="299"/>
-      <c r="L10" s="326"/>
-      <c r="M10" s="318"/>
+      <c r="J10" s="377"/>
+      <c r="K10" s="379"/>
+      <c r="L10" s="406"/>
+      <c r="M10" s="398"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="222"/>
-      <c r="B11" s="214"/>
+      <c r="A11" s="305"/>
+      <c r="B11" s="297"/>
       <c r="C11" s="45" t="s">
         <v>29</v>
       </c>
@@ -13426,14 +14688,14 @@
       <c r="H11" s="47">
         <v>11350</v>
       </c>
-      <c r="J11" s="297"/>
-      <c r="K11" s="299"/>
-      <c r="L11" s="326"/>
-      <c r="M11" s="318"/>
+      <c r="J11" s="377"/>
+      <c r="K11" s="379"/>
+      <c r="L11" s="406"/>
+      <c r="M11" s="398"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="222"/>
-      <c r="B12" s="214" t="s">
+      <c r="A12" s="305"/>
+      <c r="B12" s="297" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="45" t="s">
@@ -13454,18 +14716,18 @@
       <c r="H12" s="47">
         <v>15750</v>
       </c>
-      <c r="J12" s="297"/>
-      <c r="K12" s="299"/>
-      <c r="L12" s="326" t="s">
+      <c r="J12" s="377"/>
+      <c r="K12" s="379"/>
+      <c r="L12" s="406" t="s">
         <v>121</v>
       </c>
-      <c r="M12" s="318" t="s">
+      <c r="M12" s="398" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="222"/>
-      <c r="B13" s="214"/>
+      <c r="A13" s="305"/>
+      <c r="B13" s="297"/>
       <c r="C13" s="45" t="s">
         <v>27</v>
       </c>
@@ -13484,14 +14746,14 @@
       <c r="H13" s="47">
         <v>14300</v>
       </c>
-      <c r="J13" s="297"/>
-      <c r="K13" s="299"/>
-      <c r="L13" s="326"/>
-      <c r="M13" s="318"/>
+      <c r="J13" s="377"/>
+      <c r="K13" s="379"/>
+      <c r="L13" s="406"/>
+      <c r="M13" s="398"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="222"/>
-      <c r="B14" s="214"/>
+      <c r="A14" s="305"/>
+      <c r="B14" s="297"/>
       <c r="C14" s="45" t="s">
         <v>28</v>
       </c>
@@ -13510,14 +14772,14 @@
       <c r="H14" s="47">
         <v>12800</v>
       </c>
-      <c r="J14" s="297"/>
-      <c r="K14" s="299"/>
-      <c r="L14" s="326"/>
-      <c r="M14" s="318"/>
+      <c r="J14" s="377"/>
+      <c r="K14" s="379"/>
+      <c r="L14" s="406"/>
+      <c r="M14" s="398"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="222"/>
-      <c r="B15" s="214"/>
+      <c r="A15" s="305"/>
+      <c r="B15" s="297"/>
       <c r="C15" s="45" t="s">
         <v>29</v>
       </c>
@@ -13536,14 +14798,14 @@
       <c r="H15" s="47">
         <v>11350</v>
       </c>
-      <c r="J15" s="297"/>
-      <c r="K15" s="299"/>
-      <c r="L15" s="326"/>
-      <c r="M15" s="318"/>
+      <c r="J15" s="377"/>
+      <c r="K15" s="379"/>
+      <c r="L15" s="406"/>
+      <c r="M15" s="398"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="222"/>
-      <c r="B16" s="214" t="s">
+      <c r="A16" s="305"/>
+      <c r="B16" s="297" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="45" t="s">
@@ -13564,18 +14826,18 @@
       <c r="H16" s="47">
         <v>15750</v>
       </c>
-      <c r="J16" s="297"/>
-      <c r="K16" s="299"/>
-      <c r="L16" s="326" t="s">
+      <c r="J16" s="377"/>
+      <c r="K16" s="379"/>
+      <c r="L16" s="406" t="s">
         <v>122</v>
       </c>
-      <c r="M16" s="318" t="s">
+      <c r="M16" s="398" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="222"/>
-      <c r="B17" s="214"/>
+      <c r="A17" s="305"/>
+      <c r="B17" s="297"/>
       <c r="C17" s="45" t="s">
         <v>27</v>
       </c>
@@ -13594,14 +14856,14 @@
       <c r="H17" s="47">
         <v>14300</v>
       </c>
-      <c r="J17" s="297"/>
-      <c r="K17" s="299"/>
-      <c r="L17" s="326"/>
-      <c r="M17" s="318"/>
+      <c r="J17" s="377"/>
+      <c r="K17" s="379"/>
+      <c r="L17" s="406"/>
+      <c r="M17" s="398"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="222"/>
-      <c r="B18" s="214"/>
+      <c r="A18" s="305"/>
+      <c r="B18" s="297"/>
       <c r="C18" s="45" t="s">
         <v>28</v>
       </c>
@@ -13620,14 +14882,14 @@
       <c r="H18" s="47">
         <v>12800</v>
       </c>
-      <c r="J18" s="297"/>
-      <c r="K18" s="299"/>
-      <c r="L18" s="326"/>
-      <c r="M18" s="318"/>
+      <c r="J18" s="377"/>
+      <c r="K18" s="379"/>
+      <c r="L18" s="406"/>
+      <c r="M18" s="398"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="223"/>
-      <c r="B19" s="215"/>
+      <c r="A19" s="306"/>
+      <c r="B19" s="298"/>
       <c r="C19" s="48" t="s">
         <v>29</v>
       </c>
@@ -13646,16 +14908,16 @@
       <c r="H19" s="50">
         <v>11350</v>
       </c>
-      <c r="J19" s="323"/>
-      <c r="K19" s="324"/>
-      <c r="L19" s="328"/>
-      <c r="M19" s="319"/>
+      <c r="J19" s="403"/>
+      <c r="K19" s="404"/>
+      <c r="L19" s="408"/>
+      <c r="M19" s="399"/>
     </row>
     <row r="20" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="221" t="s">
+      <c r="A20" s="304" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="216" t="s">
+      <c r="B20" s="299" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="43" t="s">
@@ -13676,22 +14938,22 @@
       <c r="H20" s="44">
         <v>10080</v>
       </c>
-      <c r="J20" s="296" t="s">
+      <c r="J20" s="376" t="s">
         <v>158</v>
       </c>
-      <c r="K20" s="298" t="s">
+      <c r="K20" s="378" t="s">
         <v>161</v>
       </c>
-      <c r="L20" s="320" t="s">
+      <c r="L20" s="400" t="s">
         <v>131</v>
       </c>
-      <c r="M20" s="318" t="s">
+      <c r="M20" s="398" t="s">
         <v>2187</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="222"/>
-      <c r="B21" s="214"/>
+      <c r="A21" s="305"/>
+      <c r="B21" s="297"/>
       <c r="C21" s="46" t="s">
         <v>27</v>
       </c>
@@ -13710,14 +14972,14 @@
       <c r="H21" s="47">
         <v>8280</v>
       </c>
-      <c r="J21" s="297"/>
-      <c r="K21" s="299"/>
-      <c r="L21" s="321"/>
-      <c r="M21" s="318"/>
+      <c r="J21" s="377"/>
+      <c r="K21" s="379"/>
+      <c r="L21" s="401"/>
+      <c r="M21" s="398"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="222"/>
-      <c r="B22" s="214"/>
+      <c r="A22" s="305"/>
+      <c r="B22" s="297"/>
       <c r="C22" s="46" t="s">
         <v>28</v>
       </c>
@@ -13736,14 +14998,14 @@
       <c r="H22" s="47">
         <v>6840</v>
       </c>
-      <c r="J22" s="297"/>
-      <c r="K22" s="299"/>
-      <c r="L22" s="321"/>
-      <c r="M22" s="307"/>
+      <c r="J22" s="377"/>
+      <c r="K22" s="379"/>
+      <c r="L22" s="401"/>
+      <c r="M22" s="387"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="222"/>
-      <c r="B23" s="214" t="s">
+      <c r="A23" s="305"/>
+      <c r="B23" s="297" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="46" t="s">
@@ -13764,18 +15026,18 @@
       <c r="H23" s="47">
         <v>10080</v>
       </c>
-      <c r="J23" s="297"/>
-      <c r="K23" s="299"/>
-      <c r="L23" s="321" t="s">
+      <c r="J23" s="377"/>
+      <c r="K23" s="379"/>
+      <c r="L23" s="401" t="s">
         <v>131</v>
       </c>
-      <c r="M23" s="318" t="s">
+      <c r="M23" s="398" t="s">
         <v>2187</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="222"/>
-      <c r="B24" s="214"/>
+      <c r="A24" s="305"/>
+      <c r="B24" s="297"/>
       <c r="C24" s="46" t="s">
         <v>27</v>
       </c>
@@ -13794,14 +15056,14 @@
       <c r="H24" s="47">
         <v>8280</v>
       </c>
-      <c r="J24" s="297"/>
-      <c r="K24" s="299"/>
-      <c r="L24" s="321"/>
-      <c r="M24" s="318"/>
+      <c r="J24" s="377"/>
+      <c r="K24" s="379"/>
+      <c r="L24" s="401"/>
+      <c r="M24" s="398"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="222"/>
-      <c r="B25" s="214"/>
+      <c r="A25" s="305"/>
+      <c r="B25" s="297"/>
       <c r="C25" s="46" t="s">
         <v>28</v>
       </c>
@@ -13820,14 +15082,14 @@
       <c r="H25" s="47">
         <v>6840</v>
       </c>
-      <c r="J25" s="297"/>
-      <c r="K25" s="299"/>
-      <c r="L25" s="321"/>
-      <c r="M25" s="318"/>
+      <c r="J25" s="377"/>
+      <c r="K25" s="379"/>
+      <c r="L25" s="401"/>
+      <c r="M25" s="398"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="222"/>
-      <c r="B26" s="214" t="s">
+      <c r="A26" s="305"/>
+      <c r="B26" s="297" t="s">
         <v>2219</v>
       </c>
       <c r="C26" s="46" t="s">
@@ -13848,18 +15110,18 @@
       <c r="H26" s="47">
         <v>10080</v>
       </c>
-      <c r="J26" s="297"/>
-      <c r="K26" s="299"/>
-      <c r="L26" s="321" t="s">
+      <c r="J26" s="377"/>
+      <c r="K26" s="379"/>
+      <c r="L26" s="401" t="s">
         <v>131</v>
       </c>
-      <c r="M26" s="305" t="s">
+      <c r="M26" s="385" t="s">
         <v>2187</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="222"/>
-      <c r="B27" s="214"/>
+      <c r="A27" s="305"/>
+      <c r="B27" s="297"/>
       <c r="C27" s="46" t="s">
         <v>27</v>
       </c>
@@ -13878,14 +15140,14 @@
       <c r="H27" s="47">
         <v>8280</v>
       </c>
-      <c r="J27" s="297"/>
-      <c r="K27" s="299"/>
-      <c r="L27" s="321"/>
-      <c r="M27" s="318"/>
+      <c r="J27" s="377"/>
+      <c r="K27" s="379"/>
+      <c r="L27" s="401"/>
+      <c r="M27" s="398"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="223"/>
-      <c r="B28" s="215"/>
+      <c r="A28" s="306"/>
+      <c r="B28" s="298"/>
       <c r="C28" s="49" t="s">
         <v>28</v>
       </c>
@@ -13904,16 +15166,16 @@
       <c r="H28" s="50">
         <v>6840</v>
       </c>
-      <c r="J28" s="297"/>
-      <c r="K28" s="299"/>
-      <c r="L28" s="322"/>
-      <c r="M28" s="319"/>
+      <c r="J28" s="377"/>
+      <c r="K28" s="379"/>
+      <c r="L28" s="402"/>
+      <c r="M28" s="399"/>
     </row>
     <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="221" t="s">
+      <c r="A29" s="304" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="232" t="s">
+      <c r="B29" s="315" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="42" t="s">
@@ -13934,22 +15196,22 @@
       <c r="H29" s="55">
         <v>4860</v>
       </c>
-      <c r="J29" s="296" t="s">
+      <c r="J29" s="376" t="s">
         <v>144</v>
       </c>
-      <c r="K29" s="298" t="s">
+      <c r="K29" s="378" t="s">
         <v>40</v>
       </c>
-      <c r="L29" s="300" t="s">
+      <c r="L29" s="380" t="s">
         <v>118</v>
       </c>
-      <c r="M29" s="303" t="s">
+      <c r="M29" s="383" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="222"/>
-      <c r="B30" s="233"/>
+      <c r="A30" s="305"/>
+      <c r="B30" s="316"/>
       <c r="C30" s="45" t="s">
         <v>27</v>
       </c>
@@ -13968,14 +15230,14 @@
       <c r="H30" s="47">
         <v>3890</v>
       </c>
-      <c r="J30" s="297"/>
-      <c r="K30" s="299"/>
-      <c r="L30" s="301"/>
-      <c r="M30" s="304"/>
+      <c r="J30" s="377"/>
+      <c r="K30" s="379"/>
+      <c r="L30" s="381"/>
+      <c r="M30" s="384"/>
     </row>
     <row r="31" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="222"/>
-      <c r="B31" s="233"/>
+      <c r="A31" s="305"/>
+      <c r="B31" s="316"/>
       <c r="C31" s="45" t="s">
         <v>23</v>
       </c>
@@ -13994,14 +15256,14 @@
       <c r="H31" s="47">
         <v>4500</v>
       </c>
-      <c r="J31" s="297"/>
-      <c r="K31" s="299"/>
-      <c r="L31" s="301"/>
-      <c r="M31" s="304"/>
+      <c r="J31" s="377"/>
+      <c r="K31" s="379"/>
+      <c r="L31" s="381"/>
+      <c r="M31" s="384"/>
     </row>
     <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="222"/>
-      <c r="B32" s="234"/>
+      <c r="A32" s="305"/>
+      <c r="B32" s="317"/>
       <c r="C32" s="45" t="s">
         <v>27</v>
       </c>
@@ -14020,14 +15282,14 @@
       <c r="H32" s="47">
         <v>3600</v>
       </c>
-      <c r="J32" s="297"/>
-      <c r="K32" s="299"/>
-      <c r="L32" s="302"/>
-      <c r="M32" s="305"/>
+      <c r="J32" s="377"/>
+      <c r="K32" s="379"/>
+      <c r="L32" s="382"/>
+      <c r="M32" s="385"/>
     </row>
     <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="222"/>
-      <c r="B33" s="310" t="s">
+      <c r="A33" s="305"/>
+      <c r="B33" s="390" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="45" t="s">
@@ -14048,18 +15310,18 @@
       <c r="H33" s="58">
         <v>4860</v>
       </c>
-      <c r="J33" s="297"/>
-      <c r="K33" s="299"/>
-      <c r="L33" s="306" t="s">
+      <c r="J33" s="377"/>
+      <c r="K33" s="379"/>
+      <c r="L33" s="386" t="s">
         <v>123</v>
       </c>
-      <c r="M33" s="307" t="s">
+      <c r="M33" s="387" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="222"/>
-      <c r="B34" s="233"/>
+      <c r="A34" s="305"/>
+      <c r="B34" s="316"/>
       <c r="C34" s="45" t="s">
         <v>27</v>
       </c>
@@ -14078,14 +15340,14 @@
       <c r="H34" s="47">
         <v>3890</v>
       </c>
-      <c r="J34" s="297"/>
-      <c r="K34" s="299"/>
-      <c r="L34" s="301"/>
-      <c r="M34" s="304"/>
+      <c r="J34" s="377"/>
+      <c r="K34" s="379"/>
+      <c r="L34" s="381"/>
+      <c r="M34" s="384"/>
     </row>
     <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="222"/>
-      <c r="B35" s="233"/>
+      <c r="A35" s="305"/>
+      <c r="B35" s="316"/>
       <c r="C35" s="45" t="s">
         <v>23</v>
       </c>
@@ -14104,14 +15366,14 @@
       <c r="H35" s="47">
         <v>4500</v>
       </c>
-      <c r="J35" s="297"/>
-      <c r="K35" s="299"/>
-      <c r="L35" s="301"/>
-      <c r="M35" s="304"/>
+      <c r="J35" s="377"/>
+      <c r="K35" s="379"/>
+      <c r="L35" s="381"/>
+      <c r="M35" s="384"/>
     </row>
     <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="222"/>
-      <c r="B36" s="234"/>
+      <c r="A36" s="305"/>
+      <c r="B36" s="317"/>
       <c r="C36" s="45" t="s">
         <v>27</v>
       </c>
@@ -14130,14 +15392,14 @@
       <c r="H36" s="47">
         <v>3600</v>
       </c>
-      <c r="J36" s="297"/>
-      <c r="K36" s="299"/>
-      <c r="L36" s="302"/>
-      <c r="M36" s="305"/>
+      <c r="J36" s="377"/>
+      <c r="K36" s="379"/>
+      <c r="L36" s="382"/>
+      <c r="M36" s="385"/>
     </row>
     <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="222"/>
-      <c r="B37" s="310" t="s">
+      <c r="A37" s="305"/>
+      <c r="B37" s="390" t="s">
         <v>2220</v>
       </c>
       <c r="C37" s="45" t="s">
@@ -14158,22 +15420,22 @@
       <c r="H37" s="47">
         <v>4860</v>
       </c>
-      <c r="J37" s="263" t="s">
+      <c r="J37" s="343" t="s">
         <v>143</v>
       </c>
-      <c r="K37" s="264" t="s">
+      <c r="K37" s="344" t="s">
         <v>46</v>
       </c>
-      <c r="L37" s="306" t="s">
+      <c r="L37" s="386" t="s">
         <v>117</v>
       </c>
-      <c r="M37" s="307" t="s">
+      <c r="M37" s="387" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="222"/>
-      <c r="B38" s="233"/>
+      <c r="A38" s="305"/>
+      <c r="B38" s="316"/>
       <c r="C38" s="45" t="s">
         <v>27</v>
       </c>
@@ -14192,14 +15454,14 @@
       <c r="H38" s="47">
         <v>3890</v>
       </c>
-      <c r="J38" s="297"/>
-      <c r="K38" s="299"/>
-      <c r="L38" s="301"/>
-      <c r="M38" s="304"/>
+      <c r="J38" s="377"/>
+      <c r="K38" s="379"/>
+      <c r="L38" s="381"/>
+      <c r="M38" s="384"/>
     </row>
     <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="222"/>
-      <c r="B39" s="233"/>
+      <c r="A39" s="305"/>
+      <c r="B39" s="316"/>
       <c r="C39" s="45" t="s">
         <v>23</v>
       </c>
@@ -14218,14 +15480,14 @@
       <c r="H39" s="47">
         <v>4500</v>
       </c>
-      <c r="J39" s="297"/>
-      <c r="K39" s="299"/>
-      <c r="L39" s="301"/>
-      <c r="M39" s="304"/>
+      <c r="J39" s="377"/>
+      <c r="K39" s="379"/>
+      <c r="L39" s="381"/>
+      <c r="M39" s="384"/>
     </row>
     <row r="40" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="223"/>
-      <c r="B40" s="311"/>
+      <c r="A40" s="306"/>
+      <c r="B40" s="391"/>
       <c r="C40" s="48" t="s">
         <v>27</v>
       </c>
@@ -14244,16 +15506,16 @@
       <c r="H40" s="50">
         <v>3600</v>
       </c>
-      <c r="J40" s="297"/>
-      <c r="K40" s="299"/>
-      <c r="L40" s="308"/>
-      <c r="M40" s="309"/>
+      <c r="J40" s="377"/>
+      <c r="K40" s="379"/>
+      <c r="L40" s="388"/>
+      <c r="M40" s="389"/>
     </row>
     <row r="41" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="221" t="s">
+      <c r="A41" s="304" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="235" t="s">
+      <c r="B41" s="318" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="43" t="s">
@@ -14274,22 +15536,22 @@
       <c r="H41" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="J41" s="262" t="s">
+      <c r="J41" s="342" t="s">
         <v>125</v>
       </c>
-      <c r="K41" s="255" t="s">
+      <c r="K41" s="335" t="s">
         <v>47</v>
       </c>
-      <c r="L41" s="288" t="s">
+      <c r="L41" s="368" t="s">
         <v>126</v>
       </c>
-      <c r="M41" s="291" t="s">
+      <c r="M41" s="371" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="222"/>
-      <c r="B42" s="225"/>
+      <c r="A42" s="305"/>
+      <c r="B42" s="308"/>
       <c r="C42" s="46" t="s">
         <v>27</v>
       </c>
@@ -14308,14 +15570,14 @@
       <c r="H42" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="J42" s="250"/>
-      <c r="K42" s="256"/>
-      <c r="L42" s="289"/>
-      <c r="M42" s="292"/>
+      <c r="J42" s="330"/>
+      <c r="K42" s="336"/>
+      <c r="L42" s="369"/>
+      <c r="M42" s="372"/>
     </row>
     <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="222"/>
-      <c r="B43" s="225"/>
+      <c r="A43" s="305"/>
+      <c r="B43" s="308"/>
       <c r="C43" s="46" t="s">
         <v>23</v>
       </c>
@@ -14334,14 +15596,14 @@
       <c r="H43" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="J43" s="250"/>
-      <c r="K43" s="256"/>
-      <c r="L43" s="289"/>
-      <c r="M43" s="292"/>
+      <c r="J43" s="330"/>
+      <c r="K43" s="336"/>
+      <c r="L43" s="369"/>
+      <c r="M43" s="372"/>
     </row>
     <row r="44" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="222"/>
-      <c r="B44" s="226"/>
+      <c r="A44" s="305"/>
+      <c r="B44" s="309"/>
       <c r="C44" s="46" t="s">
         <v>27</v>
       </c>
@@ -14360,14 +15622,14 @@
       <c r="H44" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="J44" s="250"/>
-      <c r="K44" s="256"/>
-      <c r="L44" s="289"/>
-      <c r="M44" s="293"/>
+      <c r="J44" s="330"/>
+      <c r="K44" s="336"/>
+      <c r="L44" s="369"/>
+      <c r="M44" s="373"/>
     </row>
     <row r="45" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="222"/>
-      <c r="B45" s="224" t="s">
+      <c r="A45" s="305"/>
+      <c r="B45" s="307" t="s">
         <v>60</v>
       </c>
       <c r="C45" s="46" t="s">
@@ -14388,18 +15650,18 @@
       <c r="H45" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="J45" s="250"/>
-      <c r="K45" s="256"/>
-      <c r="L45" s="294" t="s">
+      <c r="J45" s="330"/>
+      <c r="K45" s="336"/>
+      <c r="L45" s="374" t="s">
         <v>127</v>
       </c>
-      <c r="M45" s="295" t="s">
+      <c r="M45" s="375" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="222"/>
-      <c r="B46" s="225"/>
+      <c r="A46" s="305"/>
+      <c r="B46" s="308"/>
       <c r="C46" s="46" t="s">
         <v>27</v>
       </c>
@@ -14418,14 +15680,14 @@
       <c r="H46" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="J46" s="250"/>
-      <c r="K46" s="256"/>
-      <c r="L46" s="289"/>
-      <c r="M46" s="292"/>
+      <c r="J46" s="330"/>
+      <c r="K46" s="336"/>
+      <c r="L46" s="369"/>
+      <c r="M46" s="372"/>
     </row>
     <row r="47" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="222"/>
-      <c r="B47" s="225"/>
+      <c r="A47" s="305"/>
+      <c r="B47" s="308"/>
       <c r="C47" s="46" t="s">
         <v>23</v>
       </c>
@@ -14444,14 +15706,14 @@
       <c r="H47" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="J47" s="250"/>
-      <c r="K47" s="256"/>
-      <c r="L47" s="289"/>
-      <c r="M47" s="292"/>
+      <c r="J47" s="330"/>
+      <c r="K47" s="336"/>
+      <c r="L47" s="369"/>
+      <c r="M47" s="372"/>
     </row>
     <row r="48" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="222"/>
-      <c r="B48" s="225"/>
+      <c r="A48" s="305"/>
+      <c r="B48" s="308"/>
       <c r="C48" s="62" t="s">
         <v>27</v>
       </c>
@@ -14470,16 +15732,16 @@
       <c r="H48" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="J48" s="251"/>
-      <c r="K48" s="257"/>
-      <c r="L48" s="289"/>
-      <c r="M48" s="292"/>
+      <c r="J48" s="331"/>
+      <c r="K48" s="337"/>
+      <c r="L48" s="369"/>
+      <c r="M48" s="372"/>
     </row>
     <row r="49" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="221" t="s">
+      <c r="A49" s="304" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="235" t="s">
+      <c r="B49" s="318" t="s">
         <v>64</v>
       </c>
       <c r="C49" s="43" t="s">
@@ -14500,22 +15762,22 @@
       <c r="H49" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="J49" s="262" t="s">
+      <c r="J49" s="342" t="s">
         <v>145</v>
       </c>
-      <c r="K49" s="255" t="s">
+      <c r="K49" s="335" t="s">
         <v>63</v>
       </c>
-      <c r="L49" s="288" t="s">
+      <c r="L49" s="368" t="s">
         <v>129</v>
       </c>
-      <c r="M49" s="291" t="s">
+      <c r="M49" s="371" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="222"/>
-      <c r="B50" s="225"/>
+      <c r="A50" s="305"/>
+      <c r="B50" s="308"/>
       <c r="C50" s="46" t="s">
         <v>27</v>
       </c>
@@ -14534,14 +15796,14 @@
       <c r="H50" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="J50" s="250"/>
-      <c r="K50" s="256"/>
-      <c r="L50" s="289"/>
-      <c r="M50" s="292"/>
+      <c r="J50" s="330"/>
+      <c r="K50" s="336"/>
+      <c r="L50" s="369"/>
+      <c r="M50" s="372"/>
     </row>
     <row r="51" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="222"/>
-      <c r="B51" s="225"/>
+      <c r="A51" s="305"/>
+      <c r="B51" s="308"/>
       <c r="C51" s="46" t="s">
         <v>28</v>
       </c>
@@ -14560,14 +15822,14 @@
       <c r="H51" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="J51" s="250"/>
-      <c r="K51" s="256"/>
-      <c r="L51" s="289"/>
-      <c r="M51" s="292"/>
+      <c r="J51" s="330"/>
+      <c r="K51" s="336"/>
+      <c r="L51" s="369"/>
+      <c r="M51" s="372"/>
     </row>
     <row r="52" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="222"/>
-      <c r="B52" s="225"/>
+      <c r="A52" s="305"/>
+      <c r="B52" s="308"/>
       <c r="C52" s="46" t="s">
         <v>29</v>
       </c>
@@ -14586,14 +15848,14 @@
       <c r="H52" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="J52" s="250"/>
-      <c r="K52" s="256"/>
-      <c r="L52" s="289"/>
-      <c r="M52" s="292"/>
+      <c r="J52" s="330"/>
+      <c r="K52" s="336"/>
+      <c r="L52" s="369"/>
+      <c r="M52" s="372"/>
     </row>
     <row r="53" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="222"/>
-      <c r="B53" s="225"/>
+      <c r="A53" s="305"/>
+      <c r="B53" s="308"/>
       <c r="C53" s="46" t="s">
         <v>23</v>
       </c>
@@ -14612,14 +15874,14 @@
       <c r="H53" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="J53" s="250"/>
-      <c r="K53" s="256"/>
-      <c r="L53" s="289"/>
-      <c r="M53" s="292"/>
+      <c r="J53" s="330"/>
+      <c r="K53" s="336"/>
+      <c r="L53" s="369"/>
+      <c r="M53" s="372"/>
     </row>
     <row r="54" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="222"/>
-      <c r="B54" s="225"/>
+      <c r="A54" s="305"/>
+      <c r="B54" s="308"/>
       <c r="C54" s="46" t="s">
         <v>27</v>
       </c>
@@ -14638,14 +15900,14 @@
       <c r="H54" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="J54" s="250"/>
-      <c r="K54" s="256"/>
-      <c r="L54" s="289"/>
-      <c r="M54" s="292"/>
+      <c r="J54" s="330"/>
+      <c r="K54" s="336"/>
+      <c r="L54" s="369"/>
+      <c r="M54" s="372"/>
     </row>
     <row r="55" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="222"/>
-      <c r="B55" s="225"/>
+      <c r="A55" s="305"/>
+      <c r="B55" s="308"/>
       <c r="C55" s="46" t="s">
         <v>28</v>
       </c>
@@ -14664,14 +15926,14 @@
       <c r="H55" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="J55" s="250"/>
-      <c r="K55" s="256"/>
-      <c r="L55" s="289"/>
-      <c r="M55" s="292"/>
+      <c r="J55" s="330"/>
+      <c r="K55" s="336"/>
+      <c r="L55" s="369"/>
+      <c r="M55" s="372"/>
     </row>
     <row r="56" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="222"/>
-      <c r="B56" s="226"/>
+      <c r="A56" s="305"/>
+      <c r="B56" s="309"/>
       <c r="C56" s="46" t="s">
         <v>29</v>
       </c>
@@ -14690,14 +15952,14 @@
       <c r="H56" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="J56" s="250"/>
-      <c r="K56" s="256"/>
-      <c r="L56" s="290"/>
-      <c r="M56" s="293"/>
+      <c r="J56" s="330"/>
+      <c r="K56" s="336"/>
+      <c r="L56" s="370"/>
+      <c r="M56" s="373"/>
     </row>
     <row r="57" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57" s="222"/>
-      <c r="B57" s="224" t="s">
+      <c r="A57" s="305"/>
+      <c r="B57" s="307" t="s">
         <v>76</v>
       </c>
       <c r="C57" s="46" t="s">
@@ -14718,18 +15980,18 @@
       <c r="H57" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="J57" s="250"/>
-      <c r="K57" s="256"/>
-      <c r="L57" s="294" t="s">
+      <c r="J57" s="330"/>
+      <c r="K57" s="336"/>
+      <c r="L57" s="374" t="s">
         <v>128</v>
       </c>
-      <c r="M57" s="295" t="s">
+      <c r="M57" s="375" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="222"/>
-      <c r="B58" s="225"/>
+      <c r="A58" s="305"/>
+      <c r="B58" s="308"/>
       <c r="C58" s="46" t="s">
         <v>27</v>
       </c>
@@ -14748,14 +16010,14 @@
       <c r="H58" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="J58" s="250"/>
-      <c r="K58" s="256"/>
-      <c r="L58" s="289"/>
-      <c r="M58" s="292"/>
+      <c r="J58" s="330"/>
+      <c r="K58" s="336"/>
+      <c r="L58" s="369"/>
+      <c r="M58" s="372"/>
     </row>
     <row r="59" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="222"/>
-      <c r="B59" s="225"/>
+      <c r="A59" s="305"/>
+      <c r="B59" s="308"/>
       <c r="C59" s="46" t="s">
         <v>28</v>
       </c>
@@ -14774,14 +16036,14 @@
       <c r="H59" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="J59" s="250"/>
-      <c r="K59" s="256"/>
-      <c r="L59" s="289"/>
-      <c r="M59" s="292"/>
+      <c r="J59" s="330"/>
+      <c r="K59" s="336"/>
+      <c r="L59" s="369"/>
+      <c r="M59" s="372"/>
     </row>
     <row r="60" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A60" s="222"/>
-      <c r="B60" s="225"/>
+      <c r="A60" s="305"/>
+      <c r="B60" s="308"/>
       <c r="C60" s="46" t="s">
         <v>29</v>
       </c>
@@ -14800,14 +16062,14 @@
       <c r="H60" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="J60" s="250"/>
-      <c r="K60" s="256"/>
-      <c r="L60" s="289"/>
-      <c r="M60" s="292"/>
+      <c r="J60" s="330"/>
+      <c r="K60" s="336"/>
+      <c r="L60" s="369"/>
+      <c r="M60" s="372"/>
     </row>
     <row r="61" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="222"/>
-      <c r="B61" s="225"/>
+      <c r="A61" s="305"/>
+      <c r="B61" s="308"/>
       <c r="C61" s="46" t="s">
         <v>23</v>
       </c>
@@ -14826,14 +16088,14 @@
       <c r="H61" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="J61" s="250"/>
-      <c r="K61" s="256"/>
-      <c r="L61" s="289"/>
-      <c r="M61" s="292"/>
+      <c r="J61" s="330"/>
+      <c r="K61" s="336"/>
+      <c r="L61" s="369"/>
+      <c r="M61" s="372"/>
     </row>
     <row r="62" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="222"/>
-      <c r="B62" s="225"/>
+      <c r="A62" s="305"/>
+      <c r="B62" s="308"/>
       <c r="C62" s="46" t="s">
         <v>27</v>
       </c>
@@ -14852,14 +16114,14 @@
       <c r="H62" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="J62" s="250"/>
-      <c r="K62" s="256"/>
-      <c r="L62" s="289"/>
-      <c r="M62" s="292"/>
+      <c r="J62" s="330"/>
+      <c r="K62" s="336"/>
+      <c r="L62" s="369"/>
+      <c r="M62" s="372"/>
     </row>
     <row r="63" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="222"/>
-      <c r="B63" s="225"/>
+      <c r="A63" s="305"/>
+      <c r="B63" s="308"/>
       <c r="C63" s="46" t="s">
         <v>28</v>
       </c>
@@ -14878,14 +16140,14 @@
       <c r="H63" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="J63" s="250"/>
-      <c r="K63" s="256"/>
-      <c r="L63" s="289"/>
-      <c r="M63" s="292"/>
+      <c r="J63" s="330"/>
+      <c r="K63" s="336"/>
+      <c r="L63" s="369"/>
+      <c r="M63" s="372"/>
     </row>
     <row r="64" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="222"/>
-      <c r="B64" s="226"/>
+      <c r="A64" s="305"/>
+      <c r="B64" s="309"/>
       <c r="C64" s="46" t="s">
         <v>29</v>
       </c>
@@ -14904,14 +16166,14 @@
       <c r="H64" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="J64" s="250"/>
-      <c r="K64" s="256"/>
-      <c r="L64" s="290"/>
-      <c r="M64" s="293"/>
+      <c r="J64" s="330"/>
+      <c r="K64" s="336"/>
+      <c r="L64" s="370"/>
+      <c r="M64" s="373"/>
     </row>
     <row r="65" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A65" s="222"/>
-      <c r="B65" s="224" t="s">
+      <c r="A65" s="305"/>
+      <c r="B65" s="307" t="s">
         <v>78</v>
       </c>
       <c r="C65" s="46" t="s">
@@ -14932,18 +16194,18 @@
       <c r="H65" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="J65" s="250"/>
-      <c r="K65" s="256"/>
-      <c r="L65" s="294" t="s">
+      <c r="J65" s="330"/>
+      <c r="K65" s="336"/>
+      <c r="L65" s="374" t="s">
         <v>130</v>
       </c>
-      <c r="M65" s="295" t="s">
+      <c r="M65" s="375" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A66" s="222"/>
-      <c r="B66" s="225"/>
+      <c r="A66" s="305"/>
+      <c r="B66" s="308"/>
       <c r="C66" s="46" t="s">
         <v>27</v>
       </c>
@@ -14962,14 +16224,14 @@
       <c r="H66" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="J66" s="250"/>
-      <c r="K66" s="256"/>
-      <c r="L66" s="289"/>
-      <c r="M66" s="292"/>
+      <c r="J66" s="330"/>
+      <c r="K66" s="336"/>
+      <c r="L66" s="369"/>
+      <c r="M66" s="372"/>
     </row>
     <row r="67" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="222"/>
-      <c r="B67" s="225"/>
+      <c r="A67" s="305"/>
+      <c r="B67" s="308"/>
       <c r="C67" s="46" t="s">
         <v>28</v>
       </c>
@@ -14988,14 +16250,14 @@
       <c r="H67" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="J67" s="250"/>
-      <c r="K67" s="256"/>
-      <c r="L67" s="289"/>
-      <c r="M67" s="292"/>
+      <c r="J67" s="330"/>
+      <c r="K67" s="336"/>
+      <c r="L67" s="369"/>
+      <c r="M67" s="372"/>
     </row>
     <row r="68" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="222"/>
-      <c r="B68" s="225"/>
+      <c r="A68" s="305"/>
+      <c r="B68" s="308"/>
       <c r="C68" s="46" t="s">
         <v>29</v>
       </c>
@@ -15014,14 +16276,14 @@
       <c r="H68" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="J68" s="250"/>
-      <c r="K68" s="256"/>
-      <c r="L68" s="289"/>
-      <c r="M68" s="292"/>
+      <c r="J68" s="330"/>
+      <c r="K68" s="336"/>
+      <c r="L68" s="369"/>
+      <c r="M68" s="372"/>
     </row>
     <row r="69" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="222"/>
-      <c r="B69" s="225"/>
+      <c r="A69" s="305"/>
+      <c r="B69" s="308"/>
       <c r="C69" s="46" t="s">
         <v>23</v>
       </c>
@@ -15040,14 +16302,14 @@
       <c r="H69" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="J69" s="250"/>
-      <c r="K69" s="256"/>
-      <c r="L69" s="289"/>
-      <c r="M69" s="292"/>
+      <c r="J69" s="330"/>
+      <c r="K69" s="336"/>
+      <c r="L69" s="369"/>
+      <c r="M69" s="372"/>
     </row>
     <row r="70" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="222"/>
-      <c r="B70" s="225"/>
+      <c r="A70" s="305"/>
+      <c r="B70" s="308"/>
       <c r="C70" s="46" t="s">
         <v>27</v>
       </c>
@@ -15066,14 +16328,14 @@
       <c r="H70" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="J70" s="250"/>
-      <c r="K70" s="256"/>
-      <c r="L70" s="289"/>
-      <c r="M70" s="292"/>
+      <c r="J70" s="330"/>
+      <c r="K70" s="336"/>
+      <c r="L70" s="369"/>
+      <c r="M70" s="372"/>
     </row>
     <row r="71" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="222"/>
-      <c r="B71" s="225"/>
+      <c r="A71" s="305"/>
+      <c r="B71" s="308"/>
       <c r="C71" s="46" t="s">
         <v>28</v>
       </c>
@@ -15092,14 +16354,14 @@
       <c r="H71" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="J71" s="250"/>
-      <c r="K71" s="256"/>
-      <c r="L71" s="289"/>
-      <c r="M71" s="292"/>
+      <c r="J71" s="330"/>
+      <c r="K71" s="336"/>
+      <c r="L71" s="369"/>
+      <c r="M71" s="372"/>
     </row>
     <row r="72" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="222"/>
-      <c r="B72" s="226"/>
+      <c r="A72" s="305"/>
+      <c r="B72" s="309"/>
       <c r="C72" s="46" t="s">
         <v>29</v>
       </c>
@@ -15118,13 +16380,13 @@
       <c r="H72" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="J72" s="250"/>
-      <c r="K72" s="256"/>
-      <c r="L72" s="290"/>
-      <c r="M72" s="293"/>
+      <c r="J72" s="330"/>
+      <c r="K72" s="336"/>
+      <c r="L72" s="370"/>
+      <c r="M72" s="373"/>
     </row>
     <row r="73" spans="1:13" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="223"/>
+      <c r="A73" s="306"/>
       <c r="B73" s="151" t="s">
         <v>2188</v>
       </c>
@@ -15148,10 +16410,10 @@
       </c>
     </row>
     <row r="74" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="217" t="s">
+      <c r="A74" s="300" t="s">
         <v>81</v>
       </c>
-      <c r="B74" s="227" t="s">
+      <c r="B74" s="310" t="s">
         <v>80</v>
       </c>
       <c r="C74" s="42" t="s">
@@ -15172,22 +16434,22 @@
       <c r="H74" s="44">
         <v>2680</v>
       </c>
-      <c r="J74" s="262" t="s">
+      <c r="J74" s="342" t="s">
         <v>158</v>
       </c>
-      <c r="K74" s="255" t="s">
+      <c r="K74" s="335" t="s">
         <v>162</v>
       </c>
-      <c r="L74" s="282" t="s">
+      <c r="L74" s="362" t="s">
         <v>131</v>
       </c>
-      <c r="M74" s="284" t="s">
+      <c r="M74" s="364" t="s">
         <v>2187</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A75" s="218"/>
-      <c r="B75" s="228"/>
+      <c r="A75" s="301"/>
+      <c r="B75" s="311"/>
       <c r="C75" s="45" t="s">
         <v>27</v>
       </c>
@@ -15206,14 +16468,14 @@
       <c r="H75" s="47">
         <v>2445</v>
       </c>
-      <c r="J75" s="250"/>
-      <c r="K75" s="256"/>
-      <c r="L75" s="283"/>
-      <c r="M75" s="285"/>
+      <c r="J75" s="330"/>
+      <c r="K75" s="336"/>
+      <c r="L75" s="363"/>
+      <c r="M75" s="365"/>
     </row>
     <row r="76" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A76" s="218"/>
-      <c r="B76" s="228"/>
+      <c r="A76" s="301"/>
+      <c r="B76" s="311"/>
       <c r="C76" s="45" t="s">
         <v>28</v>
       </c>
@@ -15232,14 +16494,14 @@
       <c r="H76" s="47">
         <v>2245</v>
       </c>
-      <c r="J76" s="250"/>
-      <c r="K76" s="256"/>
-      <c r="L76" s="283"/>
-      <c r="M76" s="285"/>
+      <c r="J76" s="330"/>
+      <c r="K76" s="336"/>
+      <c r="L76" s="363"/>
+      <c r="M76" s="365"/>
     </row>
     <row r="77" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="218"/>
-      <c r="B77" s="228"/>
+      <c r="A77" s="301"/>
+      <c r="B77" s="311"/>
       <c r="C77" s="45" t="s">
         <v>23</v>
       </c>
@@ -15258,14 +16520,14 @@
       <c r="H77" s="47">
         <v>2380</v>
       </c>
-      <c r="J77" s="250"/>
-      <c r="K77" s="256"/>
-      <c r="L77" s="283"/>
-      <c r="M77" s="285"/>
+      <c r="J77" s="330"/>
+      <c r="K77" s="336"/>
+      <c r="L77" s="363"/>
+      <c r="M77" s="365"/>
     </row>
     <row r="78" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="218"/>
-      <c r="B78" s="228"/>
+      <c r="A78" s="301"/>
+      <c r="B78" s="311"/>
       <c r="C78" s="45" t="s">
         <v>27</v>
       </c>
@@ -15284,14 +16546,14 @@
       <c r="H78" s="47">
         <v>2185</v>
       </c>
-      <c r="J78" s="250"/>
-      <c r="K78" s="256"/>
-      <c r="L78" s="283"/>
-      <c r="M78" s="285"/>
+      <c r="J78" s="330"/>
+      <c r="K78" s="336"/>
+      <c r="L78" s="363"/>
+      <c r="M78" s="365"/>
     </row>
     <row r="79" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="218"/>
-      <c r="B79" s="228"/>
+      <c r="A79" s="301"/>
+      <c r="B79" s="311"/>
       <c r="C79" s="45" t="s">
         <v>28</v>
       </c>
@@ -15310,14 +16572,14 @@
       <c r="H79" s="47">
         <v>1995</v>
       </c>
-      <c r="J79" s="250"/>
-      <c r="K79" s="256"/>
-      <c r="L79" s="283"/>
-      <c r="M79" s="285"/>
+      <c r="J79" s="330"/>
+      <c r="K79" s="336"/>
+      <c r="L79" s="363"/>
+      <c r="M79" s="365"/>
     </row>
     <row r="80" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A80" s="218"/>
-      <c r="B80" s="228" t="s">
+      <c r="A80" s="301"/>
+      <c r="B80" s="311" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="45" t="s">
@@ -15338,18 +16600,18 @@
       <c r="H80" s="47">
         <v>2680</v>
       </c>
-      <c r="J80" s="250"/>
-      <c r="K80" s="256"/>
-      <c r="L80" s="283" t="s">
+      <c r="J80" s="330"/>
+      <c r="K80" s="336"/>
+      <c r="L80" s="363" t="s">
         <v>131</v>
       </c>
-      <c r="M80" s="285" t="s">
+      <c r="M80" s="365" t="s">
         <v>2187</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A81" s="218"/>
-      <c r="B81" s="228"/>
+      <c r="A81" s="301"/>
+      <c r="B81" s="311"/>
       <c r="C81" s="45" t="s">
         <v>27</v>
       </c>
@@ -15368,14 +16630,14 @@
       <c r="H81" s="47">
         <v>2445</v>
       </c>
-      <c r="J81" s="250"/>
-      <c r="K81" s="256"/>
-      <c r="L81" s="283"/>
-      <c r="M81" s="285"/>
+      <c r="J81" s="330"/>
+      <c r="K81" s="336"/>
+      <c r="L81" s="363"/>
+      <c r="M81" s="365"/>
     </row>
     <row r="82" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A82" s="218"/>
-      <c r="B82" s="228"/>
+      <c r="A82" s="301"/>
+      <c r="B82" s="311"/>
       <c r="C82" s="45" t="s">
         <v>28</v>
       </c>
@@ -15394,14 +16656,14 @@
       <c r="H82" s="47">
         <v>2245</v>
       </c>
-      <c r="J82" s="250"/>
-      <c r="K82" s="256"/>
-      <c r="L82" s="283"/>
-      <c r="M82" s="285"/>
+      <c r="J82" s="330"/>
+      <c r="K82" s="336"/>
+      <c r="L82" s="363"/>
+      <c r="M82" s="365"/>
     </row>
     <row r="83" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="218"/>
-      <c r="B83" s="228"/>
+      <c r="A83" s="301"/>
+      <c r="B83" s="311"/>
       <c r="C83" s="45" t="s">
         <v>23</v>
       </c>
@@ -15420,14 +16682,14 @@
       <c r="H83" s="47">
         <v>2380</v>
       </c>
-      <c r="J83" s="250"/>
-      <c r="K83" s="256"/>
-      <c r="L83" s="283"/>
-      <c r="M83" s="285"/>
+      <c r="J83" s="330"/>
+      <c r="K83" s="336"/>
+      <c r="L83" s="363"/>
+      <c r="M83" s="365"/>
     </row>
     <row r="84" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="218"/>
-      <c r="B84" s="228"/>
+      <c r="A84" s="301"/>
+      <c r="B84" s="311"/>
       <c r="C84" s="45" t="s">
         <v>27</v>
       </c>
@@ -15446,14 +16708,14 @@
       <c r="H84" s="47">
         <v>2185</v>
       </c>
-      <c r="J84" s="250"/>
-      <c r="K84" s="256"/>
-      <c r="L84" s="283"/>
-      <c r="M84" s="285"/>
+      <c r="J84" s="330"/>
+      <c r="K84" s="336"/>
+      <c r="L84" s="363"/>
+      <c r="M84" s="365"/>
     </row>
     <row r="85" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="218"/>
-      <c r="B85" s="228"/>
+      <c r="A85" s="301"/>
+      <c r="B85" s="311"/>
       <c r="C85" s="45" t="s">
         <v>28</v>
       </c>
@@ -15472,14 +16734,14 @@
       <c r="H85" s="47">
         <v>1995</v>
       </c>
-      <c r="J85" s="250"/>
-      <c r="K85" s="256"/>
-      <c r="L85" s="283"/>
-      <c r="M85" s="285"/>
+      <c r="J85" s="330"/>
+      <c r="K85" s="336"/>
+      <c r="L85" s="363"/>
+      <c r="M85" s="365"/>
     </row>
     <row r="86" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A86" s="218"/>
-      <c r="B86" s="228" t="s">
+      <c r="A86" s="301"/>
+      <c r="B86" s="311" t="s">
         <v>83</v>
       </c>
       <c r="C86" s="45" t="s">
@@ -15500,18 +16762,18 @@
       <c r="H86" s="47">
         <v>2680</v>
       </c>
-      <c r="J86" s="250"/>
-      <c r="K86" s="256"/>
-      <c r="L86" s="283" t="s">
+      <c r="J86" s="330"/>
+      <c r="K86" s="336"/>
+      <c r="L86" s="363" t="s">
         <v>131</v>
       </c>
-      <c r="M86" s="285" t="s">
+      <c r="M86" s="365" t="s">
         <v>2187</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A87" s="218"/>
-      <c r="B87" s="228"/>
+      <c r="A87" s="301"/>
+      <c r="B87" s="311"/>
       <c r="C87" s="45" t="s">
         <v>27</v>
       </c>
@@ -15530,14 +16792,14 @@
       <c r="H87" s="47">
         <v>2445</v>
       </c>
-      <c r="J87" s="250"/>
-      <c r="K87" s="256"/>
-      <c r="L87" s="283"/>
-      <c r="M87" s="285"/>
+      <c r="J87" s="330"/>
+      <c r="K87" s="336"/>
+      <c r="L87" s="363"/>
+      <c r="M87" s="365"/>
     </row>
     <row r="88" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A88" s="218"/>
-      <c r="B88" s="228"/>
+      <c r="A88" s="301"/>
+      <c r="B88" s="311"/>
       <c r="C88" s="45" t="s">
         <v>28</v>
       </c>
@@ -15556,14 +16818,14 @@
       <c r="H88" s="47">
         <v>2245</v>
       </c>
-      <c r="J88" s="250"/>
-      <c r="K88" s="256"/>
-      <c r="L88" s="283"/>
-      <c r="M88" s="285"/>
+      <c r="J88" s="330"/>
+      <c r="K88" s="336"/>
+      <c r="L88" s="363"/>
+      <c r="M88" s="365"/>
     </row>
     <row r="89" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="218"/>
-      <c r="B89" s="228"/>
+      <c r="A89" s="301"/>
+      <c r="B89" s="311"/>
       <c r="C89" s="45" t="s">
         <v>23</v>
       </c>
@@ -15582,14 +16844,14 @@
       <c r="H89" s="47">
         <v>2380</v>
       </c>
-      <c r="J89" s="250"/>
-      <c r="K89" s="256"/>
-      <c r="L89" s="283"/>
-      <c r="M89" s="285"/>
+      <c r="J89" s="330"/>
+      <c r="K89" s="336"/>
+      <c r="L89" s="363"/>
+      <c r="M89" s="365"/>
     </row>
     <row r="90" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="218"/>
-      <c r="B90" s="228"/>
+      <c r="A90" s="301"/>
+      <c r="B90" s="311"/>
       <c r="C90" s="45" t="s">
         <v>27</v>
       </c>
@@ -15608,14 +16870,14 @@
       <c r="H90" s="47">
         <v>2185</v>
       </c>
-      <c r="J90" s="250"/>
-      <c r="K90" s="256"/>
-      <c r="L90" s="283"/>
-      <c r="M90" s="285"/>
+      <c r="J90" s="330"/>
+      <c r="K90" s="336"/>
+      <c r="L90" s="363"/>
+      <c r="M90" s="365"/>
     </row>
     <row r="91" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="220"/>
-      <c r="B91" s="229"/>
+      <c r="A91" s="303"/>
+      <c r="B91" s="312"/>
       <c r="C91" s="48" t="s">
         <v>28</v>
       </c>
@@ -15634,16 +16896,16 @@
       <c r="H91" s="50">
         <v>1995</v>
       </c>
-      <c r="J91" s="251"/>
-      <c r="K91" s="257"/>
-      <c r="L91" s="286"/>
-      <c r="M91" s="287"/>
+      <c r="J91" s="331"/>
+      <c r="K91" s="337"/>
+      <c r="L91" s="366"/>
+      <c r="M91" s="367"/>
     </row>
     <row r="92" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="217" t="s">
+      <c r="A92" s="300" t="s">
         <v>87</v>
       </c>
-      <c r="B92" s="230" t="s">
+      <c r="B92" s="313" t="s">
         <v>85</v>
       </c>
       <c r="C92" s="43" t="s">
@@ -15664,22 +16926,22 @@
       <c r="H92" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="J92" s="262" t="s">
+      <c r="J92" s="342" t="s">
         <v>147</v>
       </c>
-      <c r="K92" s="255" t="s">
+      <c r="K92" s="335" t="s">
         <v>84</v>
       </c>
-      <c r="L92" s="258" t="s">
+      <c r="L92" s="338" t="s">
         <v>148</v>
       </c>
-      <c r="M92" s="266" t="s">
+      <c r="M92" s="346" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A93" s="218"/>
-      <c r="B93" s="231"/>
+      <c r="A93" s="301"/>
+      <c r="B93" s="314"/>
       <c r="C93" s="46" t="s">
         <v>27</v>
       </c>
@@ -15698,14 +16960,14 @@
       <c r="H93" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="J93" s="250"/>
-      <c r="K93" s="256"/>
-      <c r="L93" s="259"/>
-      <c r="M93" s="267"/>
+      <c r="J93" s="330"/>
+      <c r="K93" s="336"/>
+      <c r="L93" s="339"/>
+      <c r="M93" s="347"/>
     </row>
     <row r="94" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A94" s="218"/>
-      <c r="B94" s="231"/>
+      <c r="A94" s="301"/>
+      <c r="B94" s="314"/>
       <c r="C94" s="46" t="s">
         <v>23</v>
       </c>
@@ -15724,14 +16986,14 @@
       <c r="H94" s="73">
         <v>1260</v>
       </c>
-      <c r="J94" s="250"/>
-      <c r="K94" s="256"/>
-      <c r="L94" s="259"/>
-      <c r="M94" s="267"/>
+      <c r="J94" s="330"/>
+      <c r="K94" s="336"/>
+      <c r="L94" s="339"/>
+      <c r="M94" s="347"/>
     </row>
     <row r="95" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A95" s="218"/>
-      <c r="B95" s="231"/>
+      <c r="A95" s="301"/>
+      <c r="B95" s="314"/>
       <c r="C95" s="46" t="s">
         <v>27</v>
       </c>
@@ -15750,14 +17012,14 @@
       <c r="H95" s="73">
         <v>1200</v>
       </c>
-      <c r="J95" s="250"/>
-      <c r="K95" s="256"/>
-      <c r="L95" s="259"/>
-      <c r="M95" s="267"/>
+      <c r="J95" s="330"/>
+      <c r="K95" s="336"/>
+      <c r="L95" s="339"/>
+      <c r="M95" s="347"/>
     </row>
     <row r="96" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A96" s="218"/>
-      <c r="B96" s="269" t="s">
+      <c r="A96" s="301"/>
+      <c r="B96" s="349" t="s">
         <v>89</v>
       </c>
       <c r="C96" s="46" t="s">
@@ -15778,18 +17040,18 @@
       <c r="H96" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="J96" s="250"/>
-      <c r="K96" s="256"/>
-      <c r="L96" s="259" t="s">
+      <c r="J96" s="330"/>
+      <c r="K96" s="336"/>
+      <c r="L96" s="339" t="s">
         <v>149</v>
       </c>
-      <c r="M96" s="268" t="s">
+      <c r="M96" s="348" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A97" s="218"/>
-      <c r="B97" s="269"/>
+      <c r="A97" s="301"/>
+      <c r="B97" s="349"/>
       <c r="C97" s="46" t="s">
         <v>27</v>
       </c>
@@ -15808,14 +17070,14 @@
       <c r="H97" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="J97" s="250"/>
-      <c r="K97" s="256"/>
-      <c r="L97" s="259"/>
-      <c r="M97" s="268"/>
+      <c r="J97" s="330"/>
+      <c r="K97" s="336"/>
+      <c r="L97" s="339"/>
+      <c r="M97" s="348"/>
     </row>
     <row r="98" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A98" s="218"/>
-      <c r="B98" s="269"/>
+      <c r="A98" s="301"/>
+      <c r="B98" s="349"/>
       <c r="C98" s="46" t="s">
         <v>23</v>
       </c>
@@ -15834,14 +17096,14 @@
       <c r="H98" s="73">
         <v>1260</v>
       </c>
-      <c r="J98" s="250"/>
-      <c r="K98" s="256"/>
-      <c r="L98" s="259"/>
-      <c r="M98" s="268"/>
+      <c r="J98" s="330"/>
+      <c r="K98" s="336"/>
+      <c r="L98" s="339"/>
+      <c r="M98" s="348"/>
     </row>
     <row r="99" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A99" s="218"/>
-      <c r="B99" s="269"/>
+      <c r="A99" s="301"/>
+      <c r="B99" s="349"/>
       <c r="C99" s="46" t="s">
         <v>27</v>
       </c>
@@ -15860,13 +17122,13 @@
       <c r="H99" s="73">
         <v>1200</v>
       </c>
-      <c r="J99" s="263"/>
-      <c r="K99" s="264"/>
-      <c r="L99" s="259"/>
-      <c r="M99" s="268"/>
+      <c r="J99" s="343"/>
+      <c r="K99" s="344"/>
+      <c r="L99" s="339"/>
+      <c r="M99" s="348"/>
     </row>
     <row r="100" spans="1:13" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="220"/>
+      <c r="A100" s="303"/>
       <c r="B100" s="152" t="s">
         <v>2188</v>
       </c>
@@ -15890,7 +17152,7 @@
       </c>
     </row>
     <row r="101" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="217" t="s">
+      <c r="A101" s="300" t="s">
         <v>91</v>
       </c>
       <c r="B101" s="153" t="s">
@@ -15904,21 +17166,21 @@
       <c r="F101" s="71"/>
       <c r="G101" s="43"/>
       <c r="H101" s="60"/>
-      <c r="J101" s="262" t="s">
+      <c r="J101" s="342" t="s">
         <v>146</v>
       </c>
-      <c r="K101" s="255" t="s">
+      <c r="K101" s="335" t="s">
         <v>90</v>
       </c>
-      <c r="L101" s="272" t="s">
+      <c r="L101" s="352" t="s">
         <v>2227</v>
       </c>
-      <c r="M101" s="274" t="s">
+      <c r="M101" s="354" t="s">
         <v>2226</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="218"/>
+      <c r="A102" s="301"/>
       <c r="B102" s="154" t="s">
         <v>2223</v>
       </c>
@@ -15930,35 +17192,35 @@
       <c r="F102" s="72"/>
       <c r="G102" s="46"/>
       <c r="H102" s="61"/>
-      <c r="J102" s="250"/>
-      <c r="K102" s="256"/>
-      <c r="L102" s="273"/>
-      <c r="M102" s="271"/>
+      <c r="J102" s="330"/>
+      <c r="K102" s="336"/>
+      <c r="L102" s="353"/>
+      <c r="M102" s="351"/>
     </row>
     <row r="103" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="218"/>
+      <c r="A103" s="301"/>
       <c r="B103" s="154" t="s">
         <v>2225</v>
       </c>
       <c r="C103" s="46"/>
-      <c r="D103" s="178" t="s">
+      <c r="D103" s="176" t="s">
         <v>42</v>
       </c>
       <c r="E103" s="46"/>
       <c r="F103" s="72"/>
       <c r="G103" s="46"/>
       <c r="H103" s="61"/>
-      <c r="J103" s="250"/>
-      <c r="K103" s="256"/>
-      <c r="L103" s="265" t="s">
+      <c r="J103" s="330"/>
+      <c r="K103" s="336"/>
+      <c r="L103" s="345" t="s">
         <v>154</v>
       </c>
-      <c r="M103" s="270" t="s">
+      <c r="M103" s="350" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="219"/>
+      <c r="A104" s="302"/>
       <c r="B104" s="154" t="s">
         <v>2225</v>
       </c>
@@ -15970,13 +17232,13 @@
       <c r="F104" s="72"/>
       <c r="G104" s="46"/>
       <c r="H104" s="61"/>
-      <c r="J104" s="263"/>
-      <c r="K104" s="264"/>
-      <c r="L104" s="260"/>
-      <c r="M104" s="271"/>
+      <c r="J104" s="343"/>
+      <c r="K104" s="344"/>
+      <c r="L104" s="340"/>
+      <c r="M104" s="351"/>
     </row>
     <row r="105" spans="1:13" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="220"/>
+      <c r="A105" s="303"/>
       <c r="B105" s="152" t="s">
         <v>2188</v>
       </c>
@@ -16052,10 +17314,10 @@
       </c>
     </row>
     <row r="108" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="249" t="s">
+      <c r="A108" s="329" t="s">
         <v>133</v>
       </c>
-      <c r="B108" s="279" t="s">
+      <c r="B108" s="359" t="s">
         <v>98</v>
       </c>
       <c r="C108" s="84" t="s">
@@ -16076,22 +17338,22 @@
       <c r="H108" s="87">
         <v>1915</v>
       </c>
-      <c r="J108" s="250" t="s">
+      <c r="J108" s="330" t="s">
         <v>151</v>
       </c>
-      <c r="K108" s="256" t="s">
+      <c r="K108" s="336" t="s">
         <v>97</v>
       </c>
-      <c r="L108" s="260" t="s">
+      <c r="L108" s="340" t="s">
         <v>152</v>
       </c>
-      <c r="M108" s="275" t="s">
+      <c r="M108" s="355" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="218"/>
-      <c r="B109" s="280"/>
+      <c r="A109" s="301"/>
+      <c r="B109" s="360"/>
       <c r="C109" s="45" t="s">
         <v>27</v>
       </c>
@@ -16110,14 +17372,14 @@
       <c r="H109" s="47">
         <v>1775</v>
       </c>
-      <c r="J109" s="250"/>
-      <c r="K109" s="256"/>
-      <c r="L109" s="261"/>
-      <c r="M109" s="276"/>
+      <c r="J109" s="330"/>
+      <c r="K109" s="336"/>
+      <c r="L109" s="341"/>
+      <c r="M109" s="356"/>
     </row>
     <row r="110" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="218"/>
-      <c r="B110" s="280"/>
+      <c r="A110" s="301"/>
+      <c r="B110" s="360"/>
       <c r="C110" s="45" t="s">
         <v>23</v>
       </c>
@@ -16136,14 +17398,14 @@
       <c r="H110" s="47">
         <v>1705</v>
       </c>
-      <c r="J110" s="250"/>
-      <c r="K110" s="256"/>
-      <c r="L110" s="261"/>
-      <c r="M110" s="276"/>
+      <c r="J110" s="330"/>
+      <c r="K110" s="336"/>
+      <c r="L110" s="341"/>
+      <c r="M110" s="356"/>
     </row>
     <row r="111" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A111" s="218"/>
-      <c r="B111" s="280"/>
+      <c r="A111" s="301"/>
+      <c r="B111" s="360"/>
       <c r="C111" s="45" t="s">
         <v>27</v>
       </c>
@@ -16162,14 +17424,14 @@
       <c r="H111" s="47">
         <v>1570</v>
       </c>
-      <c r="J111" s="250"/>
-      <c r="K111" s="256"/>
-      <c r="L111" s="261"/>
-      <c r="M111" s="276"/>
+      <c r="J111" s="330"/>
+      <c r="K111" s="336"/>
+      <c r="L111" s="341"/>
+      <c r="M111" s="356"/>
     </row>
     <row r="112" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A112" s="218"/>
-      <c r="B112" s="269" t="s">
+      <c r="A112" s="301"/>
+      <c r="B112" s="349" t="s">
         <v>2228</v>
       </c>
       <c r="C112" s="45" t="s">
@@ -16190,18 +17452,18 @@
       <c r="H112" s="47">
         <v>1915</v>
       </c>
-      <c r="J112" s="250"/>
-      <c r="K112" s="256"/>
-      <c r="L112" s="261" t="s">
+      <c r="J112" s="330"/>
+      <c r="K112" s="336"/>
+      <c r="L112" s="341" t="s">
         <v>153</v>
       </c>
-      <c r="M112" s="268" t="s">
+      <c r="M112" s="348" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="218"/>
-      <c r="B113" s="269"/>
+      <c r="A113" s="301"/>
+      <c r="B113" s="349"/>
       <c r="C113" s="45" t="s">
         <v>27</v>
       </c>
@@ -16220,14 +17482,14 @@
       <c r="H113" s="47">
         <v>1775</v>
       </c>
-      <c r="J113" s="250"/>
-      <c r="K113" s="256"/>
-      <c r="L113" s="261"/>
-      <c r="M113" s="268"/>
+      <c r="J113" s="330"/>
+      <c r="K113" s="336"/>
+      <c r="L113" s="341"/>
+      <c r="M113" s="348"/>
     </row>
     <row r="114" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="218"/>
-      <c r="B114" s="269"/>
+      <c r="A114" s="301"/>
+      <c r="B114" s="349"/>
       <c r="C114" s="45" t="s">
         <v>23</v>
       </c>
@@ -16246,14 +17508,14 @@
       <c r="H114" s="47">
         <v>1705</v>
       </c>
-      <c r="J114" s="250"/>
-      <c r="K114" s="256"/>
-      <c r="L114" s="261"/>
-      <c r="M114" s="268"/>
+      <c r="J114" s="330"/>
+      <c r="K114" s="336"/>
+      <c r="L114" s="341"/>
+      <c r="M114" s="348"/>
     </row>
     <row r="115" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="220"/>
-      <c r="B115" s="281"/>
+      <c r="A115" s="303"/>
+      <c r="B115" s="361"/>
       <c r="C115" s="48" t="s">
         <v>27</v>
       </c>
@@ -16272,40 +17534,40 @@
       <c r="H115" s="50">
         <v>1570</v>
       </c>
-      <c r="J115" s="251"/>
-      <c r="K115" s="257"/>
-      <c r="L115" s="277"/>
-      <c r="M115" s="278"/>
+      <c r="J115" s="331"/>
+      <c r="K115" s="337"/>
+      <c r="L115" s="357"/>
+      <c r="M115" s="358"/>
     </row>
     <row r="116" spans="1:13" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B116" s="180" t="s">
+      <c r="B116" s="178" t="s">
         <v>113</v>
       </c>
-      <c r="C116" s="180"/>
-      <c r="D116" s="181"/>
-      <c r="E116" s="180"/>
-      <c r="F116" s="180"/>
-      <c r="G116" s="182"/>
-      <c r="H116" s="183"/>
-      <c r="I116" s="184"/>
-      <c r="J116" s="185" t="s">
+      <c r="C116" s="178"/>
+      <c r="D116" s="179"/>
+      <c r="E116" s="178"/>
+      <c r="F116" s="178"/>
+      <c r="G116" s="180"/>
+      <c r="H116" s="181"/>
+      <c r="I116" s="182"/>
+      <c r="J116" s="183" t="s">
         <v>150</v>
       </c>
-      <c r="K116" s="186" t="s">
+      <c r="K116" s="184" t="s">
         <v>100</v>
       </c>
-      <c r="L116" s="187" t="s">
+      <c r="L116" s="185" t="s">
         <v>113</v>
       </c>
-      <c r="M116" s="188" t="s">
+      <c r="M116" s="186" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A117" s="236" t="s">
+      <c r="A117" s="319" t="s">
         <v>103</v>
       </c>
       <c r="B117" s="89" t="s">
@@ -16329,10 +17591,10 @@
       <c r="H117" s="44">
         <v>14800</v>
       </c>
-      <c r="J117" s="252" t="s">
+      <c r="J117" s="332" t="s">
         <v>159</v>
       </c>
-      <c r="K117" s="255" t="s">
+      <c r="K117" s="335" t="s">
         <v>165</v>
       </c>
       <c r="L117" s="100" t="s">
@@ -16343,7 +17605,7 @@
       </c>
     </row>
     <row r="118" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A118" s="237"/>
+      <c r="A118" s="320"/>
       <c r="B118" s="56" t="s">
         <v>2230</v>
       </c>
@@ -16365,8 +17627,8 @@
       <c r="H118" s="47">
         <v>13880</v>
       </c>
-      <c r="J118" s="253"/>
-      <c r="K118" s="256"/>
+      <c r="J118" s="333"/>
+      <c r="K118" s="336"/>
       <c r="L118" s="24" t="s">
         <v>132</v>
       </c>
@@ -16375,7 +17637,7 @@
       </c>
     </row>
     <row r="119" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A119" s="237"/>
+      <c r="A119" s="320"/>
       <c r="B119" s="56" t="s">
         <v>2231</v>
       </c>
@@ -16397,8 +17659,8 @@
       <c r="H119" s="47">
         <v>12940</v>
       </c>
-      <c r="J119" s="253"/>
-      <c r="K119" s="256"/>
+      <c r="J119" s="333"/>
+      <c r="K119" s="336"/>
       <c r="L119" s="101" t="s">
         <v>132</v>
       </c>
@@ -16407,7 +17669,7 @@
       </c>
     </row>
     <row r="120" spans="1:13" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="238"/>
+      <c r="A120" s="321"/>
       <c r="B120" s="91" t="s">
         <v>2232</v>
       </c>
@@ -16429,8 +17691,8 @@
       <c r="H120" s="83">
         <v>12000</v>
       </c>
-      <c r="J120" s="254"/>
-      <c r="K120" s="257"/>
+      <c r="J120" s="334"/>
+      <c r="K120" s="337"/>
       <c r="L120" s="25" t="s">
         <v>132</v>
       </c>
@@ -16493,1064 +17755,3416 @@
       </c>
     </row>
     <row r="123" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="239" t="s">
+      <c r="A123" s="322" t="s">
         <v>2247</v>
       </c>
-      <c r="B123" s="241" t="s">
+      <c r="B123" s="324" t="s">
         <v>2250</v>
       </c>
-      <c r="C123" s="192" t="s">
+      <c r="C123" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="D123" s="169" t="s">
+      <c r="D123" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="E123" s="169" t="s">
+      <c r="E123" s="167" t="s">
         <v>2233</v>
       </c>
-      <c r="F123" s="170">
+      <c r="F123" s="168">
         <v>57200</v>
       </c>
-      <c r="G123" s="169" t="s">
+      <c r="G123" s="167" t="s">
         <v>2253</v>
       </c>
-      <c r="H123" s="171" t="s">
+      <c r="H123" s="169" t="s">
         <v>2251</v>
       </c>
-      <c r="J123" s="189"/>
-      <c r="K123" s="190"/>
-      <c r="L123" s="191"/>
-      <c r="M123" s="191"/>
+      <c r="J123" s="187"/>
+      <c r="K123" s="188"/>
+      <c r="L123" s="189"/>
+      <c r="M123" s="189"/>
     </row>
     <row r="124" spans="1:13" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="240"/>
-      <c r="B124" s="242"/>
-      <c r="C124" s="194" t="s">
+      <c r="A124" s="323"/>
+      <c r="B124" s="325"/>
+      <c r="C124" s="192" t="s">
         <v>27</v>
       </c>
-      <c r="D124" s="175" t="s">
+      <c r="D124" s="173" t="s">
         <v>79</v>
       </c>
-      <c r="E124" s="175" t="s">
+      <c r="E124" s="173" t="s">
         <v>2234</v>
       </c>
-      <c r="F124" s="176">
+      <c r="F124" s="174">
         <v>50000</v>
       </c>
-      <c r="G124" s="175" t="s">
+      <c r="G124" s="173" t="s">
         <v>2254</v>
       </c>
-      <c r="H124" s="177" t="s">
+      <c r="H124" s="175" t="s">
         <v>2252</v>
       </c>
-      <c r="J124" s="189"/>
-      <c r="K124" s="190"/>
-      <c r="L124" s="191"/>
-      <c r="M124" s="191"/>
+      <c r="J124" s="187"/>
+      <c r="K124" s="188"/>
+      <c r="L124" s="189"/>
+      <c r="M124" s="189"/>
     </row>
     <row r="125" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="243" t="s">
+      <c r="A125" s="288" t="s">
         <v>2248</v>
       </c>
-      <c r="B125" s="246" t="s">
+      <c r="B125" s="326" t="s">
         <v>2261</v>
       </c>
-      <c r="C125" s="192" t="s">
+      <c r="C125" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="D125" s="195" t="s">
+      <c r="D125" s="193" t="s">
         <v>42</v>
       </c>
-      <c r="E125" s="169" t="s">
+      <c r="E125" s="167" t="s">
         <v>2257</v>
       </c>
-      <c r="F125" s="170">
+      <c r="F125" s="168">
         <v>12150</v>
       </c>
-      <c r="G125" s="169" t="s">
+      <c r="G125" s="167" t="s">
         <v>2255</v>
       </c>
-      <c r="H125" s="171" t="s">
+      <c r="H125" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="J125" s="189"/>
-      <c r="K125" s="190"/>
-      <c r="L125" s="191"/>
-      <c r="M125" s="191"/>
+      <c r="J125" s="187"/>
+      <c r="K125" s="188"/>
+      <c r="L125" s="189"/>
+      <c r="M125" s="189"/>
     </row>
     <row r="126" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="244"/>
-      <c r="B126" s="247"/>
-      <c r="C126" s="193" t="s">
+      <c r="A126" s="289"/>
+      <c r="B126" s="327"/>
+      <c r="C126" s="191" t="s">
         <v>27</v>
       </c>
-      <c r="D126" s="196" t="s">
+      <c r="D126" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="E126" s="172" t="s">
+      <c r="E126" s="170" t="s">
         <v>86</v>
       </c>
-      <c r="F126" s="173">
+      <c r="F126" s="171">
         <v>11880</v>
       </c>
-      <c r="G126" s="172" t="s">
+      <c r="G126" s="170" t="s">
         <v>2256</v>
       </c>
-      <c r="H126" s="174" t="s">
+      <c r="H126" s="172" t="s">
         <v>88</v>
       </c>
-      <c r="J126" s="189"/>
-      <c r="K126" s="190"/>
-      <c r="L126" s="191"/>
-      <c r="M126" s="191"/>
+      <c r="J126" s="187"/>
+      <c r="K126" s="188"/>
+      <c r="L126" s="189"/>
+      <c r="M126" s="189"/>
     </row>
     <row r="127" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="244"/>
-      <c r="B127" s="247"/>
-      <c r="C127" s="193" t="s">
+      <c r="A127" s="289"/>
+      <c r="B127" s="327"/>
+      <c r="C127" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="D127" s="196" t="s">
+      <c r="D127" s="194" t="s">
         <v>2258</v>
       </c>
-      <c r="E127" s="172" t="s">
+      <c r="E127" s="170" t="s">
         <v>86</v>
       </c>
-      <c r="F127" s="173">
+      <c r="F127" s="171">
         <v>11340</v>
       </c>
-      <c r="G127" s="172" t="s">
+      <c r="G127" s="170" t="s">
         <v>2259</v>
       </c>
-      <c r="H127" s="174" t="s">
+      <c r="H127" s="172" t="s">
         <v>2216</v>
       </c>
-      <c r="J127" s="189"/>
-      <c r="K127" s="190"/>
-      <c r="L127" s="191"/>
-      <c r="M127" s="191"/>
+      <c r="J127" s="187"/>
+      <c r="K127" s="188"/>
+      <c r="L127" s="189"/>
+      <c r="M127" s="189"/>
     </row>
     <row r="128" spans="1:13" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="245"/>
-      <c r="B128" s="248"/>
-      <c r="C128" s="194" t="s">
+      <c r="A128" s="290"/>
+      <c r="B128" s="328"/>
+      <c r="C128" s="192" t="s">
         <v>27</v>
       </c>
-      <c r="D128" s="197" t="s">
+      <c r="D128" s="195" t="s">
         <v>2258</v>
       </c>
-      <c r="E128" s="175" t="s">
+      <c r="E128" s="173" t="s">
         <v>2215</v>
       </c>
-      <c r="F128" s="176">
+      <c r="F128" s="174">
         <v>10800</v>
       </c>
-      <c r="G128" s="175" t="s">
+      <c r="G128" s="173" t="s">
         <v>2260</v>
       </c>
-      <c r="H128" s="177" t="s">
+      <c r="H128" s="175" t="s">
         <v>2215</v>
       </c>
-      <c r="J128" s="189"/>
-      <c r="K128" s="190"/>
-      <c r="L128" s="191"/>
-      <c r="M128" s="191"/>
+      <c r="J128" s="187"/>
+      <c r="K128" s="188"/>
+      <c r="L128" s="189"/>
+      <c r="M128" s="189"/>
     </row>
     <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="329" t="s">
+      <c r="A129" s="409" t="s">
         <v>109</v>
       </c>
-      <c r="B129" s="246" t="s">
+      <c r="B129" s="326" t="s">
         <v>2236</v>
       </c>
-      <c r="C129" s="192" t="s">
+      <c r="C129" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="D129" s="169" t="s">
+      <c r="D129" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="E129" s="169" t="s">
+      <c r="E129" s="167" t="s">
         <v>2264</v>
       </c>
-      <c r="F129" s="170">
+      <c r="F129" s="168">
         <v>35700</v>
       </c>
-      <c r="G129" s="169" t="s">
+      <c r="G129" s="167" t="s">
         <v>2262</v>
       </c>
-      <c r="H129" s="171" t="s">
+      <c r="H129" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="J129" s="189"/>
-      <c r="K129" s="190"/>
-      <c r="L129" s="191"/>
-      <c r="M129" s="191"/>
+      <c r="J129" s="187"/>
+      <c r="K129" s="188"/>
+      <c r="L129" s="189"/>
+      <c r="M129" s="189"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" s="330"/>
-      <c r="B130" s="247"/>
-      <c r="C130" s="193" t="s">
+      <c r="A130" s="410"/>
+      <c r="B130" s="327"/>
+      <c r="C130" s="191" t="s">
         <v>27</v>
       </c>
-      <c r="D130" s="172" t="s">
+      <c r="D130" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="E130" s="172" t="s">
+      <c r="E130" s="170" t="s">
         <v>2264</v>
       </c>
-      <c r="F130" s="173">
+      <c r="F130" s="171">
         <v>32300</v>
       </c>
-      <c r="G130" s="172" t="s">
+      <c r="G130" s="170" t="s">
         <v>2263</v>
       </c>
-      <c r="H130" s="174" t="s">
+      <c r="H130" s="172" t="s">
         <v>110</v>
       </c>
-      <c r="J130" s="189"/>
-      <c r="K130" s="190"/>
-      <c r="L130" s="191"/>
-      <c r="M130" s="191"/>
+      <c r="J130" s="187"/>
+      <c r="K130" s="188"/>
+      <c r="L130" s="189"/>
+      <c r="M130" s="189"/>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" s="330"/>
-      <c r="B131" s="247"/>
-      <c r="C131" s="193" t="s">
+      <c r="A131" s="410"/>
+      <c r="B131" s="327"/>
+      <c r="C131" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="D131" s="172" t="s">
+      <c r="D131" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="E131" s="172" t="s">
+      <c r="E131" s="170" t="s">
         <v>2264</v>
       </c>
-      <c r="F131" s="173">
+      <c r="F131" s="171">
         <v>29750</v>
       </c>
-      <c r="G131" s="172" t="s">
+      <c r="G131" s="170" t="s">
         <v>2239</v>
       </c>
-      <c r="H131" s="174" t="s">
+      <c r="H131" s="172" t="s">
         <v>105</v>
       </c>
-      <c r="J131" s="189"/>
-      <c r="K131" s="190"/>
-      <c r="L131" s="191"/>
-      <c r="M131" s="191"/>
+      <c r="J131" s="187"/>
+      <c r="K131" s="188"/>
+      <c r="L131" s="189"/>
+      <c r="M131" s="189"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132" s="330"/>
-      <c r="B132" s="247" t="s">
+      <c r="A132" s="410"/>
+      <c r="B132" s="327" t="s">
         <v>2237</v>
       </c>
-      <c r="C132" s="193" t="s">
+      <c r="C132" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="D132" s="172" t="s">
+      <c r="D132" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="E132" s="172" t="s">
+      <c r="E132" s="170" t="s">
         <v>2265</v>
       </c>
-      <c r="F132" s="173">
+      <c r="F132" s="171">
         <v>35700</v>
       </c>
-      <c r="G132" s="172" t="s">
+      <c r="G132" s="170" t="s">
         <v>2262</v>
       </c>
-      <c r="H132" s="174" t="s">
+      <c r="H132" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="J132" s="189"/>
-      <c r="K132" s="190"/>
-      <c r="L132" s="191"/>
-      <c r="M132" s="191"/>
+      <c r="J132" s="187"/>
+      <c r="K132" s="188"/>
+      <c r="L132" s="189"/>
+      <c r="M132" s="189"/>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" s="330"/>
-      <c r="B133" s="247"/>
-      <c r="C133" s="193" t="s">
+      <c r="A133" s="410"/>
+      <c r="B133" s="327"/>
+      <c r="C133" s="191" t="s">
         <v>27</v>
       </c>
-      <c r="D133" s="172" t="s">
+      <c r="D133" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="E133" s="172" t="s">
+      <c r="E133" s="170" t="s">
         <v>2265</v>
       </c>
-      <c r="F133" s="173">
+      <c r="F133" s="171">
         <v>32300</v>
       </c>
-      <c r="G133" s="172" t="s">
+      <c r="G133" s="170" t="s">
         <v>2263</v>
       </c>
-      <c r="H133" s="174" t="s">
+      <c r="H133" s="172" t="s">
         <v>110</v>
       </c>
-      <c r="J133" s="189"/>
-      <c r="K133" s="190"/>
-      <c r="L133" s="191"/>
-      <c r="M133" s="191"/>
+      <c r="J133" s="187"/>
+      <c r="K133" s="188"/>
+      <c r="L133" s="189"/>
+      <c r="M133" s="189"/>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" s="330"/>
-      <c r="B134" s="247"/>
-      <c r="C134" s="193" t="s">
+      <c r="A134" s="410"/>
+      <c r="B134" s="327"/>
+      <c r="C134" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="D134" s="172" t="s">
+      <c r="D134" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="E134" s="172" t="s">
+      <c r="E134" s="170" t="s">
         <v>2265</v>
       </c>
-      <c r="F134" s="173">
+      <c r="F134" s="171">
         <v>29750</v>
       </c>
-      <c r="G134" s="172" t="s">
+      <c r="G134" s="170" t="s">
         <v>2239</v>
       </c>
-      <c r="H134" s="174" t="s">
+      <c r="H134" s="172" t="s">
         <v>105</v>
       </c>
-      <c r="J134" s="189"/>
-      <c r="K134" s="190"/>
-      <c r="L134" s="191"/>
-      <c r="M134" s="191"/>
+      <c r="J134" s="187"/>
+      <c r="K134" s="188"/>
+      <c r="L134" s="189"/>
+      <c r="M134" s="189"/>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" s="330"/>
-      <c r="B135" s="247" t="s">
+      <c r="A135" s="410"/>
+      <c r="B135" s="327" t="s">
         <v>2238</v>
       </c>
-      <c r="C135" s="193" t="s">
+      <c r="C135" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="D135" s="172" t="s">
+      <c r="D135" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="E135" s="172" t="s">
+      <c r="E135" s="170" t="s">
         <v>2266</v>
       </c>
-      <c r="F135" s="173">
+      <c r="F135" s="171">
         <v>35700</v>
       </c>
-      <c r="G135" s="172" t="s">
+      <c r="G135" s="170" t="s">
         <v>2262</v>
       </c>
-      <c r="H135" s="174" t="s">
+      <c r="H135" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="J135" s="189"/>
-      <c r="K135" s="190"/>
-      <c r="L135" s="191"/>
-      <c r="M135" s="191"/>
+      <c r="J135" s="187"/>
+      <c r="K135" s="188"/>
+      <c r="L135" s="189"/>
+      <c r="M135" s="189"/>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" s="330"/>
-      <c r="B136" s="247"/>
-      <c r="C136" s="193" t="s">
+      <c r="A136" s="410"/>
+      <c r="B136" s="327"/>
+      <c r="C136" s="191" t="s">
         <v>27</v>
       </c>
-      <c r="D136" s="172" t="s">
+      <c r="D136" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="E136" s="172" t="s">
+      <c r="E136" s="170" t="s">
         <v>2266</v>
       </c>
-      <c r="F136" s="173">
+      <c r="F136" s="171">
         <v>32300</v>
       </c>
-      <c r="G136" s="172" t="s">
+      <c r="G136" s="170" t="s">
         <v>2263</v>
       </c>
-      <c r="H136" s="174" t="s">
+      <c r="H136" s="172" t="s">
         <v>110</v>
       </c>
-      <c r="J136" s="189"/>
-      <c r="K136" s="190"/>
-      <c r="L136" s="191"/>
-      <c r="M136" s="191"/>
+      <c r="J136" s="187"/>
+      <c r="K136" s="188"/>
+      <c r="L136" s="189"/>
+      <c r="M136" s="189"/>
     </row>
     <row r="137" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="331"/>
-      <c r="B137" s="248"/>
-      <c r="C137" s="194" t="s">
+      <c r="A137" s="411"/>
+      <c r="B137" s="328"/>
+      <c r="C137" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="D137" s="175" t="s">
+      <c r="D137" s="173" t="s">
         <v>79</v>
       </c>
-      <c r="E137" s="175" t="s">
+      <c r="E137" s="173" t="s">
         <v>2266</v>
       </c>
-      <c r="F137" s="176">
+      <c r="F137" s="174">
         <v>29750</v>
       </c>
-      <c r="G137" s="175" t="s">
+      <c r="G137" s="173" t="s">
         <v>2239</v>
       </c>
-      <c r="H137" s="177" t="s">
+      <c r="H137" s="175" t="s">
         <v>105</v>
       </c>
-      <c r="J137" s="189"/>
-      <c r="K137" s="190"/>
-      <c r="L137" s="191"/>
-      <c r="M137" s="191"/>
+      <c r="J137" s="187"/>
+      <c r="K137" s="188"/>
+      <c r="L137" s="189"/>
+      <c r="M137" s="189"/>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138" s="329" t="s">
+      <c r="A138" s="409" t="s">
         <v>106</v>
       </c>
-      <c r="B138" s="246" t="s">
+      <c r="B138" s="326" t="s">
         <v>2240</v>
       </c>
-      <c r="C138" s="192" t="s">
+      <c r="C138" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="D138" s="169" t="s">
+      <c r="D138" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="E138" s="169" t="s">
+      <c r="E138" s="167" t="s">
         <v>2266</v>
       </c>
-      <c r="F138" s="170">
+      <c r="F138" s="168">
         <v>29750</v>
       </c>
-      <c r="G138" s="169" t="s">
+      <c r="G138" s="167" t="s">
         <v>2239</v>
       </c>
-      <c r="H138" s="171" t="s">
+      <c r="H138" s="169" t="s">
         <v>105</v>
       </c>
-      <c r="J138" s="189"/>
-      <c r="K138" s="190"/>
-      <c r="L138" s="191"/>
-      <c r="M138" s="191"/>
+      <c r="J138" s="187"/>
+      <c r="K138" s="188"/>
+      <c r="L138" s="189"/>
+      <c r="M138" s="189"/>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139" s="330"/>
-      <c r="B139" s="247"/>
-      <c r="C139" s="193" t="s">
+      <c r="A139" s="410"/>
+      <c r="B139" s="327"/>
+      <c r="C139" s="191" t="s">
         <v>27</v>
       </c>
-      <c r="D139" s="172" t="s">
+      <c r="D139" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="E139" s="172" t="s">
+      <c r="E139" s="170" t="s">
         <v>2266</v>
       </c>
-      <c r="F139" s="173">
+      <c r="F139" s="171">
         <v>27200</v>
       </c>
-      <c r="G139" s="172" t="s">
+      <c r="G139" s="170" t="s">
         <v>2267</v>
       </c>
-      <c r="H139" s="174" t="s">
+      <c r="H139" s="172" t="s">
         <v>107</v>
       </c>
-      <c r="J139" s="189"/>
-      <c r="K139" s="190"/>
-      <c r="L139" s="191"/>
-      <c r="M139" s="191"/>
+      <c r="J139" s="187"/>
+      <c r="K139" s="188"/>
+      <c r="L139" s="189"/>
+      <c r="M139" s="189"/>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140" s="330"/>
-      <c r="B140" s="247"/>
-      <c r="C140" s="193" t="s">
+      <c r="A140" s="410"/>
+      <c r="B140" s="327"/>
+      <c r="C140" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="D140" s="172" t="s">
+      <c r="D140" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="E140" s="172" t="s">
+      <c r="E140" s="170" t="s">
         <v>2266</v>
       </c>
-      <c r="F140" s="173">
+      <c r="F140" s="171">
         <v>23800</v>
       </c>
-      <c r="G140" s="172" t="s">
+      <c r="G140" s="170" t="s">
         <v>2268</v>
       </c>
-      <c r="H140" s="174" t="s">
+      <c r="H140" s="172" t="s">
         <v>108</v>
       </c>
-      <c r="J140" s="189"/>
-      <c r="K140" s="190"/>
-      <c r="L140" s="191"/>
-      <c r="M140" s="191"/>
+      <c r="J140" s="187"/>
+      <c r="K140" s="188"/>
+      <c r="L140" s="189"/>
+      <c r="M140" s="189"/>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" s="330"/>
-      <c r="B141" s="247" t="s">
+      <c r="A141" s="410"/>
+      <c r="B141" s="327" t="s">
         <v>2241</v>
       </c>
-      <c r="C141" s="193" t="s">
+      <c r="C141" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="D141" s="172" t="s">
+      <c r="D141" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="E141" s="172" t="s">
+      <c r="E141" s="170" t="s">
         <v>2269</v>
       </c>
-      <c r="F141" s="173">
+      <c r="F141" s="171">
         <v>29750</v>
       </c>
-      <c r="G141" s="172" t="s">
+      <c r="G141" s="170" t="s">
         <v>2239</v>
       </c>
-      <c r="H141" s="174" t="s">
+      <c r="H141" s="172" t="s">
         <v>105</v>
       </c>
-      <c r="J141" s="189"/>
-      <c r="K141" s="190"/>
-      <c r="L141" s="191"/>
-      <c r="M141" s="191"/>
+      <c r="J141" s="187"/>
+      <c r="K141" s="188"/>
+      <c r="L141" s="189"/>
+      <c r="M141" s="189"/>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142" s="330"/>
-      <c r="B142" s="247"/>
-      <c r="C142" s="193" t="s">
+      <c r="A142" s="410"/>
+      <c r="B142" s="327"/>
+      <c r="C142" s="191" t="s">
         <v>27</v>
       </c>
-      <c r="D142" s="172" t="s">
+      <c r="D142" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="E142" s="172" t="s">
+      <c r="E142" s="170" t="s">
         <v>2269</v>
       </c>
-      <c r="F142" s="173">
+      <c r="F142" s="171">
         <v>27200</v>
       </c>
-      <c r="G142" s="172" t="s">
+      <c r="G142" s="170" t="s">
         <v>2267</v>
       </c>
-      <c r="H142" s="174" t="s">
+      <c r="H142" s="172" t="s">
         <v>107</v>
       </c>
-      <c r="J142" s="189"/>
-      <c r="K142" s="190"/>
-      <c r="L142" s="191"/>
-      <c r="M142" s="191"/>
+      <c r="J142" s="187"/>
+      <c r="K142" s="188"/>
+      <c r="L142" s="189"/>
+      <c r="M142" s="189"/>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="330"/>
-      <c r="B143" s="247"/>
-      <c r="C143" s="193" t="s">
+      <c r="A143" s="410"/>
+      <c r="B143" s="327"/>
+      <c r="C143" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="D143" s="172" t="s">
+      <c r="D143" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="E143" s="172" t="s">
+      <c r="E143" s="170" t="s">
         <v>2269</v>
       </c>
-      <c r="F143" s="173">
+      <c r="F143" s="171">
         <v>23800</v>
       </c>
-      <c r="G143" s="172" t="s">
+      <c r="G143" s="170" t="s">
         <v>2268</v>
       </c>
-      <c r="H143" s="174" t="s">
+      <c r="H143" s="172" t="s">
         <v>108</v>
       </c>
-      <c r="J143" s="189"/>
-      <c r="K143" s="190"/>
-      <c r="L143" s="191"/>
-      <c r="M143" s="191"/>
+      <c r="J143" s="187"/>
+      <c r="K143" s="188"/>
+      <c r="L143" s="189"/>
+      <c r="M143" s="189"/>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="330"/>
-      <c r="B144" s="247" t="s">
+      <c r="A144" s="410"/>
+      <c r="B144" s="327" t="s">
         <v>2242</v>
       </c>
-      <c r="C144" s="193" t="s">
+      <c r="C144" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="D144" s="172" t="s">
+      <c r="D144" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="E144" s="172" t="s">
+      <c r="E144" s="170" t="s">
         <v>2270</v>
       </c>
-      <c r="F144" s="173">
+      <c r="F144" s="171">
         <v>29750</v>
       </c>
-      <c r="G144" s="172" t="s">
+      <c r="G144" s="170" t="s">
         <v>2239</v>
       </c>
-      <c r="H144" s="174" t="s">
+      <c r="H144" s="172" t="s">
         <v>105</v>
       </c>
-      <c r="J144" s="189"/>
-      <c r="K144" s="190"/>
-      <c r="L144" s="191"/>
-      <c r="M144" s="191"/>
+      <c r="J144" s="187"/>
+      <c r="K144" s="188"/>
+      <c r="L144" s="189"/>
+      <c r="M144" s="189"/>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145" s="330"/>
-      <c r="B145" s="247"/>
-      <c r="C145" s="193" t="s">
+      <c r="A145" s="410"/>
+      <c r="B145" s="327"/>
+      <c r="C145" s="191" t="s">
         <v>27</v>
       </c>
-      <c r="D145" s="172" t="s">
+      <c r="D145" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="E145" s="172" t="s">
+      <c r="E145" s="170" t="s">
         <v>2270</v>
       </c>
-      <c r="F145" s="173">
+      <c r="F145" s="171">
         <v>27200</v>
       </c>
-      <c r="G145" s="172" t="s">
+      <c r="G145" s="170" t="s">
         <v>2267</v>
       </c>
-      <c r="H145" s="174" t="s">
+      <c r="H145" s="172" t="s">
         <v>107</v>
       </c>
-      <c r="J145" s="189"/>
-      <c r="K145" s="190"/>
-      <c r="L145" s="191"/>
-      <c r="M145" s="191"/>
+      <c r="J145" s="187"/>
+      <c r="K145" s="188"/>
+      <c r="L145" s="189"/>
+      <c r="M145" s="189"/>
     </row>
     <row r="146" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="331"/>
-      <c r="B146" s="248"/>
-      <c r="C146" s="194" t="s">
+      <c r="A146" s="411"/>
+      <c r="B146" s="328"/>
+      <c r="C146" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="D146" s="175" t="s">
+      <c r="D146" s="173" t="s">
         <v>79</v>
       </c>
-      <c r="E146" s="175" t="s">
+      <c r="E146" s="173" t="s">
         <v>2270</v>
       </c>
-      <c r="F146" s="176">
+      <c r="F146" s="174">
         <v>23800</v>
       </c>
-      <c r="G146" s="175" t="s">
+      <c r="G146" s="173" t="s">
         <v>2268</v>
       </c>
-      <c r="H146" s="177" t="s">
+      <c r="H146" s="175" t="s">
         <v>108</v>
       </c>
-      <c r="J146" s="189"/>
-      <c r="K146" s="190"/>
-      <c r="L146" s="191"/>
-      <c r="M146" s="191"/>
+      <c r="J146" s="187"/>
+      <c r="K146" s="188"/>
+      <c r="L146" s="189"/>
+      <c r="M146" s="189"/>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A147" s="239" t="s">
+      <c r="A147" s="322" t="s">
         <v>2271</v>
       </c>
-      <c r="B147" s="246" t="s">
+      <c r="B147" s="326" t="s">
         <v>2243</v>
       </c>
-      <c r="C147" s="192" t="s">
+      <c r="C147" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="D147" s="169" t="s">
+      <c r="D147" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="E147" s="169" t="s">
+      <c r="E147" s="167" t="s">
         <v>2274</v>
       </c>
-      <c r="F147" s="170">
+      <c r="F147" s="168">
         <v>20400</v>
       </c>
-      <c r="G147" s="169" t="s">
+      <c r="G147" s="167" t="s">
         <v>2272</v>
       </c>
-      <c r="H147" s="171" t="s">
+      <c r="H147" s="169" t="s">
         <v>75</v>
       </c>
-      <c r="J147" s="189"/>
-      <c r="K147" s="190"/>
-      <c r="L147" s="191"/>
-      <c r="M147" s="191"/>
+      <c r="J147" s="187"/>
+      <c r="K147" s="188"/>
+      <c r="L147" s="189"/>
+      <c r="M147" s="189"/>
     </row>
     <row r="148" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="240"/>
-      <c r="B148" s="248"/>
-      <c r="C148" s="194" t="s">
+      <c r="A148" s="323"/>
+      <c r="B148" s="328"/>
+      <c r="C148" s="192" t="s">
         <v>27</v>
       </c>
-      <c r="D148" s="175" t="s">
+      <c r="D148" s="173" t="s">
         <v>79</v>
       </c>
-      <c r="E148" s="175" t="s">
+      <c r="E148" s="173" t="s">
         <v>2274</v>
       </c>
-      <c r="F148" s="176">
+      <c r="F148" s="174">
         <v>17850</v>
       </c>
-      <c r="G148" s="175" t="s">
+      <c r="G148" s="173" t="s">
         <v>2273</v>
       </c>
-      <c r="H148" s="177" t="s">
+      <c r="H148" s="175" t="s">
         <v>111</v>
       </c>
-      <c r="J148" s="189"/>
-      <c r="K148" s="190"/>
-      <c r="L148" s="191"/>
-      <c r="M148" s="191"/>
+      <c r="J148" s="187"/>
+      <c r="K148" s="188"/>
+      <c r="L148" s="189"/>
+      <c r="M148" s="189"/>
     </row>
     <row r="149" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="243" t="s">
+      <c r="A149" s="288" t="s">
         <v>104</v>
       </c>
-      <c r="B149" s="246" t="s">
+      <c r="B149" s="326" t="s">
         <v>2244</v>
       </c>
-      <c r="C149" s="192" t="s">
+      <c r="C149" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="D149" s="169" t="s">
+      <c r="D149" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="E149" s="169" t="s">
+      <c r="E149" s="167" t="s">
         <v>2217</v>
       </c>
-      <c r="F149" s="170">
+      <c r="F149" s="168">
         <v>16720</v>
       </c>
-      <c r="G149" s="169" t="s">
+      <c r="G149" s="167" t="s">
         <v>2275</v>
       </c>
-      <c r="H149" s="171" t="s">
+      <c r="H149" s="169" t="s">
         <v>2277</v>
       </c>
-      <c r="J149" s="189"/>
-      <c r="K149" s="190"/>
-      <c r="L149" s="191"/>
-      <c r="M149" s="191"/>
+      <c r="J149" s="187"/>
+      <c r="K149" s="188"/>
+      <c r="L149" s="189"/>
+      <c r="M149" s="189"/>
     </row>
     <row r="150" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="244"/>
-      <c r="B150" s="247"/>
-      <c r="C150" s="193" t="s">
+      <c r="A150" s="289"/>
+      <c r="B150" s="327"/>
+      <c r="C150" s="191" t="s">
         <v>27</v>
       </c>
-      <c r="D150" s="172" t="s">
+      <c r="D150" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="E150" s="172" t="s">
+      <c r="E150" s="170" t="s">
         <v>2217</v>
       </c>
-      <c r="F150" s="173">
+      <c r="F150" s="171">
         <v>14960</v>
       </c>
-      <c r="G150" s="172" t="s">
+      <c r="G150" s="170" t="s">
         <v>2276</v>
       </c>
-      <c r="H150" s="174" t="s">
+      <c r="H150" s="172" t="s">
         <v>2278</v>
       </c>
-      <c r="J150" s="189"/>
-      <c r="K150" s="190"/>
-      <c r="L150" s="191"/>
-      <c r="M150" s="191"/>
+      <c r="J150" s="187"/>
+      <c r="K150" s="188"/>
+      <c r="L150" s="189"/>
+      <c r="M150" s="189"/>
     </row>
     <row r="151" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="244"/>
-      <c r="B151" s="247"/>
-      <c r="C151" s="193" t="s">
+      <c r="A151" s="289"/>
+      <c r="B151" s="327"/>
+      <c r="C151" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="D151" s="172" t="s">
+      <c r="D151" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="E151" s="172" t="s">
+      <c r="E151" s="170" t="s">
         <v>2217</v>
       </c>
-      <c r="F151" s="173">
+      <c r="F151" s="171">
         <v>13200</v>
       </c>
-      <c r="G151" s="172" t="s">
+      <c r="G151" s="170" t="s">
         <v>2218</v>
       </c>
-      <c r="H151" s="174" t="s">
+      <c r="H151" s="172" t="s">
         <v>2279</v>
       </c>
-      <c r="J151" s="189"/>
-      <c r="K151" s="190"/>
-      <c r="L151" s="191"/>
-      <c r="M151" s="191"/>
+      <c r="J151" s="187"/>
+      <c r="K151" s="188"/>
+      <c r="L151" s="189"/>
+      <c r="M151" s="189"/>
     </row>
     <row r="152" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="244"/>
-      <c r="B152" s="247" t="s">
+      <c r="A152" s="289"/>
+      <c r="B152" s="327" t="s">
         <v>2245</v>
       </c>
-      <c r="C152" s="193" t="s">
+      <c r="C152" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="D152" s="172" t="s">
+      <c r="D152" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="E152" s="172" t="s">
+      <c r="E152" s="170" t="s">
         <v>49</v>
       </c>
-      <c r="F152" s="173">
+      <c r="F152" s="171">
         <v>16720</v>
       </c>
-      <c r="G152" s="172" t="s">
+      <c r="G152" s="170" t="s">
         <v>2275</v>
       </c>
-      <c r="H152" s="174" t="s">
+      <c r="H152" s="172" t="s">
         <v>2277</v>
       </c>
-      <c r="J152" s="189"/>
-      <c r="K152" s="190"/>
-      <c r="L152" s="191"/>
-      <c r="M152" s="191"/>
+      <c r="J152" s="187"/>
+      <c r="K152" s="188"/>
+      <c r="L152" s="189"/>
+      <c r="M152" s="189"/>
     </row>
     <row r="153" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="244"/>
-      <c r="B153" s="247"/>
-      <c r="C153" s="193" t="s">
+      <c r="A153" s="289"/>
+      <c r="B153" s="327"/>
+      <c r="C153" s="191" t="s">
         <v>27</v>
       </c>
-      <c r="D153" s="172" t="s">
+      <c r="D153" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="E153" s="172" t="s">
+      <c r="E153" s="170" t="s">
         <v>49</v>
       </c>
-      <c r="F153" s="173">
+      <c r="F153" s="171">
         <v>14960</v>
       </c>
-      <c r="G153" s="172" t="s">
+      <c r="G153" s="170" t="s">
         <v>2276</v>
       </c>
-      <c r="H153" s="174" t="s">
+      <c r="H153" s="172" t="s">
         <v>2278</v>
       </c>
-      <c r="J153" s="189"/>
-      <c r="K153" s="190"/>
-      <c r="L153" s="191"/>
-      <c r="M153" s="191"/>
+      <c r="J153" s="187"/>
+      <c r="K153" s="188"/>
+      <c r="L153" s="189"/>
+      <c r="M153" s="189"/>
     </row>
     <row r="154" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="244"/>
-      <c r="B154" s="247"/>
-      <c r="C154" s="193" t="s">
+      <c r="A154" s="289"/>
+      <c r="B154" s="327"/>
+      <c r="C154" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="D154" s="172" t="s">
+      <c r="D154" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="E154" s="172" t="s">
+      <c r="E154" s="170" t="s">
         <v>49</v>
       </c>
-      <c r="F154" s="173">
+      <c r="F154" s="171">
         <v>13200</v>
       </c>
-      <c r="G154" s="172" t="s">
+      <c r="G154" s="170" t="s">
         <v>2218</v>
       </c>
-      <c r="H154" s="174" t="s">
+      <c r="H154" s="172" t="s">
         <v>2279</v>
       </c>
-      <c r="J154" s="189"/>
-      <c r="K154" s="190"/>
-      <c r="L154" s="191"/>
-      <c r="M154" s="191"/>
+      <c r="J154" s="187"/>
+      <c r="K154" s="188"/>
+      <c r="L154" s="189"/>
+      <c r="M154" s="189"/>
     </row>
     <row r="155" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="244"/>
-      <c r="B155" s="247" t="s">
+      <c r="A155" s="289"/>
+      <c r="B155" s="327" t="s">
         <v>2246</v>
       </c>
-      <c r="C155" s="193" t="s">
+      <c r="C155" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="D155" s="172" t="s">
+      <c r="D155" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="E155" s="172" t="s">
+      <c r="E155" s="170" t="s">
         <v>61</v>
       </c>
-      <c r="F155" s="173">
+      <c r="F155" s="171">
         <v>16720</v>
       </c>
-      <c r="G155" s="172" t="s">
+      <c r="G155" s="170" t="s">
         <v>2275</v>
       </c>
-      <c r="H155" s="174" t="s">
+      <c r="H155" s="172" t="s">
         <v>2277</v>
       </c>
-      <c r="J155" s="189"/>
-      <c r="K155" s="190"/>
-      <c r="L155" s="191"/>
-      <c r="M155" s="191"/>
+      <c r="J155" s="187"/>
+      <c r="K155" s="188"/>
+      <c r="L155" s="189"/>
+      <c r="M155" s="189"/>
     </row>
     <row r="156" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="244"/>
-      <c r="B156" s="247"/>
-      <c r="C156" s="193" t="s">
+      <c r="A156" s="289"/>
+      <c r="B156" s="327"/>
+      <c r="C156" s="191" t="s">
         <v>27</v>
       </c>
-      <c r="D156" s="172" t="s">
+      <c r="D156" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="E156" s="172" t="s">
+      <c r="E156" s="170" t="s">
         <v>61</v>
       </c>
-      <c r="F156" s="173">
+      <c r="F156" s="171">
         <v>14960</v>
       </c>
-      <c r="G156" s="172" t="s">
+      <c r="G156" s="170" t="s">
         <v>2276</v>
       </c>
-      <c r="H156" s="174" t="s">
+      <c r="H156" s="172" t="s">
         <v>2278</v>
       </c>
-      <c r="J156" s="189"/>
-      <c r="K156" s="190"/>
-      <c r="L156" s="191"/>
-      <c r="M156" s="191"/>
+      <c r="J156" s="187"/>
+      <c r="K156" s="188"/>
+      <c r="L156" s="189"/>
+      <c r="M156" s="189"/>
     </row>
     <row r="157" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="245"/>
-      <c r="B157" s="248"/>
-      <c r="C157" s="194" t="s">
+      <c r="A157" s="290"/>
+      <c r="B157" s="328"/>
+      <c r="C157" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="D157" s="175" t="s">
+      <c r="D157" s="173" t="s">
         <v>79</v>
       </c>
-      <c r="E157" s="175" t="s">
+      <c r="E157" s="173" t="s">
         <v>61</v>
       </c>
-      <c r="F157" s="176">
+      <c r="F157" s="174">
         <v>13200</v>
       </c>
-      <c r="G157" s="175" t="s">
+      <c r="G157" s="173" t="s">
         <v>2218</v>
       </c>
-      <c r="H157" s="177" t="s">
+      <c r="H157" s="175" t="s">
         <v>2279</v>
       </c>
-      <c r="J157" s="189"/>
-      <c r="K157" s="190"/>
-      <c r="L157" s="191"/>
-      <c r="M157" s="191"/>
+      <c r="J157" s="187"/>
+      <c r="K157" s="188"/>
+      <c r="L157" s="189"/>
+      <c r="M157" s="189"/>
     </row>
     <row r="158" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="243" t="s">
+      <c r="A158" s="288" t="s">
         <v>2249</v>
       </c>
-      <c r="B158" s="246" t="s">
+      <c r="B158" s="326" t="s">
         <v>2280</v>
       </c>
-      <c r="C158" s="192" t="s">
+      <c r="C158" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="D158" s="169" t="s">
+      <c r="D158" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="E158" s="169" t="s">
+      <c r="E158" s="167" t="s">
         <v>2257</v>
       </c>
-      <c r="F158" s="170">
+      <c r="F158" s="168">
         <v>11700</v>
       </c>
-      <c r="G158" s="169" t="s">
+      <c r="G158" s="167" t="s">
         <v>2281</v>
       </c>
-      <c r="H158" s="171" t="s">
+      <c r="H158" s="169" t="s">
         <v>2283</v>
       </c>
-      <c r="J158" s="189"/>
-      <c r="K158" s="190"/>
-      <c r="L158" s="191"/>
-      <c r="M158" s="191"/>
+      <c r="J158" s="187"/>
+      <c r="K158" s="188"/>
+      <c r="L158" s="189"/>
+      <c r="M158" s="189"/>
     </row>
     <row r="159" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="244"/>
-      <c r="B159" s="247"/>
-      <c r="C159" s="193" t="s">
+      <c r="A159" s="289"/>
+      <c r="B159" s="327"/>
+      <c r="C159" s="191" t="s">
         <v>27</v>
       </c>
-      <c r="D159" s="172" t="s">
+      <c r="D159" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="E159" s="172" t="s">
+      <c r="E159" s="170" t="s">
         <v>2257</v>
       </c>
-      <c r="F159" s="173">
+      <c r="F159" s="171">
         <v>10800</v>
       </c>
-      <c r="G159" s="172" t="s">
+      <c r="G159" s="170" t="s">
         <v>2282</v>
       </c>
-      <c r="H159" s="174" t="s">
+      <c r="H159" s="172" t="s">
         <v>2215</v>
       </c>
-      <c r="J159" s="189"/>
-      <c r="K159" s="190"/>
-      <c r="L159" s="191"/>
-      <c r="M159" s="191"/>
+      <c r="J159" s="187"/>
+      <c r="K159" s="188"/>
+      <c r="L159" s="189"/>
+      <c r="M159" s="189"/>
     </row>
     <row r="160" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="244"/>
-      <c r="B160" s="247" t="s">
+      <c r="A160" s="289"/>
+      <c r="B160" s="327" t="s">
         <v>2284</v>
       </c>
-      <c r="C160" s="193" t="s">
+      <c r="C160" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="D160" s="172" t="s">
+      <c r="D160" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="E160" s="172" t="s">
+      <c r="E160" s="170" t="s">
         <v>86</v>
       </c>
-      <c r="F160" s="173">
+      <c r="F160" s="171">
         <v>11700</v>
       </c>
-      <c r="G160" s="172" t="s">
+      <c r="G160" s="170" t="s">
         <v>2281</v>
       </c>
-      <c r="H160" s="174" t="s">
+      <c r="H160" s="172" t="s">
         <v>2283</v>
       </c>
-      <c r="J160" s="189"/>
-      <c r="K160" s="190"/>
-      <c r="L160" s="191"/>
-      <c r="M160" s="191"/>
+      <c r="J160" s="187"/>
+      <c r="K160" s="188"/>
+      <c r="L160" s="189"/>
+      <c r="M160" s="189"/>
     </row>
     <row r="161" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="245"/>
-      <c r="B161" s="248"/>
-      <c r="C161" s="194" t="s">
+      <c r="A161" s="290"/>
+      <c r="B161" s="328"/>
+      <c r="C161" s="192" t="s">
         <v>27</v>
       </c>
-      <c r="D161" s="175" t="s">
+      <c r="D161" s="173" t="s">
         <v>79</v>
       </c>
-      <c r="E161" s="175" t="s">
+      <c r="E161" s="173" t="s">
         <v>86</v>
       </c>
-      <c r="F161" s="176">
+      <c r="F161" s="174">
         <v>10800</v>
       </c>
-      <c r="G161" s="175" t="s">
+      <c r="G161" s="173" t="s">
         <v>2282</v>
       </c>
-      <c r="H161" s="177" t="s">
+      <c r="H161" s="175" t="s">
         <v>2215</v>
       </c>
-      <c r="J161" s="189"/>
-      <c r="K161" s="190"/>
-      <c r="L161" s="191"/>
-      <c r="M161" s="191"/>
+      <c r="J161" s="187"/>
+      <c r="K161" s="188"/>
+      <c r="L161" s="189"/>
+      <c r="M161" s="189"/>
+    </row>
+    <row r="162" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A162" s="288" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B162" s="232" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C162" s="167" t="s">
+        <v>23</v>
+      </c>
+      <c r="D162" s="232" t="s">
+        <v>79</v>
+      </c>
+      <c r="E162" s="233">
+        <v>3842</v>
+      </c>
+      <c r="F162" s="233">
+        <v>30090</v>
+      </c>
+      <c r="G162" s="234" t="s">
+        <v>25</v>
+      </c>
+      <c r="H162" s="235">
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A163" s="289"/>
+      <c r="B163" s="236" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C163" s="170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D163" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E163" s="237">
+        <v>3842</v>
+      </c>
+      <c r="F163" s="237">
+        <v>27540</v>
+      </c>
+      <c r="G163" s="238" t="s">
+        <v>25</v>
+      </c>
+      <c r="H163" s="239">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="289"/>
+      <c r="B164" s="236" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C164" s="170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E164" s="237">
+        <v>3842</v>
+      </c>
+      <c r="F164" s="237">
+        <v>21930</v>
+      </c>
+      <c r="G164" s="238" t="s">
+        <v>25</v>
+      </c>
+      <c r="H164" s="239">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A165" s="289"/>
+      <c r="B165" s="236" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C165" s="170" t="s">
+        <v>29</v>
+      </c>
+      <c r="D165" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E165" s="237">
+        <v>3842</v>
+      </c>
+      <c r="F165" s="237">
+        <v>17544</v>
+      </c>
+      <c r="G165" s="238" t="s">
+        <v>25</v>
+      </c>
+      <c r="H165" s="239">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166" s="289"/>
+      <c r="B166" s="236" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C166" s="170" t="s">
+        <v>23</v>
+      </c>
+      <c r="D166" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E166" s="237">
+        <v>3342</v>
+      </c>
+      <c r="F166" s="237">
+        <v>30090</v>
+      </c>
+      <c r="G166" s="238" t="s">
+        <v>25</v>
+      </c>
+      <c r="H166" s="239">
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167" s="289"/>
+      <c r="B167" s="236" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C167" s="170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D167" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E167" s="237">
+        <v>3342</v>
+      </c>
+      <c r="F167" s="237">
+        <v>27540</v>
+      </c>
+      <c r="G167" s="238" t="s">
+        <v>25</v>
+      </c>
+      <c r="H167" s="239">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168" s="289"/>
+      <c r="B168" s="236" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C168" s="170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D168" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E168" s="237">
+        <v>3342</v>
+      </c>
+      <c r="F168" s="237">
+        <v>21930</v>
+      </c>
+      <c r="G168" s="238" t="s">
+        <v>25</v>
+      </c>
+      <c r="H168" s="239">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="290"/>
+      <c r="B169" s="240" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C169" s="173" t="s">
+        <v>29</v>
+      </c>
+      <c r="D169" s="240" t="s">
+        <v>79</v>
+      </c>
+      <c r="E169" s="241">
+        <v>3342</v>
+      </c>
+      <c r="F169" s="241">
+        <v>17544</v>
+      </c>
+      <c r="G169" s="242" t="s">
+        <v>25</v>
+      </c>
+      <c r="H169" s="243">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A170" s="291" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B170" s="232" t="s">
+        <v>2352</v>
+      </c>
+      <c r="C170" s="167" t="s">
+        <v>23</v>
+      </c>
+      <c r="D170" s="232" t="s">
+        <v>79</v>
+      </c>
+      <c r="E170" s="233">
+        <v>4600</v>
+      </c>
+      <c r="F170" s="232">
+        <v>46920</v>
+      </c>
+      <c r="G170" s="232">
+        <v>25810</v>
+      </c>
+      <c r="H170" s="235">
+        <v>8280</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A171" s="292"/>
+      <c r="B171" s="236" t="s">
+        <v>2352</v>
+      </c>
+      <c r="C171" s="170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D171" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E171" s="237">
+        <v>4600</v>
+      </c>
+      <c r="F171" s="236">
+        <v>40290</v>
+      </c>
+      <c r="G171" s="236">
+        <v>22160</v>
+      </c>
+      <c r="H171" s="239">
+        <v>7110</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A172" s="292"/>
+      <c r="B172" s="236" t="s">
+        <v>2352</v>
+      </c>
+      <c r="C172" s="170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D172" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E172" s="237">
+        <v>4600</v>
+      </c>
+      <c r="F172" s="236">
+        <v>34450</v>
+      </c>
+      <c r="G172" s="236">
+        <v>18950</v>
+      </c>
+      <c r="H172" s="239">
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A173" s="292"/>
+      <c r="B173" s="236" t="s">
+        <v>2352</v>
+      </c>
+      <c r="C173" s="170" t="s">
+        <v>29</v>
+      </c>
+      <c r="D173" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E173" s="237">
+        <v>4600</v>
+      </c>
+      <c r="F173" s="236">
+        <v>31450</v>
+      </c>
+      <c r="G173" s="236">
+        <v>17298</v>
+      </c>
+      <c r="H173" s="239">
+        <v>5550</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A174" s="292"/>
+      <c r="B174" s="236" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C174" s="170" t="s">
+        <v>23</v>
+      </c>
+      <c r="D174" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E174" s="237">
+        <v>4150</v>
+      </c>
+      <c r="F174" s="236">
+        <v>46920</v>
+      </c>
+      <c r="G174" s="236">
+        <v>25810</v>
+      </c>
+      <c r="H174" s="239">
+        <v>8280</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A175" s="292"/>
+      <c r="B175" s="236" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C175" s="170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D175" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E175" s="237">
+        <v>4150</v>
+      </c>
+      <c r="F175" s="236">
+        <v>40290</v>
+      </c>
+      <c r="G175" s="236">
+        <v>22160</v>
+      </c>
+      <c r="H175" s="239">
+        <v>7110</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A176" s="292"/>
+      <c r="B176" s="236" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C176" s="170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D176" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E176" s="237">
+        <v>4150</v>
+      </c>
+      <c r="F176" s="236">
+        <v>34450</v>
+      </c>
+      <c r="G176" s="236">
+        <v>18950</v>
+      </c>
+      <c r="H176" s="239">
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A177" s="292"/>
+      <c r="B177" s="236" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C177" s="170" t="s">
+        <v>29</v>
+      </c>
+      <c r="D177" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E177" s="237">
+        <v>4150</v>
+      </c>
+      <c r="F177" s="236">
+        <v>31450</v>
+      </c>
+      <c r="G177" s="236">
+        <v>17298</v>
+      </c>
+      <c r="H177" s="239">
+        <v>5550</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A178" s="292"/>
+      <c r="B178" s="236" t="s">
+        <v>2354</v>
+      </c>
+      <c r="C178" s="170" t="s">
+        <v>23</v>
+      </c>
+      <c r="D178" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E178" s="237">
+        <v>3700</v>
+      </c>
+      <c r="F178" s="236">
+        <v>46920</v>
+      </c>
+      <c r="G178" s="236">
+        <v>25810</v>
+      </c>
+      <c r="H178" s="239">
+        <v>8280</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A179" s="292"/>
+      <c r="B179" s="236" t="s">
+        <v>2354</v>
+      </c>
+      <c r="C179" s="170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D179" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E179" s="237">
+        <v>3700</v>
+      </c>
+      <c r="F179" s="236">
+        <v>40290</v>
+      </c>
+      <c r="G179" s="236">
+        <v>22160</v>
+      </c>
+      <c r="H179" s="239">
+        <v>7110</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A180" s="292"/>
+      <c r="B180" s="236" t="s">
+        <v>2354</v>
+      </c>
+      <c r="C180" s="170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D180" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E180" s="237">
+        <v>3700</v>
+      </c>
+      <c r="F180" s="236">
+        <v>34450</v>
+      </c>
+      <c r="G180" s="236">
+        <v>18950</v>
+      </c>
+      <c r="H180" s="239">
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="293"/>
+      <c r="B181" s="240" t="s">
+        <v>2354</v>
+      </c>
+      <c r="C181" s="173" t="s">
+        <v>29</v>
+      </c>
+      <c r="D181" s="240" t="s">
+        <v>79</v>
+      </c>
+      <c r="E181" s="241">
+        <v>3700</v>
+      </c>
+      <c r="F181" s="240">
+        <v>31450</v>
+      </c>
+      <c r="G181" s="240">
+        <v>17298</v>
+      </c>
+      <c r="H181" s="243">
+        <v>5550</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A182" s="291" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B182" s="232" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C182" s="167" t="s">
+        <v>23</v>
+      </c>
+      <c r="D182" s="232" t="s">
+        <v>79</v>
+      </c>
+      <c r="E182" s="244">
+        <v>1600</v>
+      </c>
+      <c r="F182" s="233">
+        <v>17582</v>
+      </c>
+      <c r="G182" s="233">
+        <v>9670</v>
+      </c>
+      <c r="H182" s="199">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A183" s="294"/>
+      <c r="B183" s="236" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C183" s="170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D183" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E183" s="237">
+        <v>1600</v>
+      </c>
+      <c r="F183" s="237">
+        <v>15629</v>
+      </c>
+      <c r="G183" s="237">
+        <v>8596</v>
+      </c>
+      <c r="H183" s="200">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A184" s="294"/>
+      <c r="B184" s="236" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C184" s="170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D184" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E184" s="237">
+        <v>1600</v>
+      </c>
+      <c r="F184" s="237">
+        <v>13675</v>
+      </c>
+      <c r="G184" s="237">
+        <v>7521</v>
+      </c>
+      <c r="H184" s="200">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A185" s="294"/>
+      <c r="B185" s="236" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C185" s="170" t="s">
+        <v>23</v>
+      </c>
+      <c r="D185" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E185" s="237">
+        <v>1760</v>
+      </c>
+      <c r="F185" s="237">
+        <v>17582</v>
+      </c>
+      <c r="G185" s="237">
+        <v>9670</v>
+      </c>
+      <c r="H185" s="200">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A186" s="294"/>
+      <c r="B186" s="236" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C186" s="170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D186" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E186" s="237">
+        <v>1760</v>
+      </c>
+      <c r="F186" s="237">
+        <v>15629</v>
+      </c>
+      <c r="G186" s="237">
+        <v>8596</v>
+      </c>
+      <c r="H186" s="200">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A187" s="294"/>
+      <c r="B187" s="236" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C187" s="170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D187" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E187" s="237">
+        <v>1760</v>
+      </c>
+      <c r="F187" s="237">
+        <v>13675</v>
+      </c>
+      <c r="G187" s="237">
+        <v>7521</v>
+      </c>
+      <c r="H187" s="200">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A188" s="294"/>
+      <c r="B188" s="236" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C188" s="170" t="s">
+        <v>23</v>
+      </c>
+      <c r="D188" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E188" s="237">
+        <v>1540</v>
+      </c>
+      <c r="F188" s="237">
+        <v>17582</v>
+      </c>
+      <c r="G188" s="237">
+        <v>9670</v>
+      </c>
+      <c r="H188" s="200">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A189" s="294"/>
+      <c r="B189" s="236" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C189" s="170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D189" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E189" s="237">
+        <v>1540</v>
+      </c>
+      <c r="F189" s="237">
+        <v>15629</v>
+      </c>
+      <c r="G189" s="237">
+        <v>8596</v>
+      </c>
+      <c r="H189" s="200">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="295"/>
+      <c r="B190" s="240" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C190" s="173" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" s="240" t="s">
+        <v>79</v>
+      </c>
+      <c r="E190" s="241">
+        <v>1540</v>
+      </c>
+      <c r="F190" s="241">
+        <v>13675</v>
+      </c>
+      <c r="G190" s="241">
+        <v>7521</v>
+      </c>
+      <c r="H190" s="201">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A191" s="291" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B191" s="232" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C191" s="167" t="s">
+        <v>23</v>
+      </c>
+      <c r="D191" s="232" t="s">
+        <v>79</v>
+      </c>
+      <c r="E191" s="233">
+        <v>2700</v>
+      </c>
+      <c r="F191" s="232">
+        <v>25475</v>
+      </c>
+      <c r="G191" s="232">
+        <v>14011</v>
+      </c>
+      <c r="H191" s="235">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A192" s="294"/>
+      <c r="B192" s="236" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C192" s="170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D192" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E192" s="237">
+        <v>2700</v>
+      </c>
+      <c r="F192" s="236">
+        <v>23588</v>
+      </c>
+      <c r="G192" s="236">
+        <v>12973</v>
+      </c>
+      <c r="H192" s="239">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A193" s="294"/>
+      <c r="B193" s="236" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C193" s="170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E193" s="237">
+        <v>2700</v>
+      </c>
+      <c r="F193" s="236">
+        <v>21701</v>
+      </c>
+      <c r="G193" s="236">
+        <v>11935</v>
+      </c>
+      <c r="H193" s="239">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A194" s="294"/>
+      <c r="B194" s="236" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C194" s="170" t="s">
+        <v>29</v>
+      </c>
+      <c r="D194" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E194" s="237">
+        <v>2700</v>
+      </c>
+      <c r="F194" s="236">
+        <v>19814</v>
+      </c>
+      <c r="G194" s="236">
+        <v>10897</v>
+      </c>
+      <c r="H194" s="239">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="294"/>
+      <c r="B195" s="236" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C195" s="170" t="s">
+        <v>23</v>
+      </c>
+      <c r="D195" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E195" s="237">
+        <v>2300</v>
+      </c>
+      <c r="F195" s="236">
+        <v>25475</v>
+      </c>
+      <c r="G195" s="236">
+        <v>14011</v>
+      </c>
+      <c r="H195" s="239">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="294"/>
+      <c r="B196" s="236" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C196" s="170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D196" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E196" s="237">
+        <v>2300</v>
+      </c>
+      <c r="F196" s="236">
+        <v>23588</v>
+      </c>
+      <c r="G196" s="236">
+        <v>12973</v>
+      </c>
+      <c r="H196" s="239">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="294"/>
+      <c r="B197" s="236" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C197" s="170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E197" s="237">
+        <v>2300</v>
+      </c>
+      <c r="F197" s="236">
+        <v>21701</v>
+      </c>
+      <c r="G197" s="236">
+        <v>11935</v>
+      </c>
+      <c r="H197" s="239">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="295"/>
+      <c r="B198" s="240" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C198" s="173" t="s">
+        <v>29</v>
+      </c>
+      <c r="D198" s="240" t="s">
+        <v>79</v>
+      </c>
+      <c r="E198" s="241">
+        <v>2300</v>
+      </c>
+      <c r="F198" s="240">
+        <v>19814</v>
+      </c>
+      <c r="G198" s="240">
+        <v>10897</v>
+      </c>
+      <c r="H198" s="243">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A199" s="291" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B199" s="245" t="s">
+        <v>2360</v>
+      </c>
+      <c r="C199" s="167" t="s">
+        <v>23</v>
+      </c>
+      <c r="D199" s="232" t="s">
+        <v>79</v>
+      </c>
+      <c r="E199" s="233">
+        <v>3000</v>
+      </c>
+      <c r="F199" s="233">
+        <v>25475</v>
+      </c>
+      <c r="G199" s="233">
+        <v>14011</v>
+      </c>
+      <c r="H199" s="199">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A200" s="292"/>
+      <c r="B200" s="246" t="s">
+        <v>2360</v>
+      </c>
+      <c r="C200" s="170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D200" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E200" s="237">
+        <v>3000</v>
+      </c>
+      <c r="F200" s="237">
+        <v>23588</v>
+      </c>
+      <c r="G200" s="237">
+        <v>12973</v>
+      </c>
+      <c r="H200" s="200">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A201" s="292"/>
+      <c r="B201" s="246" t="s">
+        <v>2360</v>
+      </c>
+      <c r="C201" s="170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E201" s="237">
+        <v>3000</v>
+      </c>
+      <c r="F201" s="237">
+        <v>21701</v>
+      </c>
+      <c r="G201" s="237">
+        <v>11935</v>
+      </c>
+      <c r="H201" s="200">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A202" s="292"/>
+      <c r="B202" s="246" t="s">
+        <v>2360</v>
+      </c>
+      <c r="C202" s="170" t="s">
+        <v>29</v>
+      </c>
+      <c r="D202" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E202" s="237">
+        <v>3000</v>
+      </c>
+      <c r="F202" s="237">
+        <v>19814</v>
+      </c>
+      <c r="G202" s="237">
+        <v>10897</v>
+      </c>
+      <c r="H202" s="200">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A203" s="292"/>
+      <c r="B203" s="246" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C203" s="170" t="s">
+        <v>23</v>
+      </c>
+      <c r="D203" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E203" s="237">
+        <v>2800</v>
+      </c>
+      <c r="F203" s="237">
+        <v>25475</v>
+      </c>
+      <c r="G203" s="237">
+        <v>14011</v>
+      </c>
+      <c r="H203" s="200">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A204" s="292"/>
+      <c r="B204" s="246" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C204" s="170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D204" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E204" s="237">
+        <v>2800</v>
+      </c>
+      <c r="F204" s="237">
+        <v>23588</v>
+      </c>
+      <c r="G204" s="237">
+        <v>12973</v>
+      </c>
+      <c r="H204" s="200">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A205" s="292"/>
+      <c r="B205" s="246" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C205" s="170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E205" s="237">
+        <v>2800</v>
+      </c>
+      <c r="F205" s="237">
+        <v>21701</v>
+      </c>
+      <c r="G205" s="237">
+        <v>11935</v>
+      </c>
+      <c r="H205" s="200">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A206" s="292"/>
+      <c r="B206" s="246" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C206" s="170" t="s">
+        <v>29</v>
+      </c>
+      <c r="D206" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E206" s="237">
+        <v>2800</v>
+      </c>
+      <c r="F206" s="237">
+        <v>19814</v>
+      </c>
+      <c r="G206" s="237">
+        <v>10897</v>
+      </c>
+      <c r="H206" s="200">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A207" s="292"/>
+      <c r="B207" s="246" t="s">
+        <v>2362</v>
+      </c>
+      <c r="C207" s="170" t="s">
+        <v>23</v>
+      </c>
+      <c r="D207" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E207" s="237">
+        <v>2400</v>
+      </c>
+      <c r="F207" s="237">
+        <v>25475</v>
+      </c>
+      <c r="G207" s="237">
+        <v>14011</v>
+      </c>
+      <c r="H207" s="200">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A208" s="292"/>
+      <c r="B208" s="246" t="s">
+        <v>2362</v>
+      </c>
+      <c r="C208" s="170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D208" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E208" s="237">
+        <v>2400</v>
+      </c>
+      <c r="F208" s="237">
+        <v>23588</v>
+      </c>
+      <c r="G208" s="237">
+        <v>12973</v>
+      </c>
+      <c r="H208" s="200">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A209" s="292"/>
+      <c r="B209" s="246" t="s">
+        <v>2362</v>
+      </c>
+      <c r="C209" s="170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E209" s="237">
+        <v>2400</v>
+      </c>
+      <c r="F209" s="237">
+        <v>21701</v>
+      </c>
+      <c r="G209" s="237">
+        <v>11935</v>
+      </c>
+      <c r="H209" s="200">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="293"/>
+      <c r="B210" s="247" t="s">
+        <v>2362</v>
+      </c>
+      <c r="C210" s="173" t="s">
+        <v>29</v>
+      </c>
+      <c r="D210" s="240" t="s">
+        <v>79</v>
+      </c>
+      <c r="E210" s="241">
+        <v>2400</v>
+      </c>
+      <c r="F210" s="241">
+        <v>19814</v>
+      </c>
+      <c r="G210" s="241">
+        <v>10897</v>
+      </c>
+      <c r="H210" s="201">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A211" s="291" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B211" s="232" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C211" s="167" t="s">
+        <v>23</v>
+      </c>
+      <c r="D211" s="232" t="s">
+        <v>79</v>
+      </c>
+      <c r="E211" s="233">
+        <v>1650</v>
+      </c>
+      <c r="F211" s="233">
+        <v>17582</v>
+      </c>
+      <c r="G211" s="233">
+        <v>9670</v>
+      </c>
+      <c r="H211" s="199">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A212" s="294"/>
+      <c r="B212" s="236" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C212" s="170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D212" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E212" s="237">
+        <v>1650</v>
+      </c>
+      <c r="F212" s="237">
+        <v>15629</v>
+      </c>
+      <c r="G212" s="237">
+        <v>8596</v>
+      </c>
+      <c r="H212" s="200">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A213" s="294"/>
+      <c r="B213" s="236" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C213" s="170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E213" s="237">
+        <v>1650</v>
+      </c>
+      <c r="F213" s="237">
+        <v>13675</v>
+      </c>
+      <c r="G213" s="237">
+        <v>7521</v>
+      </c>
+      <c r="H213" s="200">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A214" s="294"/>
+      <c r="B214" s="236" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C214" s="170" t="s">
+        <v>23</v>
+      </c>
+      <c r="D214" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E214" s="237">
+        <v>1550</v>
+      </c>
+      <c r="F214" s="237">
+        <v>17582</v>
+      </c>
+      <c r="G214" s="237">
+        <v>9670</v>
+      </c>
+      <c r="H214" s="200">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A215" s="294"/>
+      <c r="B215" s="236" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C215" s="170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D215" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E215" s="237">
+        <v>1550</v>
+      </c>
+      <c r="F215" s="237">
+        <v>15629</v>
+      </c>
+      <c r="G215" s="237">
+        <v>8596</v>
+      </c>
+      <c r="H215" s="200">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A216" s="294"/>
+      <c r="B216" s="236" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C216" s="170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E216" s="237">
+        <v>1550</v>
+      </c>
+      <c r="F216" s="237">
+        <v>13675</v>
+      </c>
+      <c r="G216" s="237">
+        <v>7521</v>
+      </c>
+      <c r="H216" s="200">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A217" s="294"/>
+      <c r="B217" s="236" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C217" s="170" t="s">
+        <v>23</v>
+      </c>
+      <c r="D217" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E217" s="237">
+        <v>1450</v>
+      </c>
+      <c r="F217" s="237">
+        <v>17582</v>
+      </c>
+      <c r="G217" s="237">
+        <v>9670</v>
+      </c>
+      <c r="H217" s="200">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A218" s="294"/>
+      <c r="B218" s="236" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C218" s="170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D218" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E218" s="237">
+        <v>1450</v>
+      </c>
+      <c r="F218" s="237">
+        <v>15629</v>
+      </c>
+      <c r="G218" s="237">
+        <v>8596</v>
+      </c>
+      <c r="H218" s="200">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="295"/>
+      <c r="B219" s="240" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C219" s="173" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" s="240" t="s">
+        <v>79</v>
+      </c>
+      <c r="E219" s="241">
+        <v>1450</v>
+      </c>
+      <c r="F219" s="241">
+        <v>13675</v>
+      </c>
+      <c r="G219" s="241">
+        <v>7521</v>
+      </c>
+      <c r="H219" s="201">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A220" s="296" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B220" s="232" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C220" s="167" t="s">
+        <v>23</v>
+      </c>
+      <c r="D220" s="232" t="s">
+        <v>79</v>
+      </c>
+      <c r="E220" s="233">
+        <v>1400</v>
+      </c>
+      <c r="F220" s="233">
+        <v>11340</v>
+      </c>
+      <c r="G220" s="233">
+        <v>7090</v>
+      </c>
+      <c r="H220" s="199">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A221" s="294"/>
+      <c r="B221" s="236" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C221" s="170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D221" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E221" s="237">
+        <v>1400</v>
+      </c>
+      <c r="F221" s="237">
+        <v>10800</v>
+      </c>
+      <c r="G221" s="237">
+        <v>6750</v>
+      </c>
+      <c r="H221" s="200">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A222" s="294"/>
+      <c r="B222" s="236" t="s">
+        <v>2364</v>
+      </c>
+      <c r="C222" s="170" t="s">
+        <v>23</v>
+      </c>
+      <c r="D222" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E222" s="237">
+        <v>1200</v>
+      </c>
+      <c r="F222" s="237">
+        <v>11340</v>
+      </c>
+      <c r="G222" s="237">
+        <v>7090</v>
+      </c>
+      <c r="H222" s="200">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="295"/>
+      <c r="B223" s="240" t="s">
+        <v>2364</v>
+      </c>
+      <c r="C223" s="173" t="s">
+        <v>27</v>
+      </c>
+      <c r="D223" s="240" t="s">
+        <v>79</v>
+      </c>
+      <c r="E223" s="241">
+        <v>1200</v>
+      </c>
+      <c r="F223" s="241">
+        <v>10800</v>
+      </c>
+      <c r="G223" s="241">
+        <v>6750</v>
+      </c>
+      <c r="H223" s="201">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A224" s="291" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B224" s="232" t="s">
+        <v>2365</v>
+      </c>
+      <c r="C224" s="167" t="s">
+        <v>23</v>
+      </c>
+      <c r="D224" s="232" t="s">
+        <v>79</v>
+      </c>
+      <c r="E224" s="233">
+        <v>1850</v>
+      </c>
+      <c r="F224" s="233">
+        <v>16720</v>
+      </c>
+      <c r="G224" s="234" t="s">
+        <v>25</v>
+      </c>
+      <c r="H224" s="235">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A225" s="294"/>
+      <c r="B225" s="236" t="s">
+        <v>2365</v>
+      </c>
+      <c r="C225" s="170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D225" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E225" s="237">
+        <v>1850</v>
+      </c>
+      <c r="F225" s="237">
+        <v>14960</v>
+      </c>
+      <c r="G225" s="238" t="s">
+        <v>25</v>
+      </c>
+      <c r="H225" s="239">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A226" s="294"/>
+      <c r="B226" s="236" t="s">
+        <v>2366</v>
+      </c>
+      <c r="C226" s="170" t="s">
+        <v>23</v>
+      </c>
+      <c r="D226" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E226" s="237">
+        <v>1750</v>
+      </c>
+      <c r="F226" s="237">
+        <v>16720</v>
+      </c>
+      <c r="G226" s="238" t="s">
+        <v>25</v>
+      </c>
+      <c r="H226" s="239">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A227" s="294"/>
+      <c r="B227" s="236" t="s">
+        <v>2366</v>
+      </c>
+      <c r="C227" s="170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D227" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E227" s="237">
+        <v>1750</v>
+      </c>
+      <c r="F227" s="237">
+        <v>14960</v>
+      </c>
+      <c r="G227" s="238" t="s">
+        <v>25</v>
+      </c>
+      <c r="H227" s="239">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A228" s="294"/>
+      <c r="B228" s="236" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C228" s="170" t="s">
+        <v>23</v>
+      </c>
+      <c r="D228" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="E228" s="237">
+        <v>1650</v>
+      </c>
+      <c r="F228" s="237">
+        <v>16720</v>
+      </c>
+      <c r="G228" s="238" t="s">
+        <v>25</v>
+      </c>
+      <c r="H228" s="239">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="295"/>
+      <c r="B229" s="240" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C229" s="173" t="s">
+        <v>27</v>
+      </c>
+      <c r="D229" s="240" t="s">
+        <v>79</v>
+      </c>
+      <c r="E229" s="241">
+        <v>1650</v>
+      </c>
+      <c r="F229" s="241">
+        <v>14960</v>
+      </c>
+      <c r="G229" s="242" t="s">
+        <v>25</v>
+      </c>
+      <c r="H229" s="243">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A230" s="282" t="s">
+        <v>109</v>
+      </c>
+      <c r="B230" s="232" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C230" s="248" t="s">
+        <v>23</v>
+      </c>
+      <c r="D230" s="248" t="s">
+        <v>24</v>
+      </c>
+      <c r="E230" s="248" t="s">
+        <v>2368</v>
+      </c>
+      <c r="F230" s="248">
+        <v>35700</v>
+      </c>
+      <c r="G230" s="248">
+        <v>23205</v>
+      </c>
+      <c r="H230" s="249" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A231" s="283"/>
+      <c r="B231" s="236" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C231" s="250" t="s">
+        <v>27</v>
+      </c>
+      <c r="D231" s="250" t="s">
+        <v>24</v>
+      </c>
+      <c r="E231" s="250" t="s">
+        <v>2368</v>
+      </c>
+      <c r="F231" s="250">
+        <v>32300</v>
+      </c>
+      <c r="G231" s="250">
+        <v>20995</v>
+      </c>
+      <c r="H231" s="251" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A232" s="283"/>
+      <c r="B232" s="236" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C232" s="250" t="s">
+        <v>28</v>
+      </c>
+      <c r="D232" s="250" t="s">
+        <v>24</v>
+      </c>
+      <c r="E232" s="250" t="s">
+        <v>2368</v>
+      </c>
+      <c r="F232" s="250">
+        <v>29750</v>
+      </c>
+      <c r="G232" s="250">
+        <v>19335</v>
+      </c>
+      <c r="H232" s="251" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A233" s="283"/>
+      <c r="B233" s="236" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C233" s="250" t="s">
+        <v>23</v>
+      </c>
+      <c r="D233" s="250" t="s">
+        <v>24</v>
+      </c>
+      <c r="E233" s="250" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F233" s="250">
+        <v>35700</v>
+      </c>
+      <c r="G233" s="250">
+        <v>23205</v>
+      </c>
+      <c r="H233" s="251" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A234" s="283"/>
+      <c r="B234" s="236" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C234" s="250" t="s">
+        <v>27</v>
+      </c>
+      <c r="D234" s="250" t="s">
+        <v>24</v>
+      </c>
+      <c r="E234" s="250" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F234" s="250">
+        <v>32300</v>
+      </c>
+      <c r="G234" s="250">
+        <v>20995</v>
+      </c>
+      <c r="H234" s="251" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A235" s="283"/>
+      <c r="B235" s="236" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C235" s="250" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" s="250" t="s">
+        <v>24</v>
+      </c>
+      <c r="E235" s="250" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F235" s="250">
+        <v>29750</v>
+      </c>
+      <c r="G235" s="250">
+        <v>19335</v>
+      </c>
+      <c r="H235" s="251" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A236" s="283"/>
+      <c r="B236" s="236" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C236" s="250" t="s">
+        <v>23</v>
+      </c>
+      <c r="D236" s="250" t="s">
+        <v>24</v>
+      </c>
+      <c r="E236" s="250" t="s">
+        <v>2370</v>
+      </c>
+      <c r="F236" s="250">
+        <v>35700</v>
+      </c>
+      <c r="G236" s="250">
+        <v>23205</v>
+      </c>
+      <c r="H236" s="251" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A237" s="283"/>
+      <c r="B237" s="236" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C237" s="250" t="s">
+        <v>27</v>
+      </c>
+      <c r="D237" s="250" t="s">
+        <v>24</v>
+      </c>
+      <c r="E237" s="250" t="s">
+        <v>2370</v>
+      </c>
+      <c r="F237" s="250">
+        <v>32300</v>
+      </c>
+      <c r="G237" s="250">
+        <v>20995</v>
+      </c>
+      <c r="H237" s="251" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="284"/>
+      <c r="B238" s="240" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C238" s="252" t="s">
+        <v>28</v>
+      </c>
+      <c r="D238" s="252" t="s">
+        <v>24</v>
+      </c>
+      <c r="E238" s="252" t="s">
+        <v>2370</v>
+      </c>
+      <c r="F238" s="252">
+        <v>29750</v>
+      </c>
+      <c r="G238" s="252">
+        <v>19335</v>
+      </c>
+      <c r="H238" s="253" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A239" s="282" t="s">
+        <v>106</v>
+      </c>
+      <c r="B239" s="254" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C239" s="248" t="s">
+        <v>23</v>
+      </c>
+      <c r="D239" s="248" t="s">
+        <v>24</v>
+      </c>
+      <c r="E239" s="248" t="s">
+        <v>2370</v>
+      </c>
+      <c r="F239" s="248">
+        <v>29750</v>
+      </c>
+      <c r="G239" s="248" t="s">
+        <v>2239</v>
+      </c>
+      <c r="H239" s="249" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A240" s="283"/>
+      <c r="B240" s="255" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C240" s="250" t="s">
+        <v>27</v>
+      </c>
+      <c r="D240" s="250" t="s">
+        <v>24</v>
+      </c>
+      <c r="E240" s="250" t="s">
+        <v>2370</v>
+      </c>
+      <c r="F240" s="250">
+        <v>27200</v>
+      </c>
+      <c r="G240" s="250">
+        <v>17680</v>
+      </c>
+      <c r="H240" s="251" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A241" s="283"/>
+      <c r="B241" s="255" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C241" s="250" t="s">
+        <v>28</v>
+      </c>
+      <c r="D241" s="250" t="s">
+        <v>24</v>
+      </c>
+      <c r="E241" s="250" t="s">
+        <v>2370</v>
+      </c>
+      <c r="F241" s="250">
+        <v>23800</v>
+      </c>
+      <c r="G241" s="250">
+        <v>15470</v>
+      </c>
+      <c r="H241" s="251" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A242" s="283"/>
+      <c r="B242" s="255" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C242" s="250" t="s">
+        <v>23</v>
+      </c>
+      <c r="D242" s="250" t="s">
+        <v>24</v>
+      </c>
+      <c r="E242" s="250" t="s">
+        <v>2371</v>
+      </c>
+      <c r="F242" s="250">
+        <v>29750</v>
+      </c>
+      <c r="G242" s="250">
+        <v>19335</v>
+      </c>
+      <c r="H242" s="251" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A243" s="283"/>
+      <c r="B243" s="255" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C243" s="250" t="s">
+        <v>27</v>
+      </c>
+      <c r="D243" s="250" t="s">
+        <v>24</v>
+      </c>
+      <c r="E243" s="250" t="s">
+        <v>2371</v>
+      </c>
+      <c r="F243" s="250">
+        <v>27200</v>
+      </c>
+      <c r="G243" s="250">
+        <v>17680</v>
+      </c>
+      <c r="H243" s="251" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A244" s="283"/>
+      <c r="B244" s="255" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C244" s="250" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" s="250" t="s">
+        <v>24</v>
+      </c>
+      <c r="E244" s="250" t="s">
+        <v>2371</v>
+      </c>
+      <c r="F244" s="250">
+        <v>23800</v>
+      </c>
+      <c r="G244" s="250">
+        <v>15470</v>
+      </c>
+      <c r="H244" s="251" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A245" s="283"/>
+      <c r="B245" s="255" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C245" s="250" t="s">
+        <v>23</v>
+      </c>
+      <c r="D245" s="250" t="s">
+        <v>24</v>
+      </c>
+      <c r="E245" s="250" t="s">
+        <v>2372</v>
+      </c>
+      <c r="F245" s="250">
+        <v>29750</v>
+      </c>
+      <c r="G245" s="250">
+        <v>19335</v>
+      </c>
+      <c r="H245" s="251" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A246" s="283"/>
+      <c r="B246" s="255" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C246" s="250" t="s">
+        <v>27</v>
+      </c>
+      <c r="D246" s="250" t="s">
+        <v>24</v>
+      </c>
+      <c r="E246" s="250" t="s">
+        <v>2372</v>
+      </c>
+      <c r="F246" s="250">
+        <v>27200</v>
+      </c>
+      <c r="G246" s="250">
+        <v>17680</v>
+      </c>
+      <c r="H246" s="251" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="284"/>
+      <c r="B247" s="256" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C247" s="252" t="s">
+        <v>28</v>
+      </c>
+      <c r="D247" s="252" t="s">
+        <v>24</v>
+      </c>
+      <c r="E247" s="252" t="s">
+        <v>2372</v>
+      </c>
+      <c r="F247" s="252">
+        <v>23800</v>
+      </c>
+      <c r="G247" s="252">
+        <v>15470</v>
+      </c>
+      <c r="H247" s="253" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="282" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B248" s="254" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C248" s="248" t="s">
+        <v>23</v>
+      </c>
+      <c r="D248" s="248" t="s">
+        <v>24</v>
+      </c>
+      <c r="E248" s="248" t="s">
+        <v>2374</v>
+      </c>
+      <c r="F248" s="248" t="s">
+        <v>2375</v>
+      </c>
+      <c r="G248" s="248" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H248" s="249" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="284"/>
+      <c r="B249" s="256" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C249" s="252" t="s">
+        <v>27</v>
+      </c>
+      <c r="D249" s="252" t="s">
+        <v>24</v>
+      </c>
+      <c r="E249" s="252" t="s">
+        <v>2374</v>
+      </c>
+      <c r="F249" s="252" t="s">
+        <v>2377</v>
+      </c>
+      <c r="G249" s="252" t="s">
+        <v>2378</v>
+      </c>
+      <c r="H249" s="253" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A250" s="285" t="s">
+        <v>104</v>
+      </c>
+      <c r="B250" s="254" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C250" s="248" t="s">
+        <v>23</v>
+      </c>
+      <c r="D250" s="248" t="s">
+        <v>24</v>
+      </c>
+      <c r="E250" s="257">
+        <v>1850</v>
+      </c>
+      <c r="F250" s="257">
+        <v>16720</v>
+      </c>
+      <c r="G250" s="258">
+        <v>10870</v>
+      </c>
+      <c r="H250" s="259">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A251" s="286"/>
+      <c r="B251" s="255" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C251" s="250" t="s">
+        <v>27</v>
+      </c>
+      <c r="D251" s="250" t="s">
+        <v>24</v>
+      </c>
+      <c r="E251" s="260">
+        <v>1850</v>
+      </c>
+      <c r="F251" s="260">
+        <v>14960</v>
+      </c>
+      <c r="G251" s="261">
+        <v>9725</v>
+      </c>
+      <c r="H251" s="262">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A252" s="286"/>
+      <c r="B252" s="255" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C252" s="250" t="s">
+        <v>28</v>
+      </c>
+      <c r="D252" s="250" t="s">
+        <v>24</v>
+      </c>
+      <c r="E252" s="260">
+        <v>1850</v>
+      </c>
+      <c r="F252" s="260">
+        <v>13200</v>
+      </c>
+      <c r="G252" s="261">
+        <v>8580</v>
+      </c>
+      <c r="H252" s="262">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A253" s="286"/>
+      <c r="B253" s="255" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C253" s="250" t="s">
+        <v>23</v>
+      </c>
+      <c r="D253" s="250" t="s">
+        <v>24</v>
+      </c>
+      <c r="E253" s="260">
+        <v>1750</v>
+      </c>
+      <c r="F253" s="260">
+        <v>16720</v>
+      </c>
+      <c r="G253" s="261">
+        <v>10870</v>
+      </c>
+      <c r="H253" s="262">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A254" s="286"/>
+      <c r="B254" s="255" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C254" s="250" t="s">
+        <v>27</v>
+      </c>
+      <c r="D254" s="250" t="s">
+        <v>24</v>
+      </c>
+      <c r="E254" s="260">
+        <v>1750</v>
+      </c>
+      <c r="F254" s="260">
+        <v>14960</v>
+      </c>
+      <c r="G254" s="261">
+        <v>9725</v>
+      </c>
+      <c r="H254" s="262">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A255" s="286"/>
+      <c r="B255" s="255" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C255" s="250" t="s">
+        <v>28</v>
+      </c>
+      <c r="D255" s="250" t="s">
+        <v>24</v>
+      </c>
+      <c r="E255" s="260">
+        <v>1750</v>
+      </c>
+      <c r="F255" s="260">
+        <v>13200</v>
+      </c>
+      <c r="G255" s="261">
+        <v>8580</v>
+      </c>
+      <c r="H255" s="262">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A256" s="286"/>
+      <c r="B256" s="255" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C256" s="250" t="s">
+        <v>23</v>
+      </c>
+      <c r="D256" s="250" t="s">
+        <v>24</v>
+      </c>
+      <c r="E256" s="260">
+        <v>1650</v>
+      </c>
+      <c r="F256" s="260">
+        <v>16720</v>
+      </c>
+      <c r="G256" s="261">
+        <v>10870</v>
+      </c>
+      <c r="H256" s="262">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A257" s="286"/>
+      <c r="B257" s="255" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C257" s="250" t="s">
+        <v>27</v>
+      </c>
+      <c r="D257" s="250" t="s">
+        <v>24</v>
+      </c>
+      <c r="E257" s="260">
+        <v>1650</v>
+      </c>
+      <c r="F257" s="260">
+        <v>14960</v>
+      </c>
+      <c r="G257" s="261">
+        <v>9725</v>
+      </c>
+      <c r="H257" s="262">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="287"/>
+      <c r="B258" s="256" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C258" s="252" t="s">
+        <v>28</v>
+      </c>
+      <c r="D258" s="252" t="s">
+        <v>24</v>
+      </c>
+      <c r="E258" s="263">
+        <v>1650</v>
+      </c>
+      <c r="F258" s="263">
+        <v>13200</v>
+      </c>
+      <c r="G258" s="264">
+        <v>8580</v>
+      </c>
+      <c r="H258" s="265">
+        <v>1800</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:M131" xr:uid="{B4D574EA-E516-4953-A923-0CCC6DF4424A}"/>
-  <mergeCells count="125">
+  <autoFilter ref="A3:M258" xr:uid="{B4D574EA-E516-4953-A923-0CCC6DF4424A}"/>
+  <mergeCells count="137">
     <mergeCell ref="B152:B154"/>
     <mergeCell ref="B155:B157"/>
     <mergeCell ref="A149:A157"/>
@@ -17676,6 +21290,18 @@
     <mergeCell ref="A74:A91"/>
     <mergeCell ref="B49:B56"/>
     <mergeCell ref="A41:A48"/>
+    <mergeCell ref="A239:A247"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="A250:A258"/>
+    <mergeCell ref="A162:A169"/>
+    <mergeCell ref="A170:A181"/>
+    <mergeCell ref="A182:A190"/>
+    <mergeCell ref="A191:A198"/>
+    <mergeCell ref="A199:A210"/>
+    <mergeCell ref="A211:A219"/>
+    <mergeCell ref="A220:A223"/>
+    <mergeCell ref="A224:A229"/>
+    <mergeCell ref="A230:A238"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A20" r:id="rId1" xr:uid="{63A9A583-FCEB-4029-8F6A-952B151ADC16}"/>
@@ -17709,10 +21335,22 @@
     <hyperlink ref="A147" r:id="rId18" xr:uid="{5033CB42-A922-4BB8-ABE3-7932A2092A60}"/>
     <hyperlink ref="A149" r:id="rId19" xr:uid="{A510731F-6F9F-457F-8B4E-E5A9A304ACFB}"/>
     <hyperlink ref="A158" r:id="rId20" xr:uid="{238D4EF8-F31E-4EDC-81F5-F09E84526EB2}"/>
+    <hyperlink ref="A248" r:id="rId21" xr:uid="{0A177EEA-A223-446F-BFA3-1FEE9B9F06C3}"/>
+    <hyperlink ref="A230" r:id="rId22" xr:uid="{6A435899-7B79-4268-8D44-0706C782CC58}"/>
+    <hyperlink ref="A250:A258" r:id="rId23" display="RDFF1634973A" xr:uid="{4DB6D9C2-666A-44AE-9F4E-EE9A338BF69F}"/>
+    <hyperlink ref="A162:A169" r:id="rId24" display="MCCB1529548A" xr:uid="{9E071C2B-3139-4E65-9EEF-7A44CF0C5F8B}"/>
+    <hyperlink ref="A170" r:id="rId25" xr:uid="{FB32FD10-AAAA-48D2-BF94-3ED0319A47D3}"/>
+    <hyperlink ref="A182" r:id="rId26" xr:uid="{0C78B3FE-902C-4641-A1C8-73ACC82A1FD8}"/>
+    <hyperlink ref="A191" r:id="rId27" xr:uid="{B7CDB6A9-98FA-4AF8-A1B8-8C6DFC58F701}"/>
+    <hyperlink ref="A199" r:id="rId28" xr:uid="{E78BAF4F-0D6C-4609-BADB-DA71E4A9E6A6}"/>
+    <hyperlink ref="A211" r:id="rId29" xr:uid="{5C45814C-7FF6-47BF-910C-9F7198E5FE02}"/>
+    <hyperlink ref="A220" r:id="rId30" xr:uid="{BB5912F6-DFD5-48BA-BD1F-2C91A4213EEC}"/>
+    <hyperlink ref="A224" r:id="rId31" xr:uid="{A4F60119-8B5F-4971-8232-FB1BBBE2D304}"/>
+    <hyperlink ref="A239" r:id="rId32" xr:uid="{4EE40C9B-846A-4A56-9705-8728AF62EC31}"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="8" scale="73" fitToHeight="5" orientation="landscape" r:id="rId21"/>
-  <drawing r:id="rId22"/>
+  <pageSetup paperSize="8" scale="73" fitToHeight="5" orientation="landscape" r:id="rId33"/>
+  <drawing r:id="rId34"/>
 </worksheet>
 </file>
 
@@ -35056,40 +38694,40 @@
       <c r="A3" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="B3" s="332" t="s">
+      <c r="B3" s="412" t="s">
         <v>2180</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="241" t="s">
+      <c r="F3" s="324" t="s">
         <v>2181</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="241" t="s">
+      <c r="J3" s="324" t="s">
         <v>2182</v>
       </c>
-      <c r="K3" s="241">
+      <c r="K3" s="324">
         <v>1</v>
       </c>
       <c r="L3" s="10"/>
-      <c r="M3" s="337">
+      <c r="M3" s="417">
         <v>6000</v>
       </c>
-      <c r="N3" s="337">
+      <c r="N3" s="417">
         <v>115000</v>
       </c>
-      <c r="O3" s="337"/>
-      <c r="P3" s="337">
+      <c r="O3" s="417"/>
+      <c r="P3" s="417">
         <v>50000</v>
       </c>
-      <c r="Q3" s="350">
+      <c r="Q3" s="430">
         <v>44927</v>
       </c>
-      <c r="R3" s="241"/>
-      <c r="S3" s="340" t="s">
+      <c r="R3" s="324"/>
+      <c r="S3" s="420" t="s">
         <v>170</v>
       </c>
     </row>
@@ -35097,394 +38735,394 @@
       <c r="A4" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="B4" s="333"/>
+      <c r="B4" s="413"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="335"/>
+      <c r="F4" s="415"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="335"/>
-      <c r="K4" s="335"/>
+      <c r="J4" s="415"/>
+      <c r="K4" s="415"/>
       <c r="L4" s="11"/>
-      <c r="M4" s="338"/>
-      <c r="N4" s="338"/>
-      <c r="O4" s="338"/>
-      <c r="P4" s="338"/>
-      <c r="Q4" s="345"/>
-      <c r="R4" s="335"/>
-      <c r="S4" s="341"/>
+      <c r="M4" s="418"/>
+      <c r="N4" s="418"/>
+      <c r="O4" s="418"/>
+      <c r="P4" s="418"/>
+      <c r="Q4" s="425"/>
+      <c r="R4" s="415"/>
+      <c r="S4" s="421"/>
     </row>
     <row r="5" spans="1:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="B5" s="333"/>
+      <c r="B5" s="413"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="335"/>
+      <c r="F5" s="415"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="335"/>
-      <c r="K5" s="335"/>
+      <c r="J5" s="415"/>
+      <c r="K5" s="415"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="338"/>
-      <c r="N5" s="338"/>
-      <c r="O5" s="338"/>
-      <c r="P5" s="338"/>
-      <c r="Q5" s="345"/>
-      <c r="R5" s="335"/>
-      <c r="S5" s="341"/>
+      <c r="M5" s="418"/>
+      <c r="N5" s="418"/>
+      <c r="O5" s="418"/>
+      <c r="P5" s="418"/>
+      <c r="Q5" s="425"/>
+      <c r="R5" s="415"/>
+      <c r="S5" s="421"/>
     </row>
     <row r="6" spans="1:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="B6" s="334"/>
+      <c r="B6" s="414"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="336"/>
+      <c r="F6" s="416"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="336"/>
-      <c r="K6" s="336"/>
+      <c r="J6" s="416"/>
+      <c r="K6" s="416"/>
       <c r="L6" s="11"/>
-      <c r="M6" s="339"/>
-      <c r="N6" s="339"/>
-      <c r="O6" s="339"/>
-      <c r="P6" s="339"/>
-      <c r="Q6" s="346"/>
-      <c r="R6" s="336"/>
-      <c r="S6" s="341"/>
+      <c r="M6" s="419"/>
+      <c r="N6" s="419"/>
+      <c r="O6" s="419"/>
+      <c r="P6" s="419"/>
+      <c r="Q6" s="426"/>
+      <c r="R6" s="416"/>
+      <c r="S6" s="421"/>
     </row>
     <row r="7" spans="1:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="B7" s="351" t="s">
+      <c r="B7" s="431" t="s">
         <v>2183</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="347" t="s">
+      <c r="F7" s="427" t="s">
         <v>2181</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="347" t="s">
+      <c r="J7" s="427" t="s">
         <v>2182</v>
       </c>
-      <c r="K7" s="347">
+      <c r="K7" s="427">
         <v>2</v>
       </c>
       <c r="L7" s="11"/>
-      <c r="M7" s="343">
+      <c r="M7" s="423">
         <v>5600</v>
       </c>
-      <c r="N7" s="343">
+      <c r="N7" s="423">
         <v>101000</v>
       </c>
-      <c r="O7" s="343"/>
-      <c r="P7" s="343">
+      <c r="O7" s="423"/>
+      <c r="P7" s="423">
         <v>44000</v>
       </c>
-      <c r="Q7" s="344">
+      <c r="Q7" s="424">
         <v>44927</v>
       </c>
-      <c r="R7" s="347"/>
-      <c r="S7" s="341"/>
+      <c r="R7" s="427"/>
+      <c r="S7" s="421"/>
     </row>
     <row r="8" spans="1:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="B8" s="333"/>
+      <c r="B8" s="413"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="335"/>
+      <c r="F8" s="415"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="335"/>
-      <c r="K8" s="335"/>
+      <c r="J8" s="415"/>
+      <c r="K8" s="415"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="338"/>
-      <c r="N8" s="338"/>
-      <c r="O8" s="338"/>
-      <c r="P8" s="338"/>
-      <c r="Q8" s="345"/>
-      <c r="R8" s="335"/>
-      <c r="S8" s="341"/>
+      <c r="M8" s="418"/>
+      <c r="N8" s="418"/>
+      <c r="O8" s="418"/>
+      <c r="P8" s="418"/>
+      <c r="Q8" s="425"/>
+      <c r="R8" s="415"/>
+      <c r="S8" s="421"/>
     </row>
     <row r="9" spans="1:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="B9" s="333"/>
+      <c r="B9" s="413"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="335"/>
+      <c r="F9" s="415"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="335"/>
-      <c r="K9" s="335"/>
+      <c r="J9" s="415"/>
+      <c r="K9" s="415"/>
       <c r="L9" s="11"/>
-      <c r="M9" s="338"/>
-      <c r="N9" s="338"/>
-      <c r="O9" s="338"/>
-      <c r="P9" s="338"/>
-      <c r="Q9" s="345"/>
-      <c r="R9" s="335"/>
-      <c r="S9" s="341"/>
+      <c r="M9" s="418"/>
+      <c r="N9" s="418"/>
+      <c r="O9" s="418"/>
+      <c r="P9" s="418"/>
+      <c r="Q9" s="425"/>
+      <c r="R9" s="415"/>
+      <c r="S9" s="421"/>
     </row>
     <row r="10" spans="1:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="B10" s="334"/>
+      <c r="B10" s="414"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="336"/>
+      <c r="F10" s="416"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="336"/>
-      <c r="K10" s="336"/>
+      <c r="J10" s="416"/>
+      <c r="K10" s="416"/>
       <c r="L10" s="11"/>
-      <c r="M10" s="339"/>
-      <c r="N10" s="339"/>
-      <c r="O10" s="339"/>
-      <c r="P10" s="339"/>
-      <c r="Q10" s="346"/>
-      <c r="R10" s="336"/>
-      <c r="S10" s="341"/>
+      <c r="M10" s="419"/>
+      <c r="N10" s="419"/>
+      <c r="O10" s="419"/>
+      <c r="P10" s="419"/>
+      <c r="Q10" s="426"/>
+      <c r="R10" s="416"/>
+      <c r="S10" s="421"/>
     </row>
     <row r="11" spans="1:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="351" t="s">
+      <c r="B11" s="431" t="s">
         <v>707</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="347" t="s">
+      <c r="F11" s="427" t="s">
         <v>2181</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="347" t="s">
+      <c r="J11" s="427" t="s">
         <v>2182</v>
       </c>
-      <c r="K11" s="347">
+      <c r="K11" s="427">
         <v>3</v>
       </c>
       <c r="L11" s="11"/>
-      <c r="M11" s="343">
+      <c r="M11" s="423">
         <v>5250</v>
       </c>
-      <c r="N11" s="343">
+      <c r="N11" s="423">
         <v>77000</v>
       </c>
-      <c r="O11" s="343"/>
-      <c r="P11" s="343">
+      <c r="O11" s="423"/>
+      <c r="P11" s="423">
         <v>33000</v>
       </c>
-      <c r="Q11" s="344">
+      <c r="Q11" s="424">
         <v>44927</v>
       </c>
-      <c r="R11" s="347"/>
-      <c r="S11" s="341"/>
+      <c r="R11" s="427"/>
+      <c r="S11" s="421"/>
     </row>
     <row r="12" spans="1:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="B12" s="333"/>
+      <c r="B12" s="413"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="335"/>
+      <c r="F12" s="415"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="335"/>
-      <c r="K12" s="335"/>
+      <c r="J12" s="415"/>
+      <c r="K12" s="415"/>
       <c r="L12" s="11"/>
-      <c r="M12" s="338"/>
-      <c r="N12" s="338"/>
-      <c r="O12" s="338"/>
-      <c r="P12" s="338"/>
-      <c r="Q12" s="345"/>
-      <c r="R12" s="335"/>
-      <c r="S12" s="341"/>
+      <c r="M12" s="418"/>
+      <c r="N12" s="418"/>
+      <c r="O12" s="418"/>
+      <c r="P12" s="418"/>
+      <c r="Q12" s="425"/>
+      <c r="R12" s="415"/>
+      <c r="S12" s="421"/>
     </row>
     <row r="13" spans="1:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="B13" s="333"/>
+      <c r="B13" s="413"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="335"/>
+      <c r="F13" s="415"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="335"/>
-      <c r="K13" s="335"/>
+      <c r="J13" s="415"/>
+      <c r="K13" s="415"/>
       <c r="L13" s="11"/>
-      <c r="M13" s="338"/>
-      <c r="N13" s="338"/>
-      <c r="O13" s="338"/>
-      <c r="P13" s="338"/>
-      <c r="Q13" s="345"/>
-      <c r="R13" s="335"/>
-      <c r="S13" s="341"/>
+      <c r="M13" s="418"/>
+      <c r="N13" s="418"/>
+      <c r="O13" s="418"/>
+      <c r="P13" s="418"/>
+      <c r="Q13" s="425"/>
+      <c r="R13" s="415"/>
+      <c r="S13" s="421"/>
     </row>
     <row r="14" spans="1:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="B14" s="334"/>
+      <c r="B14" s="414"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="336"/>
+      <c r="F14" s="416"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="336"/>
-      <c r="K14" s="336"/>
+      <c r="J14" s="416"/>
+      <c r="K14" s="416"/>
       <c r="L14" s="11"/>
-      <c r="M14" s="339"/>
-      <c r="N14" s="339"/>
-      <c r="O14" s="339"/>
-      <c r="P14" s="339"/>
-      <c r="Q14" s="346"/>
-      <c r="R14" s="336"/>
-      <c r="S14" s="341"/>
+      <c r="M14" s="419"/>
+      <c r="N14" s="419"/>
+      <c r="O14" s="419"/>
+      <c r="P14" s="419"/>
+      <c r="Q14" s="426"/>
+      <c r="R14" s="416"/>
+      <c r="S14" s="421"/>
     </row>
     <row r="15" spans="1:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="B15" s="347" t="s">
+      <c r="B15" s="427" t="s">
         <v>722</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="347" t="s">
+      <c r="F15" s="427" t="s">
         <v>2181</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="347" t="s">
+      <c r="J15" s="427" t="s">
         <v>2182</v>
       </c>
-      <c r="K15" s="347">
+      <c r="K15" s="427">
         <v>4</v>
       </c>
       <c r="L15" s="11"/>
-      <c r="M15" s="343">
+      <c r="M15" s="423">
         <v>4750</v>
       </c>
-      <c r="N15" s="343">
+      <c r="N15" s="423">
         <v>63000</v>
       </c>
-      <c r="O15" s="343"/>
-      <c r="P15" s="343">
+      <c r="O15" s="423"/>
+      <c r="P15" s="423">
         <v>27000</v>
       </c>
-      <c r="Q15" s="344">
+      <c r="Q15" s="424">
         <v>44927</v>
       </c>
-      <c r="R15" s="347"/>
-      <c r="S15" s="341"/>
+      <c r="R15" s="427"/>
+      <c r="S15" s="421"/>
     </row>
     <row r="16" spans="1:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="B16" s="335"/>
+      <c r="B16" s="415"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="335"/>
+      <c r="F16" s="415"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="335"/>
-      <c r="K16" s="335"/>
+      <c r="J16" s="415"/>
+      <c r="K16" s="415"/>
       <c r="L16" s="11"/>
-      <c r="M16" s="338"/>
-      <c r="N16" s="338"/>
-      <c r="O16" s="338"/>
-      <c r="P16" s="338"/>
-      <c r="Q16" s="345"/>
-      <c r="R16" s="335"/>
-      <c r="S16" s="341"/>
+      <c r="M16" s="418"/>
+      <c r="N16" s="418"/>
+      <c r="O16" s="418"/>
+      <c r="P16" s="418"/>
+      <c r="Q16" s="425"/>
+      <c r="R16" s="415"/>
+      <c r="S16" s="421"/>
     </row>
     <row r="17" spans="1:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="B17" s="335"/>
+      <c r="B17" s="415"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="335"/>
+      <c r="F17" s="415"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="335"/>
-      <c r="K17" s="335"/>
+      <c r="J17" s="415"/>
+      <c r="K17" s="415"/>
       <c r="L17" s="11"/>
-      <c r="M17" s="338"/>
-      <c r="N17" s="338"/>
-      <c r="O17" s="338"/>
-      <c r="P17" s="338"/>
-      <c r="Q17" s="345"/>
-      <c r="R17" s="335"/>
-      <c r="S17" s="341"/>
+      <c r="M17" s="418"/>
+      <c r="N17" s="418"/>
+      <c r="O17" s="418"/>
+      <c r="P17" s="418"/>
+      <c r="Q17" s="425"/>
+      <c r="R17" s="415"/>
+      <c r="S17" s="421"/>
     </row>
     <row r="18" spans="1:19" s="1" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="B18" s="242"/>
+      <c r="B18" s="325"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="242"/>
+      <c r="F18" s="325"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="242"/>
-      <c r="K18" s="242"/>
+      <c r="J18" s="325"/>
+      <c r="K18" s="325"/>
       <c r="L18" s="12"/>
-      <c r="M18" s="348"/>
-      <c r="N18" s="348"/>
-      <c r="O18" s="348"/>
-      <c r="P18" s="348"/>
-      <c r="Q18" s="349"/>
-      <c r="R18" s="242"/>
-      <c r="S18" s="342"/>
+      <c r="M18" s="428"/>
+      <c r="N18" s="428"/>
+      <c r="O18" s="428"/>
+      <c r="P18" s="428"/>
+      <c r="Q18" s="429"/>
+      <c r="R18" s="325"/>
+      <c r="S18" s="422"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:S18" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
@@ -35558,7 +39196,7 @@
       <c r="D1" s="15"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="200" t="s">
+      <c r="A4" s="198" t="s">
         <v>2285</v>
       </c>
       <c r="B4" s="131" t="s">
@@ -35567,23 +39205,27 @@
       <c r="C4" s="132"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="200"/>
-      <c r="B5" s="131"/>
+      <c r="A5" s="198" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B5" s="131" t="s">
+        <v>2384</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="200"/>
+      <c r="A6" s="198"/>
       <c r="B6" s="131"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="200"/>
+      <c r="A7" s="198"/>
       <c r="B7" s="133"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="200"/>
+      <c r="A8" s="198"/>
       <c r="B8" s="133"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="200"/>
+      <c r="A9" s="198"/>
       <c r="B9" s="133"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">

--- a/Noyau RH FPE/4. REFERENTIEL DE PAYE/2. Barème RIFSEEP/Barème_RIFSEEP_2025.xlsx
+++ b/Noyau RH FPE/4. REFERENTIEL DE PAYE/2. Barème RIFSEEP/Barème_RIFSEEP_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\03-BARRI\REFERENTIELS\RDP\RIFSEEP\RIFSEEP_Nouveau format\Versions publiées sur le portail BARRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2F2907-291F-4B9D-8F7C-EF204BED4F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437C59D5-3CB9-4692-83D0-3D112BD8675C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-4290" windowWidth="25440" windowHeight="15270" tabRatio="799" xr2:uid="{4D1EF597-009E-4554-B873-B93708779636}"/>
+    <workbookView xWindow="-25320" yWindow="-4290" windowWidth="25440" windowHeight="15270" tabRatio="799" activeTab="2" xr2:uid="{4D1EF597-009E-4554-B873-B93708779636}"/>
   </bookViews>
   <sheets>
     <sheet name="SOMMAIRE" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Barèmes EF GEF par Niveaux'!$A$2:$S$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Barèmes réglementaires'!$A$3:$M$258</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Barèmes réglementaires'!$A$3:$M$290</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Liste des arrêtés d''adhésion'!$A$4:$G$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Liste EF GEF - réforme HFP'!$A$2:$F$862</definedName>
     <definedName name="Adjoint_administratif__ex_1°_et_2°_classe">#REF!</definedName>
@@ -263,6 +263,10 @@
     <definedName name="Conseiller_tehnique_supérieur_SS">#REF!</definedName>
     <definedName name="CPAF1936225A">'Barèmes réglementaires'!$A$29</definedName>
     <definedName name="CPAF1936226A">'Barèmes réglementaires'!$A$41</definedName>
+    <definedName name="DEFH1524346A">'Barèmes réglementaires'!$A$259</definedName>
+    <definedName name="DEFH1632583A">'Barèmes réglementaires'!$A$273</definedName>
+    <definedName name="DEFH1632584A">'Barèmes réglementaires'!$A$264</definedName>
+    <definedName name="DEFH1634573A">'Barèmes réglementaires'!$A$282</definedName>
     <definedName name="directeur_de_projet" localSheetId="1">#REF!</definedName>
     <definedName name="directeur_de_projet" localSheetId="5">#REF!</definedName>
     <definedName name="directeur_de_projet" localSheetId="4">#REF!</definedName>
@@ -576,7 +580,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6577" uniqueCount="2385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6856" uniqueCount="2452">
   <si>
     <t>Liste des arrêtés d'adhésion des corps et emplois bénéficiant du RIFSEEP</t>
   </si>
@@ -8063,6 +8067,641 @@
   <si>
     <t>Intégration du Ministère de la Culture</t>
   </si>
+  <si>
+    <t>Ministère des armées</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>er</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> décembre 2014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t>DEFH1425569A</t>
+  </si>
+  <si>
+    <t>Corps des conseillers techniques de service social et emplois de conseiller pour l'action sociale</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>er</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> septembre 2015</t>
+    </r>
+  </si>
+  <si>
+    <t>DEFH1515333A</t>
+  </si>
+  <si>
+    <t>Arrêté RDFF1509525A abrogé par l'arrêté CPAF1936225A pris pour l'application au corps des conseillers techniques de service social ainsi qu'à l'emploi d'inspecteur technique de l'action sociale au 01/09/2015</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>er</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> octobre 2015</t>
+    </r>
+  </si>
+  <si>
+    <t>DEFH1519382A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emploi de conseiller d'administration de la défense </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Arrêté du 15 décembre 2015 - RDFF1528406A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> modifiant l'article 1 de l' arrêté du 20 mai 2014 relatif aux corps d'adjoints administratifs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>er</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> octobre 2015</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Arrêté du 15 décembre 2015 - RDFF1528406A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> modifiant les articles 1 et 4 de l' arrêté du 28 avril 2015 relatif aux corps d'adjoints techniques</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Arrêté du 15 décembre 2015 - RDFF1528406A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> modifiant l'article 1 et les annexes 1 et 2 de l' arrêté du 03 juin 2015 relatif aux corps des attachés d'administration de l'Etat</t>
+    </r>
+  </si>
+  <si>
+    <t>Corps des agents techniques</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>er</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> décembre 2015</t>
+    </r>
+  </si>
+  <si>
+    <t>DEFH1524346A</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>er</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> janvier 2016</t>
+    </r>
+  </si>
+  <si>
+    <t>DEFH1530980A</t>
+  </si>
+  <si>
+    <t>Emplois de responsabilités supérieures (chefs de service, sous-directeurs, directeurs de projet et experts de haut 
+niveau)</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>er</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> août 2016</t>
+    </r>
+  </si>
+  <si>
+    <t>DEFH1708740A</t>
+  </si>
+  <si>
+    <t>Corps des ingénieurs d’études et de fabrications</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>er</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> décembre 2016</t>
+    </r>
+  </si>
+  <si>
+    <t>DEFH1632584A</t>
+  </si>
+  <si>
+    <t>Corps des techniciens supérieurs d’études et de fabrications</t>
+  </si>
+  <si>
+    <t>DEFH1632583A</t>
+  </si>
+  <si>
+    <t>Corps des ingénieurs des travaux maritimes</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>er</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> janvier 2017</t>
+    </r>
+  </si>
+  <si>
+    <t>DEFH1634573A</t>
+  </si>
+  <si>
+    <t>Corps des infirmiers de la défense</t>
+  </si>
+  <si>
+    <t>DEFH1637611A</t>
+  </si>
+  <si>
+    <t>Corps et emplois de la direction générale de la sécurité extérieure (DGSE)</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>er</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> janvier 2021</t>
+    </r>
+  </si>
+  <si>
+    <t>ARMH2106828A</t>
+  </si>
+  <si>
+    <t>Agent technique principal de 1re et 2e classe</t>
+  </si>
+  <si>
+    <t>Administration centrale, services déconcentrés, établissements et services assimilés</t>
+  </si>
+  <si>
+    <t>Agent technique de 1re et 2e classe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Emploi fonctionnel</t>
+  </si>
+  <si>
+    <t>Ingénieur divisionnaire d'études et de fabrications</t>
+  </si>
+  <si>
+    <t>22310</t>
+  </si>
+  <si>
+    <t>14320</t>
+  </si>
+  <si>
+    <t>11160</t>
+  </si>
+  <si>
+    <t>Ingénieur d'études et de fabrications</t>
+  </si>
+  <si>
+    <t>Technicien supérieur d'études et de fabrications de 1re classe</t>
+  </si>
+  <si>
+    <t>10220</t>
+  </si>
+  <si>
+    <t>9400</t>
+  </si>
+  <si>
+    <t>2445</t>
+  </si>
+  <si>
+    <t>2245</t>
+  </si>
+  <si>
+    <t>Technicien supérieur d'études et de fabrications de 2e classe</t>
+  </si>
+  <si>
+    <t>Technicien supérieur d'études et de fabrications de 3e classe</t>
+  </si>
+  <si>
+    <t>Ingénieur général des travaux maritimes de classe exceptionnelle</t>
+  </si>
+  <si>
+    <t>4900</t>
+  </si>
+  <si>
+    <t>8760</t>
+  </si>
+  <si>
+    <t>7470</t>
+  </si>
+  <si>
+    <t>Ingénieur général des travaux maritimes de classe normale</t>
+  </si>
+  <si>
+    <t>Ingénieur et ingénieur en chef des travaux maritimes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Arrêté du 12 mars 2021 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>modifiant l'article 1 et les annexes 1 et 2 de l' arrêté du 03 juin 2015 relatif aux corps des attachés d'administration de l'Etat</t>
+    </r>
+  </si>
+  <si>
+    <t>Arrêté RDFF1509523A abrogé par l'arrêté CPAF1936226A pris pour l'application au corps des assistants de service social au 01/01/2020</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Arrêté du 12 mars 2021 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>modifiant l'annexe de l' arrêté du 20 mai 2014 relatif aux corps d'adjoints administratifs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Arrêté du 12 mars 2021 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>modifiant l'annexe de l'arrêté du 28 avril 2015 relatif aux corps d'adjoints techniques</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Arrêté du 12 mars 2021 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>modifiant l'annexe de l'arrêté du 28 avril 2015 relatif aux corps du personnel de surveillance et l'emploi de chef de service intérieur</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Arrêté du 12 mars 2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> modifiant l'annexe de l'arrêté du 19 mars 2015 relatif au</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> corps des contrôleurs spécialisés</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Arrêté du 12 mars 2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> modifiant l'annexe de l'arrêté du 03 juin 2015 relatif à </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">emploi de conseiller d'administration </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Arrêté du 12 mars 2021 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>modifiant l'article 1 de l'arrêté du 29 juin 2015 relatif aux corps des administrateurs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Arrêté du 12 mars 2021 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">modifiant l'annexe 1de l'arrêté du 29 juin 2016 relatif aux emplois fonctionnels de chef de service, de sous-directeur, d'expert de haut niveau et de directeur de projet </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Arrêté du 12 mars 2021 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">modifiant l'annexe de l' arrêté du 19 mars 2015 relatif aux corps des secrétaires administratifs </t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -8071,7 +8710,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8353,6 +8992,53 @@
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="16">
@@ -9045,7 +9731,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="432">
+  <cellXfs count="459">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9825,6 +10511,69 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9870,6 +10619,33 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9888,15 +10664,6 @@
     <xf numFmtId="0" fontId="38" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9989,12 +10756,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -12585,7 +13346,7 @@
   </sheetPr>
   <dimension ref="B1:S35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13102,10 +13863,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="267" t="s">
+      <c r="C1" s="290" t="s">
         <v>2287</v>
       </c>
-      <c r="D1" s="268"/>
+      <c r="D1" s="291"/>
       <c r="E1" s="202"/>
       <c r="F1" s="202"/>
       <c r="G1" s="202"/>
@@ -13318,11 +14079,11 @@
   <sheetPr>
     <tabColor rgb="FF75DBFF"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13338,32 +14099,32 @@
   <sheetData>
     <row r="1" spans="1:7" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="278" t="s">
+      <c r="A2" s="301" t="s">
         <v>2203</v>
       </c>
-      <c r="B2" s="279"/>
-      <c r="C2" s="279"/>
+      <c r="B2" s="302"/>
+      <c r="C2" s="302"/>
       <c r="D2" s="161"/>
-      <c r="E2" s="280" t="s">
+      <c r="E2" s="303" t="s">
         <v>2197</v>
       </c>
-      <c r="F2" s="280"/>
-      <c r="G2" s="281"/>
+      <c r="F2" s="303"/>
+      <c r="G2" s="304"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="271" t="s">
+      <c r="A3" s="294" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="272"/>
-      <c r="C3" s="273"/>
+      <c r="B3" s="295"/>
+      <c r="C3" s="296"/>
       <c r="D3" s="161"/>
-      <c r="E3" s="276" t="s">
+      <c r="E3" s="299" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="274" t="s">
+      <c r="F3" s="297" t="s">
         <v>2205</v>
       </c>
-      <c r="G3" s="269" t="s">
+      <c r="G3" s="292" t="s">
         <v>115</v>
       </c>
     </row>
@@ -13378,9 +14139,9 @@
         <v>1</v>
       </c>
       <c r="D4" s="162"/>
-      <c r="E4" s="277"/>
-      <c r="F4" s="275"/>
-      <c r="G4" s="270"/>
+      <c r="E4" s="300"/>
+      <c r="F4" s="298"/>
+      <c r="G4" s="293"/>
     </row>
     <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
@@ -14270,6 +15031,469 @@
         <v>104</v>
       </c>
       <c r="G49" s="225"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="221" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B50" s="215" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="216" t="s">
+        <v>2386</v>
+      </c>
+      <c r="D50" s="273"/>
+      <c r="E50" s="218" t="s">
+        <v>2387</v>
+      </c>
+      <c r="F50" s="219" t="s">
+        <v>87</v>
+      </c>
+      <c r="G50" s="274"/>
+    </row>
+    <row r="51" spans="1:7" ht="48" x14ac:dyDescent="0.25">
+      <c r="A51" s="221" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B51" s="222" t="s">
+        <v>2388</v>
+      </c>
+      <c r="C51" s="223" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D51" s="273"/>
+      <c r="E51" s="224" t="s">
+        <v>2390</v>
+      </c>
+      <c r="F51" s="107" t="s">
+        <v>43</v>
+      </c>
+      <c r="G51" s="269" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A52" s="221" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B52" s="222" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="223" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D52" s="273"/>
+      <c r="E52" s="224" t="s">
+        <v>2390</v>
+      </c>
+      <c r="F52" s="107" t="s">
+        <v>124</v>
+      </c>
+      <c r="G52" s="269" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="221" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B53" s="222" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="223" t="s">
+        <v>2392</v>
+      </c>
+      <c r="D53" s="273"/>
+      <c r="E53" s="224" t="s">
+        <v>2393</v>
+      </c>
+      <c r="F53" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="G53" s="268"/>
+    </row>
+    <row r="54" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A54" s="221" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B54" s="222" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C54" s="223" t="s">
+        <v>2392</v>
+      </c>
+      <c r="D54" s="273"/>
+      <c r="E54" s="224" t="s">
+        <v>2306</v>
+      </c>
+      <c r="F54" s="275" t="s">
+        <v>87</v>
+      </c>
+      <c r="G54" s="269" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A55" s="221" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B55" s="276" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C55" s="277" t="s">
+        <v>2396</v>
+      </c>
+      <c r="D55" s="273"/>
+      <c r="E55" s="278" t="s">
+        <v>2306</v>
+      </c>
+      <c r="F55" s="275" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" s="269" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A56" s="221" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B56" s="284" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C56" s="277" t="s">
+        <v>2396</v>
+      </c>
+      <c r="D56" s="273"/>
+      <c r="E56" s="278" t="s">
+        <v>2306</v>
+      </c>
+      <c r="F56" s="275" t="s">
+        <v>66</v>
+      </c>
+      <c r="G56" s="269" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="221" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B57" s="222" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C57" s="223" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D57" s="273"/>
+      <c r="E57" s="224" t="s">
+        <v>2401</v>
+      </c>
+      <c r="F57" s="107" t="s">
+        <v>2401</v>
+      </c>
+      <c r="G57" s="268"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="221" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B58" s="222" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="223" t="s">
+        <v>2402</v>
+      </c>
+      <c r="D58" s="273"/>
+      <c r="E58" s="224" t="s">
+        <v>2403</v>
+      </c>
+      <c r="F58" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58" s="268"/>
+    </row>
+    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="221" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B59" s="222" t="s">
+        <v>2404</v>
+      </c>
+      <c r="C59" s="223" t="s">
+        <v>2405</v>
+      </c>
+      <c r="D59" s="273"/>
+      <c r="E59" s="224" t="s">
+        <v>2406</v>
+      </c>
+      <c r="F59" s="107" t="s">
+        <v>135</v>
+      </c>
+      <c r="G59" s="267"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="221" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B60" s="222" t="s">
+        <v>2407</v>
+      </c>
+      <c r="C60" s="223" t="s">
+        <v>2408</v>
+      </c>
+      <c r="D60" s="273"/>
+      <c r="E60" s="224" t="s">
+        <v>2409</v>
+      </c>
+      <c r="F60" s="107" t="s">
+        <v>2409</v>
+      </c>
+      <c r="G60" s="268"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="221" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B61" s="222" t="s">
+        <v>2410</v>
+      </c>
+      <c r="C61" s="223" t="s">
+        <v>2408</v>
+      </c>
+      <c r="D61" s="273"/>
+      <c r="E61" s="224" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F61" s="107" t="s">
+        <v>2411</v>
+      </c>
+      <c r="G61" s="268"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="221" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B62" s="222" t="s">
+        <v>2412</v>
+      </c>
+      <c r="C62" s="223" t="s">
+        <v>2413</v>
+      </c>
+      <c r="D62" s="273"/>
+      <c r="E62" s="224" t="s">
+        <v>2414</v>
+      </c>
+      <c r="F62" s="107" t="s">
+        <v>2414</v>
+      </c>
+      <c r="G62" s="279"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="221" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B63" s="222" t="s">
+        <v>2415</v>
+      </c>
+      <c r="C63" s="223" t="s">
+        <v>2413</v>
+      </c>
+      <c r="D63" s="273"/>
+      <c r="E63" s="224" t="s">
+        <v>2416</v>
+      </c>
+      <c r="F63" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="G63" s="279"/>
+    </row>
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="221" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B64" s="281" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C64" s="283" t="s">
+        <v>2418</v>
+      </c>
+      <c r="D64" s="273"/>
+      <c r="E64" s="224" t="s">
+        <v>2419</v>
+      </c>
+      <c r="F64" s="275" t="s">
+        <v>87</v>
+      </c>
+      <c r="G64" s="285" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A65" s="221" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B65" s="282" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C65" s="223" t="s">
+        <v>2418</v>
+      </c>
+      <c r="E65" s="224" t="s">
+        <v>2419</v>
+      </c>
+      <c r="F65" s="275" t="str">
+        <f>'Liste des arrêtés d''adhésion'!$F$12</f>
+        <v>RDFF1503470A</v>
+      </c>
+      <c r="G65" s="285" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A66" s="221" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B66" s="282" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C66" s="223" t="s">
+        <v>2418</v>
+      </c>
+      <c r="E66" s="224" t="s">
+        <v>2419</v>
+      </c>
+      <c r="F66" s="275" t="str">
+        <f>'Liste des arrêtés d''adhésion'!$F$65</f>
+        <v>RDFF1503470A</v>
+      </c>
+      <c r="G66" s="285" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A67" s="221" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B67" s="282" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C67" s="223" t="s">
+        <v>2418</v>
+      </c>
+      <c r="E67" s="224" t="s">
+        <v>2419</v>
+      </c>
+      <c r="F67" s="275" t="s">
+        <v>81</v>
+      </c>
+      <c r="G67" s="285" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A68" s="221" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B68" s="282" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C68" s="223" t="s">
+        <v>2418</v>
+      </c>
+      <c r="E68" s="224" t="s">
+        <v>2419</v>
+      </c>
+      <c r="F68" s="275" t="str">
+        <f>'Liste des arrêtés d''adhésion'!$F$67</f>
+        <v>RDFF1503471A</v>
+      </c>
+      <c r="G68" s="285" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A69" s="221" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B69" s="282" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C69" s="223" t="s">
+        <v>2418</v>
+      </c>
+      <c r="E69" s="224" t="s">
+        <v>2419</v>
+      </c>
+      <c r="F69" s="275" t="s">
+        <v>66</v>
+      </c>
+      <c r="G69" s="285" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A70" s="221" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B70" s="282" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C70" s="223" t="s">
+        <v>2418</v>
+      </c>
+      <c r="E70" s="224" t="s">
+        <v>2419</v>
+      </c>
+      <c r="F70" s="275" t="str">
+        <f>'Liste des arrêtés d''adhésion'!$F$69</f>
+        <v>RDFF1509522A</v>
+      </c>
+      <c r="G70" s="285" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A71" s="221" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B71" s="282" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C71" s="223" t="s">
+        <v>2418</v>
+      </c>
+      <c r="E71" s="224" t="s">
+        <v>2419</v>
+      </c>
+      <c r="F71" s="275" t="str">
+        <f>'Liste des arrêtés d''adhésion'!$F$5</f>
+        <v>PRMX2205145A</v>
+      </c>
+      <c r="G71" s="285" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="221" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B72" s="286" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C72" s="287" t="s">
+        <v>2418</v>
+      </c>
+      <c r="E72" s="230" t="s">
+        <v>2419</v>
+      </c>
+      <c r="F72" s="288" t="str">
+        <f>'Liste des arrêtés d''adhésion'!$F$17</f>
+        <v>RDFF1617168A</v>
+      </c>
+      <c r="G72" s="289" t="s">
+        <v>2450</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:G19" xr:uid="{4636A8B7-342B-4EBD-BCE7-981D0F88701D}"/>
@@ -14371,10 +15595,46 @@
     <hyperlink ref="B20" r:id="rId45" xr:uid="{18935C15-A880-46B8-B05B-5E8EABC69179}"/>
     <hyperlink ref="F47" location="'Barèmes réglementaires'!RDFF1634968A" display="RDFF1634968A" xr:uid="{FCB26CEC-7FA9-4E2A-9F16-528518F7DA80}"/>
     <hyperlink ref="F49" location="'Barèmes réglementaires'!RDFF1634973A" display="RDFF1634973A" xr:uid="{066265DC-E337-4B2E-9366-E4E7497F68A8}"/>
+    <hyperlink ref="B50" r:id="rId46" display="https://www.legifrance.gouv.fr/affichTexte.do?cidTexte=JORFTEXT000029810295&amp;fastPos=114&amp;fastReqId=548213235&amp;categorieLien=cid&amp;oldAction=rechTexte" xr:uid="{9971CF01-EF82-4DCE-A6D9-0834A4E3C074}"/>
+    <hyperlink ref="B51" r:id="rId47" display="https://www.legifrance.gouv.fr/affichTexte.do?cidTexte=JORFTEXT000030997111&amp;fastPos=102&amp;fastReqId=548213235&amp;categorieLien=cid&amp;oldAction=rechTexte" xr:uid="{0B2D7CAC-FD01-41EA-B7DD-94B5076A9E22}"/>
+    <hyperlink ref="B52" r:id="rId48" display="https://www.legifrance.gouv.fr/affichTexte.do?cidTexte=JORFTEXT000030997111&amp;fastPos=102&amp;fastReqId=548213235&amp;categorieLien=cid&amp;oldAction=rechTexte" xr:uid="{F05536CF-BFBE-42C6-B143-004D99C73D77}"/>
+    <hyperlink ref="B53" r:id="rId49" display="https://www.legifrance.gouv.fr/affichTexte.do?cidTexte=JORFTEXT000031113601&amp;fastPos=101&amp;fastReqId=548213235&amp;categorieLien=cid&amp;oldAction=rechTexte" xr:uid="{154321E6-CFB2-4626-AB27-CB18D04CC768}"/>
+    <hyperlink ref="B54" r:id="rId50" display="https://www.legifrance.gouv.fr/affichTexte.do?cidTexte=JORFTEXT000031673000&amp;categorieLien=id" xr:uid="{ADED95D8-36E1-4970-95CB-2078502876FC}"/>
+    <hyperlink ref="B57" r:id="rId51" display="https://www.legifrance.gouv.fr/affichTexte.do?cidTexte=JORFTEXT000031531879&amp;dateTexte=20161229" xr:uid="{7D180014-D94C-4C65-BC2B-17A26C96D7D3}"/>
+    <hyperlink ref="B58" r:id="rId52" display="https://www.legifrance.gouv.fr/affichTexte.do?cidTexte=JORFTEXT000031680214&amp;fastPos=79&amp;fastReqId=156825174&amp;categorieLien=cid&amp;oldAction=rechTexte" xr:uid="{6B5B1F15-2B33-4704-BFF2-FF207558580F}"/>
+    <hyperlink ref="B61" r:id="rId53" display="https://www.legifrance.gouv.fr/affichTexte.do?cidTexte=JORFTEXT000033423349&amp;fastPos=6&amp;fastReqId=457976542&amp;categorieLien=cid&amp;oldAction=rechTexte" xr:uid="{C6E64284-4751-4CD7-AAAA-712BD4F8B6DC}"/>
+    <hyperlink ref="B62" r:id="rId54" display="https://www.legifrance.gouv.fr/affichTexte.do?cidTexte=JORFTEXT000033607316&amp;fastPos=1&amp;fastReqId=581290049&amp;categorieLien=cid&amp;oldAction=rechTexte" xr:uid="{414E575B-74BE-47CC-8416-98DE5A3EF1EC}"/>
+    <hyperlink ref="B63" r:id="rId55" display="https://www.legifrance.gouv.fr/affichTexte.do?cidTexte=JORFTEXT000033749194&amp;fastPos=7&amp;fastReqId=1074594536&amp;categorieLien=id&amp;oldAction=rechTexte" xr:uid="{AF734718-1504-42EF-A878-C1853913D68C}"/>
+    <hyperlink ref="B64" r:id="rId56" display="https://www.legifrance.gouv.fr/jorf/id/JORFTEXT000043261274" xr:uid="{00C40753-A1AC-4C18-AA86-8EEBA22B8A92}"/>
+    <hyperlink ref="B60" r:id="rId57" display="https://www.legifrance.gouv.fr/affichTexte.do?cidTexte=JORFTEXT000033423367&amp;fastPos=5&amp;fastReqId=717872247&amp;categorieLien=cid&amp;oldAction=rechTexte" xr:uid="{2975C35F-1E82-4932-BEDE-29630132A806}"/>
+    <hyperlink ref="B59" r:id="rId58" display="https://www.legifrance.gouv.fr/loda/id/JORFTEXT000034438641" xr:uid="{627084C0-ADEA-4164-BBA7-3C68B9D7E293}"/>
+    <hyperlink ref="F51" location="'Barèmes réglementaires'!A29" display="CPAF1936225A" xr:uid="{212CC8D5-F5A3-4F22-8F17-AFFB6443422E}"/>
+    <hyperlink ref="F52" location="'Barèmes réglementaires'!A41" display="CPAF1936226A" xr:uid="{0F5320E2-84D3-48F1-991F-A1F610FF08F3}"/>
+    <hyperlink ref="F57" location="DEFH1524346A" display="DEFH1524346A" xr:uid="{91A63638-B5F7-40C0-B86A-6F66BF03846A}"/>
+    <hyperlink ref="F58" location="'Barèmes réglementaires'!A74" display="RDFF1503471A" xr:uid="{3E526902-4DA6-4BB7-A942-C113B7E3587C}"/>
+    <hyperlink ref="F59" location="RDFF1617168A" display="RDFF1617168A" xr:uid="{48BDED05-778E-4508-A7DB-401E9A4FB5F0}"/>
+    <hyperlink ref="F60" location="DEFH1632584A" display="DEFH1632584A" xr:uid="{EF3375A6-3290-47E9-B85E-EF706108B3DC}"/>
+    <hyperlink ref="F61" location="DEFH1632583A" display="DEFH1632583A" xr:uid="{13F94E6E-556E-4A5E-B9AA-2AD1601C41A2}"/>
+    <hyperlink ref="F62" location="DEFH1634573A" display="DEFH1634573A" xr:uid="{F9FD4DED-0231-45A2-9690-415C0F1546D7}"/>
+    <hyperlink ref="F63" location="'Barèmes réglementaires'!A108" display="RDFF1613061A" xr:uid="{A4FAA558-78F3-4E9C-AB15-992E7D740290}"/>
+    <hyperlink ref="F53" location="'Barèmes réglementaires'!A49" display="RDFF1509522A" xr:uid="{77D510DA-C826-45A8-BD7C-89D5AD3FE241}"/>
+    <hyperlink ref="F50" location="'Barèmes réglementaires'!A92" display="RDFF1409306A" xr:uid="{2A5814F0-BB25-4022-BC84-70849BE64EBB}"/>
+    <hyperlink ref="F54" location="'Barèmes réglementaires'!A92" display="RDFF1409306A" xr:uid="{CFD3892C-93E7-4D60-839E-B06FFB4E1452}"/>
+    <hyperlink ref="F55" location="'Barèmes réglementaires'!A101" display="RDFF1503470A" xr:uid="{4CE4D732-F2E1-48CA-8EFF-8FAB4039C08C}"/>
+    <hyperlink ref="F56" location="'Barèmes réglementaires'!A49" display="RDFF1509522A" xr:uid="{8CB35A89-3781-4E33-B5C8-F0274E90B9EC}"/>
+    <hyperlink ref="F64" location="'Barèmes réglementaires'!A92" display="RDFF1409306A" xr:uid="{BA236C96-4C62-4217-ACC6-A66ECDB3F794}"/>
+    <hyperlink ref="F66" location="RDFF1503470A" display="RDFF1503470A" xr:uid="{20D45747-23E3-41B5-8A77-34FDB0249A9C}"/>
+    <hyperlink ref="F67" location="RDFF1503471A" display="RDFF1503471A" xr:uid="{3649AEAB-F1C8-46FB-8B58-B38FA7533048}"/>
+    <hyperlink ref="F70" location="RDFF1509522A" display="RDFF1509522A" xr:uid="{B5043D34-9858-485F-9454-1D22CEF0F01B}"/>
+    <hyperlink ref="F71" location="PRMX2205145A" display="PRMX2205145A" xr:uid="{FD40F1D6-7F20-45A7-B30E-D5A99241F02C}"/>
+    <hyperlink ref="F69" location="'Barèmes réglementaires'!A49" display="RDFF1509522A" xr:uid="{45D74FE5-5EFC-426D-8EC2-6E090B8235E1}"/>
+    <hyperlink ref="F72" location="RDFF1617168A" display="RDFF1617168A" xr:uid="{4E4C5087-33C2-48A2-9001-9170C9FD627A}"/>
+    <hyperlink ref="F65" location="RDFF1503470A" display="RDFF1503470A" xr:uid="{AECE4538-B26F-4170-9AC3-C5034DF468CD}"/>
+    <hyperlink ref="F68" location="RDFF1503471A" display="RDFF1503471A" xr:uid="{DE3920BC-9D7E-4E6C-9444-C9346066276B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
-  <drawing r:id="rId47"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId59"/>
+  <drawing r:id="rId60"/>
 </worksheet>
 </file>
 
@@ -14384,13 +15644,13 @@
     <tabColor rgb="FFC1F5FB"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M258"/>
+  <dimension ref="A1:M290"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A101" sqref="A101:A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14412,22 +15672,22 @@
   <sheetData>
     <row r="1" spans="1:13" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="392" t="s">
+      <c r="A2" s="419" t="s">
         <v>2198</v>
       </c>
-      <c r="B2" s="393"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
-      <c r="H2" s="394"/>
-      <c r="J2" s="395" t="s">
+      <c r="B2" s="420"/>
+      <c r="C2" s="420"/>
+      <c r="D2" s="420"/>
+      <c r="E2" s="420"/>
+      <c r="F2" s="420"/>
+      <c r="G2" s="420"/>
+      <c r="H2" s="421"/>
+      <c r="J2" s="422" t="s">
         <v>2197</v>
       </c>
-      <c r="K2" s="396"/>
-      <c r="L2" s="396"/>
-      <c r="M2" s="397"/>
+      <c r="K2" s="423"/>
+      <c r="L2" s="423"/>
+      <c r="M2" s="424"/>
     </row>
     <row r="3" spans="1:13" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
@@ -14468,10 +15728,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="304" t="s">
+      <c r="A4" s="333" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="299" t="s">
+      <c r="B4" s="328" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="42" t="s">
@@ -14492,22 +15752,22 @@
       <c r="H4" s="44">
         <v>15750</v>
       </c>
-      <c r="J4" s="376" t="s">
+      <c r="J4" s="403" t="s">
         <v>112</v>
       </c>
-      <c r="K4" s="378" t="s">
+      <c r="K4" s="405" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="405" t="s">
+      <c r="L4" s="432" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="407" t="s">
+      <c r="M4" s="434" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="305"/>
-      <c r="B5" s="297"/>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="334"/>
+      <c r="B5" s="326"/>
       <c r="C5" s="45" t="s">
         <v>27</v>
       </c>
@@ -14526,14 +15786,14 @@
       <c r="H5" s="47">
         <v>14300</v>
       </c>
-      <c r="J5" s="377"/>
-      <c r="K5" s="379"/>
-      <c r="L5" s="406"/>
-      <c r="M5" s="398"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="305"/>
-      <c r="B6" s="297"/>
+      <c r="J5" s="404"/>
+      <c r="K5" s="406"/>
+      <c r="L5" s="433"/>
+      <c r="M5" s="425"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="334"/>
+      <c r="B6" s="326"/>
       <c r="C6" s="45" t="s">
         <v>28</v>
       </c>
@@ -14552,14 +15812,14 @@
       <c r="H6" s="47">
         <v>12800</v>
       </c>
-      <c r="J6" s="377"/>
-      <c r="K6" s="379"/>
-      <c r="L6" s="406"/>
-      <c r="M6" s="398"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="305"/>
-      <c r="B7" s="297"/>
+      <c r="J6" s="404"/>
+      <c r="K6" s="406"/>
+      <c r="L6" s="433"/>
+      <c r="M6" s="425"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="334"/>
+      <c r="B7" s="326"/>
       <c r="C7" s="45" t="s">
         <v>29</v>
       </c>
@@ -14578,14 +15838,14 @@
       <c r="H7" s="47">
         <v>11350</v>
       </c>
-      <c r="J7" s="377"/>
-      <c r="K7" s="379"/>
-      <c r="L7" s="406"/>
-      <c r="M7" s="398"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="305"/>
-      <c r="B8" s="297" t="s">
+      <c r="J7" s="404"/>
+      <c r="K7" s="406"/>
+      <c r="L7" s="433"/>
+      <c r="M7" s="425"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="334"/>
+      <c r="B8" s="326" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="45" t="s">
@@ -14606,18 +15866,18 @@
       <c r="H8" s="47">
         <v>15750</v>
       </c>
-      <c r="J8" s="377"/>
-      <c r="K8" s="379"/>
-      <c r="L8" s="406" t="s">
+      <c r="J8" s="404"/>
+      <c r="K8" s="406"/>
+      <c r="L8" s="433" t="s">
         <v>120</v>
       </c>
-      <c r="M8" s="398" t="s">
+      <c r="M8" s="425" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="305"/>
-      <c r="B9" s="297"/>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="334"/>
+      <c r="B9" s="326"/>
       <c r="C9" s="45" t="s">
         <v>27</v>
       </c>
@@ -14636,14 +15896,14 @@
       <c r="H9" s="47">
         <v>14300</v>
       </c>
-      <c r="J9" s="377"/>
-      <c r="K9" s="379"/>
-      <c r="L9" s="406"/>
-      <c r="M9" s="398"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="305"/>
-      <c r="B10" s="297"/>
+      <c r="J9" s="404"/>
+      <c r="K9" s="406"/>
+      <c r="L9" s="433"/>
+      <c r="M9" s="425"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="334"/>
+      <c r="B10" s="326"/>
       <c r="C10" s="45" t="s">
         <v>28</v>
       </c>
@@ -14662,14 +15922,14 @@
       <c r="H10" s="47">
         <v>12800</v>
       </c>
-      <c r="J10" s="377"/>
-      <c r="K10" s="379"/>
-      <c r="L10" s="406"/>
-      <c r="M10" s="398"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="305"/>
-      <c r="B11" s="297"/>
+      <c r="J10" s="404"/>
+      <c r="K10" s="406"/>
+      <c r="L10" s="433"/>
+      <c r="M10" s="425"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="334"/>
+      <c r="B11" s="326"/>
       <c r="C11" s="45" t="s">
         <v>29</v>
       </c>
@@ -14688,14 +15948,14 @@
       <c r="H11" s="47">
         <v>11350</v>
       </c>
-      <c r="J11" s="377"/>
-      <c r="K11" s="379"/>
-      <c r="L11" s="406"/>
-      <c r="M11" s="398"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="305"/>
-      <c r="B12" s="297" t="s">
+      <c r="J11" s="404"/>
+      <c r="K11" s="406"/>
+      <c r="L11" s="433"/>
+      <c r="M11" s="425"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="334"/>
+      <c r="B12" s="326" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="45" t="s">
@@ -14716,18 +15976,18 @@
       <c r="H12" s="47">
         <v>15750</v>
       </c>
-      <c r="J12" s="377"/>
-      <c r="K12" s="379"/>
-      <c r="L12" s="406" t="s">
+      <c r="J12" s="404"/>
+      <c r="K12" s="406"/>
+      <c r="L12" s="433" t="s">
         <v>121</v>
       </c>
-      <c r="M12" s="398" t="s">
+      <c r="M12" s="425" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="305"/>
-      <c r="B13" s="297"/>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="334"/>
+      <c r="B13" s="326"/>
       <c r="C13" s="45" t="s">
         <v>27</v>
       </c>
@@ -14746,14 +16006,14 @@
       <c r="H13" s="47">
         <v>14300</v>
       </c>
-      <c r="J13" s="377"/>
-      <c r="K13" s="379"/>
-      <c r="L13" s="406"/>
-      <c r="M13" s="398"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="305"/>
-      <c r="B14" s="297"/>
+      <c r="J13" s="404"/>
+      <c r="K13" s="406"/>
+      <c r="L13" s="433"/>
+      <c r="M13" s="425"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="334"/>
+      <c r="B14" s="326"/>
       <c r="C14" s="45" t="s">
         <v>28</v>
       </c>
@@ -14772,14 +16032,14 @@
       <c r="H14" s="47">
         <v>12800</v>
       </c>
-      <c r="J14" s="377"/>
-      <c r="K14" s="379"/>
-      <c r="L14" s="406"/>
-      <c r="M14" s="398"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="305"/>
-      <c r="B15" s="297"/>
+      <c r="J14" s="404"/>
+      <c r="K14" s="406"/>
+      <c r="L14" s="433"/>
+      <c r="M14" s="425"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="334"/>
+      <c r="B15" s="326"/>
       <c r="C15" s="45" t="s">
         <v>29</v>
       </c>
@@ -14798,14 +16058,14 @@
       <c r="H15" s="47">
         <v>11350</v>
       </c>
-      <c r="J15" s="377"/>
-      <c r="K15" s="379"/>
-      <c r="L15" s="406"/>
-      <c r="M15" s="398"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="305"/>
-      <c r="B16" s="297" t="s">
+      <c r="J15" s="404"/>
+      <c r="K15" s="406"/>
+      <c r="L15" s="433"/>
+      <c r="M15" s="425"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="334"/>
+      <c r="B16" s="326" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="45" t="s">
@@ -14826,18 +16086,18 @@
       <c r="H16" s="47">
         <v>15750</v>
       </c>
-      <c r="J16" s="377"/>
-      <c r="K16" s="379"/>
-      <c r="L16" s="406" t="s">
+      <c r="J16" s="404"/>
+      <c r="K16" s="406"/>
+      <c r="L16" s="433" t="s">
         <v>122</v>
       </c>
-      <c r="M16" s="398" t="s">
+      <c r="M16" s="425" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="305"/>
-      <c r="B17" s="297"/>
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="334"/>
+      <c r="B17" s="326"/>
       <c r="C17" s="45" t="s">
         <v>27</v>
       </c>
@@ -14856,14 +16116,14 @@
       <c r="H17" s="47">
         <v>14300</v>
       </c>
-      <c r="J17" s="377"/>
-      <c r="K17" s="379"/>
-      <c r="L17" s="406"/>
-      <c r="M17" s="398"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="305"/>
-      <c r="B18" s="297"/>
+      <c r="J17" s="404"/>
+      <c r="K17" s="406"/>
+      <c r="L17" s="433"/>
+      <c r="M17" s="425"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="334"/>
+      <c r="B18" s="326"/>
       <c r="C18" s="45" t="s">
         <v>28</v>
       </c>
@@ -14882,14 +16142,14 @@
       <c r="H18" s="47">
         <v>12800</v>
       </c>
-      <c r="J18" s="377"/>
-      <c r="K18" s="379"/>
-      <c r="L18" s="406"/>
-      <c r="M18" s="398"/>
+      <c r="J18" s="404"/>
+      <c r="K18" s="406"/>
+      <c r="L18" s="433"/>
+      <c r="M18" s="425"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="306"/>
-      <c r="B19" s="298"/>
+      <c r="A19" s="335"/>
+      <c r="B19" s="327"/>
       <c r="C19" s="48" t="s">
         <v>29</v>
       </c>
@@ -14908,16 +16168,16 @@
       <c r="H19" s="50">
         <v>11350</v>
       </c>
-      <c r="J19" s="403"/>
-      <c r="K19" s="404"/>
-      <c r="L19" s="408"/>
-      <c r="M19" s="399"/>
+      <c r="J19" s="430"/>
+      <c r="K19" s="431"/>
+      <c r="L19" s="435"/>
+      <c r="M19" s="426"/>
     </row>
     <row r="20" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="304" t="s">
+      <c r="A20" s="333" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="299" t="s">
+      <c r="B20" s="328" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="43" t="s">
@@ -14938,22 +16198,22 @@
       <c r="H20" s="44">
         <v>10080</v>
       </c>
-      <c r="J20" s="376" t="s">
+      <c r="J20" s="403" t="s">
         <v>158</v>
       </c>
-      <c r="K20" s="378" t="s">
+      <c r="K20" s="405" t="s">
         <v>161</v>
       </c>
-      <c r="L20" s="400" t="s">
+      <c r="L20" s="427" t="s">
         <v>131</v>
       </c>
-      <c r="M20" s="398" t="s">
+      <c r="M20" s="425" t="s">
         <v>2187</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="305"/>
-      <c r="B21" s="297"/>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="334"/>
+      <c r="B21" s="326"/>
       <c r="C21" s="46" t="s">
         <v>27</v>
       </c>
@@ -14972,14 +16232,14 @@
       <c r="H21" s="47">
         <v>8280</v>
       </c>
-      <c r="J21" s="377"/>
-      <c r="K21" s="379"/>
-      <c r="L21" s="401"/>
-      <c r="M21" s="398"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="305"/>
-      <c r="B22" s="297"/>
+      <c r="J21" s="404"/>
+      <c r="K21" s="406"/>
+      <c r="L21" s="428"/>
+      <c r="M21" s="425"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="334"/>
+      <c r="B22" s="326"/>
       <c r="C22" s="46" t="s">
         <v>28</v>
       </c>
@@ -14998,14 +16258,14 @@
       <c r="H22" s="47">
         <v>6840</v>
       </c>
-      <c r="J22" s="377"/>
-      <c r="K22" s="379"/>
-      <c r="L22" s="401"/>
-      <c r="M22" s="387"/>
+      <c r="J22" s="404"/>
+      <c r="K22" s="406"/>
+      <c r="L22" s="428"/>
+      <c r="M22" s="414"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="305"/>
-      <c r="B23" s="297" t="s">
+      <c r="A23" s="334"/>
+      <c r="B23" s="326" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="46" t="s">
@@ -15026,18 +16286,18 @@
       <c r="H23" s="47">
         <v>10080</v>
       </c>
-      <c r="J23" s="377"/>
-      <c r="K23" s="379"/>
-      <c r="L23" s="401" t="s">
+      <c r="J23" s="404"/>
+      <c r="K23" s="406"/>
+      <c r="L23" s="428" t="s">
         <v>131</v>
       </c>
-      <c r="M23" s="398" t="s">
+      <c r="M23" s="425" t="s">
         <v>2187</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="305"/>
-      <c r="B24" s="297"/>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="334"/>
+      <c r="B24" s="326"/>
       <c r="C24" s="46" t="s">
         <v>27</v>
       </c>
@@ -15056,14 +16316,14 @@
       <c r="H24" s="47">
         <v>8280</v>
       </c>
-      <c r="J24" s="377"/>
-      <c r="K24" s="379"/>
-      <c r="L24" s="401"/>
-      <c r="M24" s="398"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="305"/>
-      <c r="B25" s="297"/>
+      <c r="J24" s="404"/>
+      <c r="K24" s="406"/>
+      <c r="L24" s="428"/>
+      <c r="M24" s="425"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="334"/>
+      <c r="B25" s="326"/>
       <c r="C25" s="46" t="s">
         <v>28</v>
       </c>
@@ -15082,14 +16342,14 @@
       <c r="H25" s="47">
         <v>6840</v>
       </c>
-      <c r="J25" s="377"/>
-      <c r="K25" s="379"/>
-      <c r="L25" s="401"/>
-      <c r="M25" s="398"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="305"/>
-      <c r="B26" s="297" t="s">
+      <c r="J25" s="404"/>
+      <c r="K25" s="406"/>
+      <c r="L25" s="428"/>
+      <c r="M25" s="425"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="334"/>
+      <c r="B26" s="326" t="s">
         <v>2219</v>
       </c>
       <c r="C26" s="46" t="s">
@@ -15110,18 +16370,18 @@
       <c r="H26" s="47">
         <v>10080</v>
       </c>
-      <c r="J26" s="377"/>
-      <c r="K26" s="379"/>
-      <c r="L26" s="401" t="s">
+      <c r="J26" s="404"/>
+      <c r="K26" s="406"/>
+      <c r="L26" s="428" t="s">
         <v>131</v>
       </c>
-      <c r="M26" s="385" t="s">
+      <c r="M26" s="412" t="s">
         <v>2187</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="305"/>
-      <c r="B27" s="297"/>
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="334"/>
+      <c r="B27" s="326"/>
       <c r="C27" s="46" t="s">
         <v>27</v>
       </c>
@@ -15140,14 +16400,14 @@
       <c r="H27" s="47">
         <v>8280</v>
       </c>
-      <c r="J27" s="377"/>
-      <c r="K27" s="379"/>
-      <c r="L27" s="401"/>
-      <c r="M27" s="398"/>
+      <c r="J27" s="404"/>
+      <c r="K27" s="406"/>
+      <c r="L27" s="428"/>
+      <c r="M27" s="425"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="306"/>
-      <c r="B28" s="298"/>
+      <c r="A28" s="335"/>
+      <c r="B28" s="327"/>
       <c r="C28" s="49" t="s">
         <v>28</v>
       </c>
@@ -15166,16 +16426,16 @@
       <c r="H28" s="50">
         <v>6840</v>
       </c>
-      <c r="J28" s="377"/>
-      <c r="K28" s="379"/>
-      <c r="L28" s="402"/>
-      <c r="M28" s="399"/>
-    </row>
-    <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="304" t="s">
+      <c r="J28" s="404"/>
+      <c r="K28" s="406"/>
+      <c r="L28" s="429"/>
+      <c r="M28" s="426"/>
+    </row>
+    <row r="29" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="333" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="315" t="s">
+      <c r="B29" s="344" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="42" t="s">
@@ -15196,22 +16456,22 @@
       <c r="H29" s="55">
         <v>4860</v>
       </c>
-      <c r="J29" s="376" t="s">
+      <c r="J29" s="403" t="s">
         <v>144</v>
       </c>
-      <c r="K29" s="378" t="s">
+      <c r="K29" s="405" t="s">
         <v>40</v>
       </c>
-      <c r="L29" s="380" t="s">
+      <c r="L29" s="407" t="s">
         <v>118</v>
       </c>
-      <c r="M29" s="383" t="s">
+      <c r="M29" s="410" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="305"/>
-      <c r="B30" s="316"/>
+    <row r="30" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="334"/>
+      <c r="B30" s="345"/>
       <c r="C30" s="45" t="s">
         <v>27</v>
       </c>
@@ -15230,14 +16490,14 @@
       <c r="H30" s="47">
         <v>3890</v>
       </c>
-      <c r="J30" s="377"/>
-      <c r="K30" s="379"/>
-      <c r="L30" s="381"/>
-      <c r="M30" s="384"/>
-    </row>
-    <row r="31" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="305"/>
-      <c r="B31" s="316"/>
+      <c r="J30" s="404"/>
+      <c r="K30" s="406"/>
+      <c r="L30" s="408"/>
+      <c r="M30" s="411"/>
+    </row>
+    <row r="31" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="334"/>
+      <c r="B31" s="345"/>
       <c r="C31" s="45" t="s">
         <v>23</v>
       </c>
@@ -15256,14 +16516,14 @@
       <c r="H31" s="47">
         <v>4500</v>
       </c>
-      <c r="J31" s="377"/>
-      <c r="K31" s="379"/>
-      <c r="L31" s="381"/>
-      <c r="M31" s="384"/>
-    </row>
-    <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="305"/>
-      <c r="B32" s="317"/>
+      <c r="J31" s="404"/>
+      <c r="K31" s="406"/>
+      <c r="L31" s="408"/>
+      <c r="M31" s="411"/>
+    </row>
+    <row r="32" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="334"/>
+      <c r="B32" s="346"/>
       <c r="C32" s="45" t="s">
         <v>27</v>
       </c>
@@ -15282,14 +16542,14 @@
       <c r="H32" s="47">
         <v>3600</v>
       </c>
-      <c r="J32" s="377"/>
-      <c r="K32" s="379"/>
-      <c r="L32" s="382"/>
-      <c r="M32" s="385"/>
-    </row>
-    <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="305"/>
-      <c r="B33" s="390" t="s">
+      <c r="J32" s="404"/>
+      <c r="K32" s="406"/>
+      <c r="L32" s="409"/>
+      <c r="M32" s="412"/>
+    </row>
+    <row r="33" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="334"/>
+      <c r="B33" s="417" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="45" t="s">
@@ -15310,18 +16570,18 @@
       <c r="H33" s="58">
         <v>4860</v>
       </c>
-      <c r="J33" s="377"/>
-      <c r="K33" s="379"/>
-      <c r="L33" s="386" t="s">
+      <c r="J33" s="404"/>
+      <c r="K33" s="406"/>
+      <c r="L33" s="413" t="s">
         <v>123</v>
       </c>
-      <c r="M33" s="387" t="s">
+      <c r="M33" s="414" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="305"/>
-      <c r="B34" s="316"/>
+    <row r="34" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="334"/>
+      <c r="B34" s="345"/>
       <c r="C34" s="45" t="s">
         <v>27</v>
       </c>
@@ -15340,14 +16600,14 @@
       <c r="H34" s="47">
         <v>3890</v>
       </c>
-      <c r="J34" s="377"/>
-      <c r="K34" s="379"/>
-      <c r="L34" s="381"/>
-      <c r="M34" s="384"/>
-    </row>
-    <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="305"/>
-      <c r="B35" s="316"/>
+      <c r="J34" s="404"/>
+      <c r="K34" s="406"/>
+      <c r="L34" s="408"/>
+      <c r="M34" s="411"/>
+    </row>
+    <row r="35" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="334"/>
+      <c r="B35" s="345"/>
       <c r="C35" s="45" t="s">
         <v>23</v>
       </c>
@@ -15366,14 +16626,14 @@
       <c r="H35" s="47">
         <v>4500</v>
       </c>
-      <c r="J35" s="377"/>
-      <c r="K35" s="379"/>
-      <c r="L35" s="381"/>
-      <c r="M35" s="384"/>
-    </row>
-    <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="305"/>
-      <c r="B36" s="317"/>
+      <c r="J35" s="404"/>
+      <c r="K35" s="406"/>
+      <c r="L35" s="408"/>
+      <c r="M35" s="411"/>
+    </row>
+    <row r="36" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="334"/>
+      <c r="B36" s="346"/>
       <c r="C36" s="45" t="s">
         <v>27</v>
       </c>
@@ -15392,14 +16652,14 @@
       <c r="H36" s="47">
         <v>3600</v>
       </c>
-      <c r="J36" s="377"/>
-      <c r="K36" s="379"/>
-      <c r="L36" s="382"/>
-      <c r="M36" s="385"/>
-    </row>
-    <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="305"/>
-      <c r="B37" s="390" t="s">
+      <c r="J36" s="404"/>
+      <c r="K36" s="406"/>
+      <c r="L36" s="409"/>
+      <c r="M36" s="412"/>
+    </row>
+    <row r="37" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="334"/>
+      <c r="B37" s="417" t="s">
         <v>2220</v>
       </c>
       <c r="C37" s="45" t="s">
@@ -15420,22 +16680,22 @@
       <c r="H37" s="47">
         <v>4860</v>
       </c>
-      <c r="J37" s="343" t="s">
+      <c r="J37" s="370" t="s">
         <v>143</v>
       </c>
-      <c r="K37" s="344" t="s">
+      <c r="K37" s="371" t="s">
         <v>46</v>
       </c>
-      <c r="L37" s="386" t="s">
+      <c r="L37" s="413" t="s">
         <v>117</v>
       </c>
-      <c r="M37" s="387" t="s">
+      <c r="M37" s="414" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="305"/>
-      <c r="B38" s="316"/>
+    <row r="38" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="334"/>
+      <c r="B38" s="345"/>
       <c r="C38" s="45" t="s">
         <v>27</v>
       </c>
@@ -15454,14 +16714,14 @@
       <c r="H38" s="47">
         <v>3890</v>
       </c>
-      <c r="J38" s="377"/>
-      <c r="K38" s="379"/>
-      <c r="L38" s="381"/>
-      <c r="M38" s="384"/>
-    </row>
-    <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="305"/>
-      <c r="B39" s="316"/>
+      <c r="J38" s="404"/>
+      <c r="K38" s="406"/>
+      <c r="L38" s="408"/>
+      <c r="M38" s="411"/>
+    </row>
+    <row r="39" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="334"/>
+      <c r="B39" s="345"/>
       <c r="C39" s="45" t="s">
         <v>23</v>
       </c>
@@ -15480,14 +16740,14 @@
       <c r="H39" s="47">
         <v>4500</v>
       </c>
-      <c r="J39" s="377"/>
-      <c r="K39" s="379"/>
-      <c r="L39" s="381"/>
-      <c r="M39" s="384"/>
+      <c r="J39" s="404"/>
+      <c r="K39" s="406"/>
+      <c r="L39" s="408"/>
+      <c r="M39" s="411"/>
     </row>
     <row r="40" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="306"/>
-      <c r="B40" s="391"/>
+      <c r="A40" s="335"/>
+      <c r="B40" s="418"/>
       <c r="C40" s="48" t="s">
         <v>27</v>
       </c>
@@ -15506,16 +16766,16 @@
       <c r="H40" s="50">
         <v>3600</v>
       </c>
-      <c r="J40" s="377"/>
-      <c r="K40" s="379"/>
-      <c r="L40" s="388"/>
-      <c r="M40" s="389"/>
-    </row>
-    <row r="41" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="304" t="s">
+      <c r="J40" s="404"/>
+      <c r="K40" s="406"/>
+      <c r="L40" s="415"/>
+      <c r="M40" s="416"/>
+    </row>
+    <row r="41" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="333" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="318" t="s">
+      <c r="B41" s="347" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="43" t="s">
@@ -15536,22 +16796,22 @@
       <c r="H41" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="J41" s="342" t="s">
+      <c r="J41" s="369" t="s">
         <v>125</v>
       </c>
-      <c r="K41" s="335" t="s">
+      <c r="K41" s="362" t="s">
         <v>47</v>
       </c>
-      <c r="L41" s="368" t="s">
+      <c r="L41" s="395" t="s">
         <v>126</v>
       </c>
-      <c r="M41" s="371" t="s">
+      <c r="M41" s="398" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="305"/>
-      <c r="B42" s="308"/>
+    <row r="42" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="334"/>
+      <c r="B42" s="337"/>
       <c r="C42" s="46" t="s">
         <v>27</v>
       </c>
@@ -15570,14 +16830,14 @@
       <c r="H42" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="J42" s="330"/>
-      <c r="K42" s="336"/>
-      <c r="L42" s="369"/>
-      <c r="M42" s="372"/>
-    </row>
-    <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="305"/>
-      <c r="B43" s="308"/>
+      <c r="J42" s="357"/>
+      <c r="K42" s="363"/>
+      <c r="L42" s="396"/>
+      <c r="M42" s="399"/>
+    </row>
+    <row r="43" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="334"/>
+      <c r="B43" s="337"/>
       <c r="C43" s="46" t="s">
         <v>23</v>
       </c>
@@ -15596,14 +16856,14 @@
       <c r="H43" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="J43" s="330"/>
-      <c r="K43" s="336"/>
-      <c r="L43" s="369"/>
-      <c r="M43" s="372"/>
-    </row>
-    <row r="44" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="305"/>
-      <c r="B44" s="309"/>
+      <c r="J43" s="357"/>
+      <c r="K43" s="363"/>
+      <c r="L43" s="396"/>
+      <c r="M43" s="399"/>
+    </row>
+    <row r="44" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="334"/>
+      <c r="B44" s="338"/>
       <c r="C44" s="46" t="s">
         <v>27</v>
       </c>
@@ -15622,14 +16882,14 @@
       <c r="H44" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="J44" s="330"/>
-      <c r="K44" s="336"/>
-      <c r="L44" s="369"/>
-      <c r="M44" s="373"/>
-    </row>
-    <row r="45" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="305"/>
-      <c r="B45" s="307" t="s">
+      <c r="J44" s="357"/>
+      <c r="K44" s="363"/>
+      <c r="L44" s="396"/>
+      <c r="M44" s="400"/>
+    </row>
+    <row r="45" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="334"/>
+      <c r="B45" s="336" t="s">
         <v>60</v>
       </c>
       <c r="C45" s="46" t="s">
@@ -15650,18 +16910,18 @@
       <c r="H45" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="J45" s="330"/>
-      <c r="K45" s="336"/>
-      <c r="L45" s="374" t="s">
+      <c r="J45" s="357"/>
+      <c r="K45" s="363"/>
+      <c r="L45" s="401" t="s">
         <v>127</v>
       </c>
-      <c r="M45" s="375" t="s">
+      <c r="M45" s="402" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="305"/>
-      <c r="B46" s="308"/>
+    <row r="46" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="334"/>
+      <c r="B46" s="337"/>
       <c r="C46" s="46" t="s">
         <v>27</v>
       </c>
@@ -15680,14 +16940,14 @@
       <c r="H46" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="J46" s="330"/>
-      <c r="K46" s="336"/>
-      <c r="L46" s="369"/>
-      <c r="M46" s="372"/>
-    </row>
-    <row r="47" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="305"/>
-      <c r="B47" s="308"/>
+      <c r="J46" s="357"/>
+      <c r="K46" s="363"/>
+      <c r="L46" s="396"/>
+      <c r="M46" s="399"/>
+    </row>
+    <row r="47" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="334"/>
+      <c r="B47" s="337"/>
       <c r="C47" s="46" t="s">
         <v>23</v>
       </c>
@@ -15706,14 +16966,14 @@
       <c r="H47" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="J47" s="330"/>
-      <c r="K47" s="336"/>
-      <c r="L47" s="369"/>
-      <c r="M47" s="372"/>
+      <c r="J47" s="357"/>
+      <c r="K47" s="363"/>
+      <c r="L47" s="396"/>
+      <c r="M47" s="399"/>
     </row>
     <row r="48" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="305"/>
-      <c r="B48" s="308"/>
+      <c r="A48" s="334"/>
+      <c r="B48" s="337"/>
       <c r="C48" s="62" t="s">
         <v>27</v>
       </c>
@@ -15732,16 +16992,16 @@
       <c r="H48" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="J48" s="331"/>
-      <c r="K48" s="337"/>
-      <c r="L48" s="369"/>
-      <c r="M48" s="372"/>
-    </row>
-    <row r="49" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="304" t="s">
+      <c r="J48" s="358"/>
+      <c r="K48" s="364"/>
+      <c r="L48" s="396"/>
+      <c r="M48" s="399"/>
+    </row>
+    <row r="49" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="333" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="318" t="s">
+      <c r="B49" s="347" t="s">
         <v>64</v>
       </c>
       <c r="C49" s="43" t="s">
@@ -15762,22 +17022,22 @@
       <c r="H49" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="J49" s="342" t="s">
+      <c r="J49" s="369" t="s">
         <v>145</v>
       </c>
-      <c r="K49" s="335" t="s">
+      <c r="K49" s="362" t="s">
         <v>63</v>
       </c>
-      <c r="L49" s="368" t="s">
+      <c r="L49" s="395" t="s">
         <v>129</v>
       </c>
-      <c r="M49" s="371" t="s">
+      <c r="M49" s="398" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="305"/>
-      <c r="B50" s="308"/>
+    <row r="50" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="334"/>
+      <c r="B50" s="337"/>
       <c r="C50" s="46" t="s">
         <v>27</v>
       </c>
@@ -15796,14 +17056,14 @@
       <c r="H50" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="J50" s="330"/>
-      <c r="K50" s="336"/>
-      <c r="L50" s="369"/>
-      <c r="M50" s="372"/>
-    </row>
-    <row r="51" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="305"/>
-      <c r="B51" s="308"/>
+      <c r="J50" s="357"/>
+      <c r="K50" s="363"/>
+      <c r="L50" s="396"/>
+      <c r="M50" s="399"/>
+    </row>
+    <row r="51" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="334"/>
+      <c r="B51" s="337"/>
       <c r="C51" s="46" t="s">
         <v>28</v>
       </c>
@@ -15822,14 +17082,14 @@
       <c r="H51" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="J51" s="330"/>
-      <c r="K51" s="336"/>
-      <c r="L51" s="369"/>
-      <c r="M51" s="372"/>
-    </row>
-    <row r="52" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="305"/>
-      <c r="B52" s="308"/>
+      <c r="J51" s="357"/>
+      <c r="K51" s="363"/>
+      <c r="L51" s="396"/>
+      <c r="M51" s="399"/>
+    </row>
+    <row r="52" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="334"/>
+      <c r="B52" s="337"/>
       <c r="C52" s="46" t="s">
         <v>29</v>
       </c>
@@ -15848,14 +17108,14 @@
       <c r="H52" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="J52" s="330"/>
-      <c r="K52" s="336"/>
-      <c r="L52" s="369"/>
-      <c r="M52" s="372"/>
-    </row>
-    <row r="53" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="305"/>
-      <c r="B53" s="308"/>
+      <c r="J52" s="357"/>
+      <c r="K52" s="363"/>
+      <c r="L52" s="396"/>
+      <c r="M52" s="399"/>
+    </row>
+    <row r="53" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="334"/>
+      <c r="B53" s="337"/>
       <c r="C53" s="46" t="s">
         <v>23</v>
       </c>
@@ -15874,14 +17134,14 @@
       <c r="H53" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="J53" s="330"/>
-      <c r="K53" s="336"/>
-      <c r="L53" s="369"/>
-      <c r="M53" s="372"/>
-    </row>
-    <row r="54" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="305"/>
-      <c r="B54" s="308"/>
+      <c r="J53" s="357"/>
+      <c r="K53" s="363"/>
+      <c r="L53" s="396"/>
+      <c r="M53" s="399"/>
+    </row>
+    <row r="54" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="334"/>
+      <c r="B54" s="337"/>
       <c r="C54" s="46" t="s">
         <v>27</v>
       </c>
@@ -15900,14 +17160,14 @@
       <c r="H54" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="J54" s="330"/>
-      <c r="K54" s="336"/>
-      <c r="L54" s="369"/>
-      <c r="M54" s="372"/>
-    </row>
-    <row r="55" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="305"/>
-      <c r="B55" s="308"/>
+      <c r="J54" s="357"/>
+      <c r="K54" s="363"/>
+      <c r="L54" s="396"/>
+      <c r="M54" s="399"/>
+    </row>
+    <row r="55" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="334"/>
+      <c r="B55" s="337"/>
       <c r="C55" s="46" t="s">
         <v>28</v>
       </c>
@@ -15926,14 +17186,14 @@
       <c r="H55" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="J55" s="330"/>
-      <c r="K55" s="336"/>
-      <c r="L55" s="369"/>
-      <c r="M55" s="372"/>
-    </row>
-    <row r="56" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="305"/>
-      <c r="B56" s="309"/>
+      <c r="J55" s="357"/>
+      <c r="K55" s="363"/>
+      <c r="L55" s="396"/>
+      <c r="M55" s="399"/>
+    </row>
+    <row r="56" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="334"/>
+      <c r="B56" s="338"/>
       <c r="C56" s="46" t="s">
         <v>29</v>
       </c>
@@ -15952,14 +17212,14 @@
       <c r="H56" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="J56" s="330"/>
-      <c r="K56" s="336"/>
-      <c r="L56" s="370"/>
-      <c r="M56" s="373"/>
-    </row>
-    <row r="57" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57" s="305"/>
-      <c r="B57" s="307" t="s">
+      <c r="J56" s="357"/>
+      <c r="K56" s="363"/>
+      <c r="L56" s="397"/>
+      <c r="M56" s="400"/>
+    </row>
+    <row r="57" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="334"/>
+      <c r="B57" s="336" t="s">
         <v>76</v>
       </c>
       <c r="C57" s="46" t="s">
@@ -15980,18 +17240,18 @@
       <c r="H57" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="J57" s="330"/>
-      <c r="K57" s="336"/>
-      <c r="L57" s="374" t="s">
+      <c r="J57" s="357"/>
+      <c r="K57" s="363"/>
+      <c r="L57" s="401" t="s">
         <v>128</v>
       </c>
-      <c r="M57" s="375" t="s">
+      <c r="M57" s="402" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="305"/>
-      <c r="B58" s="308"/>
+    <row r="58" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="334"/>
+      <c r="B58" s="337"/>
       <c r="C58" s="46" t="s">
         <v>27</v>
       </c>
@@ -16010,14 +17270,14 @@
       <c r="H58" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="J58" s="330"/>
-      <c r="K58" s="336"/>
-      <c r="L58" s="369"/>
-      <c r="M58" s="372"/>
-    </row>
-    <row r="59" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="305"/>
-      <c r="B59" s="308"/>
+      <c r="J58" s="357"/>
+      <c r="K58" s="363"/>
+      <c r="L58" s="396"/>
+      <c r="M58" s="399"/>
+    </row>
+    <row r="59" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="334"/>
+      <c r="B59" s="337"/>
       <c r="C59" s="46" t="s">
         <v>28</v>
       </c>
@@ -16036,14 +17296,14 @@
       <c r="H59" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="J59" s="330"/>
-      <c r="K59" s="336"/>
-      <c r="L59" s="369"/>
-      <c r="M59" s="372"/>
-    </row>
-    <row r="60" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A60" s="305"/>
-      <c r="B60" s="308"/>
+      <c r="J59" s="357"/>
+      <c r="K59" s="363"/>
+      <c r="L59" s="396"/>
+      <c r="M59" s="399"/>
+    </row>
+    <row r="60" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="334"/>
+      <c r="B60" s="337"/>
       <c r="C60" s="46" t="s">
         <v>29</v>
       </c>
@@ -16062,14 +17322,14 @@
       <c r="H60" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="J60" s="330"/>
-      <c r="K60" s="336"/>
-      <c r="L60" s="369"/>
-      <c r="M60" s="372"/>
-    </row>
-    <row r="61" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="305"/>
-      <c r="B61" s="308"/>
+      <c r="J60" s="357"/>
+      <c r="K60" s="363"/>
+      <c r="L60" s="396"/>
+      <c r="M60" s="399"/>
+    </row>
+    <row r="61" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="334"/>
+      <c r="B61" s="337"/>
       <c r="C61" s="46" t="s">
         <v>23</v>
       </c>
@@ -16088,14 +17348,14 @@
       <c r="H61" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="J61" s="330"/>
-      <c r="K61" s="336"/>
-      <c r="L61" s="369"/>
-      <c r="M61" s="372"/>
-    </row>
-    <row r="62" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="305"/>
-      <c r="B62" s="308"/>
+      <c r="J61" s="357"/>
+      <c r="K61" s="363"/>
+      <c r="L61" s="396"/>
+      <c r="M61" s="399"/>
+    </row>
+    <row r="62" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="334"/>
+      <c r="B62" s="337"/>
       <c r="C62" s="46" t="s">
         <v>27</v>
       </c>
@@ -16114,14 +17374,14 @@
       <c r="H62" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="J62" s="330"/>
-      <c r="K62" s="336"/>
-      <c r="L62" s="369"/>
-      <c r="M62" s="372"/>
-    </row>
-    <row r="63" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="305"/>
-      <c r="B63" s="308"/>
+      <c r="J62" s="357"/>
+      <c r="K62" s="363"/>
+      <c r="L62" s="396"/>
+      <c r="M62" s="399"/>
+    </row>
+    <row r="63" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="334"/>
+      <c r="B63" s="337"/>
       <c r="C63" s="46" t="s">
         <v>28</v>
       </c>
@@ -16140,14 +17400,14 @@
       <c r="H63" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="J63" s="330"/>
-      <c r="K63" s="336"/>
-      <c r="L63" s="369"/>
-      <c r="M63" s="372"/>
-    </row>
-    <row r="64" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="305"/>
-      <c r="B64" s="309"/>
+      <c r="J63" s="357"/>
+      <c r="K63" s="363"/>
+      <c r="L63" s="396"/>
+      <c r="M63" s="399"/>
+    </row>
+    <row r="64" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="334"/>
+      <c r="B64" s="338"/>
       <c r="C64" s="46" t="s">
         <v>29</v>
       </c>
@@ -16166,14 +17426,14 @@
       <c r="H64" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="J64" s="330"/>
-      <c r="K64" s="336"/>
-      <c r="L64" s="370"/>
-      <c r="M64" s="373"/>
-    </row>
-    <row r="65" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A65" s="305"/>
-      <c r="B65" s="307" t="s">
+      <c r="J64" s="357"/>
+      <c r="K64" s="363"/>
+      <c r="L64" s="397"/>
+      <c r="M64" s="400"/>
+    </row>
+    <row r="65" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="334"/>
+      <c r="B65" s="336" t="s">
         <v>78</v>
       </c>
       <c r="C65" s="46" t="s">
@@ -16194,18 +17454,18 @@
       <c r="H65" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="J65" s="330"/>
-      <c r="K65" s="336"/>
-      <c r="L65" s="374" t="s">
+      <c r="J65" s="357"/>
+      <c r="K65" s="363"/>
+      <c r="L65" s="401" t="s">
         <v>130</v>
       </c>
-      <c r="M65" s="375" t="s">
+      <c r="M65" s="402" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A66" s="305"/>
-      <c r="B66" s="308"/>
+    <row r="66" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="334"/>
+      <c r="B66" s="337"/>
       <c r="C66" s="46" t="s">
         <v>27</v>
       </c>
@@ -16224,14 +17484,14 @@
       <c r="H66" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="J66" s="330"/>
-      <c r="K66" s="336"/>
-      <c r="L66" s="369"/>
-      <c r="M66" s="372"/>
-    </row>
-    <row r="67" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="305"/>
-      <c r="B67" s="308"/>
+      <c r="J66" s="357"/>
+      <c r="K66" s="363"/>
+      <c r="L66" s="396"/>
+      <c r="M66" s="399"/>
+    </row>
+    <row r="67" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="334"/>
+      <c r="B67" s="337"/>
       <c r="C67" s="46" t="s">
         <v>28</v>
       </c>
@@ -16250,14 +17510,14 @@
       <c r="H67" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="J67" s="330"/>
-      <c r="K67" s="336"/>
-      <c r="L67" s="369"/>
-      <c r="M67" s="372"/>
-    </row>
-    <row r="68" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="305"/>
-      <c r="B68" s="308"/>
+      <c r="J67" s="357"/>
+      <c r="K67" s="363"/>
+      <c r="L67" s="396"/>
+      <c r="M67" s="399"/>
+    </row>
+    <row r="68" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="334"/>
+      <c r="B68" s="337"/>
       <c r="C68" s="46" t="s">
         <v>29</v>
       </c>
@@ -16276,14 +17536,14 @@
       <c r="H68" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="J68" s="330"/>
-      <c r="K68" s="336"/>
-      <c r="L68" s="369"/>
-      <c r="M68" s="372"/>
-    </row>
-    <row r="69" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="305"/>
-      <c r="B69" s="308"/>
+      <c r="J68" s="357"/>
+      <c r="K68" s="363"/>
+      <c r="L68" s="396"/>
+      <c r="M68" s="399"/>
+    </row>
+    <row r="69" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="334"/>
+      <c r="B69" s="337"/>
       <c r="C69" s="46" t="s">
         <v>23</v>
       </c>
@@ -16302,14 +17562,14 @@
       <c r="H69" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="J69" s="330"/>
-      <c r="K69" s="336"/>
-      <c r="L69" s="369"/>
-      <c r="M69" s="372"/>
-    </row>
-    <row r="70" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="305"/>
-      <c r="B70" s="308"/>
+      <c r="J69" s="357"/>
+      <c r="K69" s="363"/>
+      <c r="L69" s="396"/>
+      <c r="M69" s="399"/>
+    </row>
+    <row r="70" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="334"/>
+      <c r="B70" s="337"/>
       <c r="C70" s="46" t="s">
         <v>27</v>
       </c>
@@ -16328,14 +17588,14 @@
       <c r="H70" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="J70" s="330"/>
-      <c r="K70" s="336"/>
-      <c r="L70" s="369"/>
-      <c r="M70" s="372"/>
-    </row>
-    <row r="71" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="305"/>
-      <c r="B71" s="308"/>
+      <c r="J70" s="357"/>
+      <c r="K70" s="363"/>
+      <c r="L70" s="396"/>
+      <c r="M70" s="399"/>
+    </row>
+    <row r="71" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="334"/>
+      <c r="B71" s="337"/>
       <c r="C71" s="46" t="s">
         <v>28</v>
       </c>
@@ -16354,14 +17614,14 @@
       <c r="H71" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="J71" s="330"/>
-      <c r="K71" s="336"/>
-      <c r="L71" s="369"/>
-      <c r="M71" s="372"/>
-    </row>
-    <row r="72" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="305"/>
-      <c r="B72" s="309"/>
+      <c r="J71" s="357"/>
+      <c r="K71" s="363"/>
+      <c r="L71" s="396"/>
+      <c r="M71" s="399"/>
+    </row>
+    <row r="72" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="334"/>
+      <c r="B72" s="338"/>
       <c r="C72" s="46" t="s">
         <v>29</v>
       </c>
@@ -16380,13 +17640,13 @@
       <c r="H72" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="J72" s="330"/>
-      <c r="K72" s="336"/>
-      <c r="L72" s="370"/>
-      <c r="M72" s="373"/>
+      <c r="J72" s="357"/>
+      <c r="K72" s="363"/>
+      <c r="L72" s="397"/>
+      <c r="M72" s="400"/>
     </row>
     <row r="73" spans="1:13" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="306"/>
+      <c r="A73" s="335"/>
       <c r="B73" s="151" t="s">
         <v>2188</v>
       </c>
@@ -16409,11 +17669,11 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="300" t="s">
+    <row r="74" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="329" t="s">
         <v>81</v>
       </c>
-      <c r="B74" s="310" t="s">
+      <c r="B74" s="339" t="s">
         <v>80</v>
       </c>
       <c r="C74" s="42" t="s">
@@ -16434,22 +17694,22 @@
       <c r="H74" s="44">
         <v>2680</v>
       </c>
-      <c r="J74" s="342" t="s">
+      <c r="J74" s="369" t="s">
         <v>158</v>
       </c>
-      <c r="K74" s="335" t="s">
+      <c r="K74" s="362" t="s">
         <v>162</v>
       </c>
-      <c r="L74" s="362" t="s">
+      <c r="L74" s="389" t="s">
         <v>131</v>
       </c>
-      <c r="M74" s="364" t="s">
+      <c r="M74" s="391" t="s">
         <v>2187</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A75" s="301"/>
-      <c r="B75" s="311"/>
+    <row r="75" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="330"/>
+      <c r="B75" s="340"/>
       <c r="C75" s="45" t="s">
         <v>27</v>
       </c>
@@ -16468,14 +17728,14 @@
       <c r="H75" s="47">
         <v>2445</v>
       </c>
-      <c r="J75" s="330"/>
-      <c r="K75" s="336"/>
-      <c r="L75" s="363"/>
-      <c r="M75" s="365"/>
-    </row>
-    <row r="76" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A76" s="301"/>
-      <c r="B76" s="311"/>
+      <c r="J75" s="357"/>
+      <c r="K75" s="363"/>
+      <c r="L75" s="390"/>
+      <c r="M75" s="392"/>
+    </row>
+    <row r="76" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="330"/>
+      <c r="B76" s="340"/>
       <c r="C76" s="45" t="s">
         <v>28</v>
       </c>
@@ -16494,14 +17754,14 @@
       <c r="H76" s="47">
         <v>2245</v>
       </c>
-      <c r="J76" s="330"/>
-      <c r="K76" s="336"/>
-      <c r="L76" s="363"/>
-      <c r="M76" s="365"/>
-    </row>
-    <row r="77" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="301"/>
-      <c r="B77" s="311"/>
+      <c r="J76" s="357"/>
+      <c r="K76" s="363"/>
+      <c r="L76" s="390"/>
+      <c r="M76" s="392"/>
+    </row>
+    <row r="77" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="330"/>
+      <c r="B77" s="340"/>
       <c r="C77" s="45" t="s">
         <v>23</v>
       </c>
@@ -16520,14 +17780,14 @@
       <c r="H77" s="47">
         <v>2380</v>
       </c>
-      <c r="J77" s="330"/>
-      <c r="K77" s="336"/>
-      <c r="L77" s="363"/>
-      <c r="M77" s="365"/>
-    </row>
-    <row r="78" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="301"/>
-      <c r="B78" s="311"/>
+      <c r="J77" s="357"/>
+      <c r="K77" s="363"/>
+      <c r="L77" s="390"/>
+      <c r="M77" s="392"/>
+    </row>
+    <row r="78" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="330"/>
+      <c r="B78" s="340"/>
       <c r="C78" s="45" t="s">
         <v>27</v>
       </c>
@@ -16546,14 +17806,14 @@
       <c r="H78" s="47">
         <v>2185</v>
       </c>
-      <c r="J78" s="330"/>
-      <c r="K78" s="336"/>
-      <c r="L78" s="363"/>
-      <c r="M78" s="365"/>
-    </row>
-    <row r="79" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="301"/>
-      <c r="B79" s="311"/>
+      <c r="J78" s="357"/>
+      <c r="K78" s="363"/>
+      <c r="L78" s="390"/>
+      <c r="M78" s="392"/>
+    </row>
+    <row r="79" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="330"/>
+      <c r="B79" s="340"/>
       <c r="C79" s="45" t="s">
         <v>28</v>
       </c>
@@ -16572,14 +17832,14 @@
       <c r="H79" s="47">
         <v>1995</v>
       </c>
-      <c r="J79" s="330"/>
-      <c r="K79" s="336"/>
-      <c r="L79" s="363"/>
-      <c r="M79" s="365"/>
-    </row>
-    <row r="80" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A80" s="301"/>
-      <c r="B80" s="311" t="s">
+      <c r="J79" s="357"/>
+      <c r="K79" s="363"/>
+      <c r="L79" s="390"/>
+      <c r="M79" s="392"/>
+    </row>
+    <row r="80" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="330"/>
+      <c r="B80" s="340" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="45" t="s">
@@ -16600,18 +17860,18 @@
       <c r="H80" s="47">
         <v>2680</v>
       </c>
-      <c r="J80" s="330"/>
-      <c r="K80" s="336"/>
-      <c r="L80" s="363" t="s">
+      <c r="J80" s="357"/>
+      <c r="K80" s="363"/>
+      <c r="L80" s="390" t="s">
         <v>131</v>
       </c>
-      <c r="M80" s="365" t="s">
+      <c r="M80" s="392" t="s">
         <v>2187</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A81" s="301"/>
-      <c r="B81" s="311"/>
+    <row r="81" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="330"/>
+      <c r="B81" s="340"/>
       <c r="C81" s="45" t="s">
         <v>27</v>
       </c>
@@ -16630,14 +17890,14 @@
       <c r="H81" s="47">
         <v>2445</v>
       </c>
-      <c r="J81" s="330"/>
-      <c r="K81" s="336"/>
-      <c r="L81" s="363"/>
-      <c r="M81" s="365"/>
-    </row>
-    <row r="82" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A82" s="301"/>
-      <c r="B82" s="311"/>
+      <c r="J81" s="357"/>
+      <c r="K81" s="363"/>
+      <c r="L81" s="390"/>
+      <c r="M81" s="392"/>
+    </row>
+    <row r="82" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="330"/>
+      <c r="B82" s="340"/>
       <c r="C82" s="45" t="s">
         <v>28</v>
       </c>
@@ -16656,14 +17916,14 @@
       <c r="H82" s="47">
         <v>2245</v>
       </c>
-      <c r="J82" s="330"/>
-      <c r="K82" s="336"/>
-      <c r="L82" s="363"/>
-      <c r="M82" s="365"/>
-    </row>
-    <row r="83" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="301"/>
-      <c r="B83" s="311"/>
+      <c r="J82" s="357"/>
+      <c r="K82" s="363"/>
+      <c r="L82" s="390"/>
+      <c r="M82" s="392"/>
+    </row>
+    <row r="83" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="330"/>
+      <c r="B83" s="340"/>
       <c r="C83" s="45" t="s">
         <v>23</v>
       </c>
@@ -16682,14 +17942,14 @@
       <c r="H83" s="47">
         <v>2380</v>
       </c>
-      <c r="J83" s="330"/>
-      <c r="K83" s="336"/>
-      <c r="L83" s="363"/>
-      <c r="M83" s="365"/>
-    </row>
-    <row r="84" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="301"/>
-      <c r="B84" s="311"/>
+      <c r="J83" s="357"/>
+      <c r="K83" s="363"/>
+      <c r="L83" s="390"/>
+      <c r="M83" s="392"/>
+    </row>
+    <row r="84" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="330"/>
+      <c r="B84" s="340"/>
       <c r="C84" s="45" t="s">
         <v>27</v>
       </c>
@@ -16708,14 +17968,14 @@
       <c r="H84" s="47">
         <v>2185</v>
       </c>
-      <c r="J84" s="330"/>
-      <c r="K84" s="336"/>
-      <c r="L84" s="363"/>
-      <c r="M84" s="365"/>
-    </row>
-    <row r="85" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="301"/>
-      <c r="B85" s="311"/>
+      <c r="J84" s="357"/>
+      <c r="K84" s="363"/>
+      <c r="L84" s="390"/>
+      <c r="M84" s="392"/>
+    </row>
+    <row r="85" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="330"/>
+      <c r="B85" s="340"/>
       <c r="C85" s="45" t="s">
         <v>28</v>
       </c>
@@ -16734,14 +17994,14 @@
       <c r="H85" s="47">
         <v>1995</v>
       </c>
-      <c r="J85" s="330"/>
-      <c r="K85" s="336"/>
-      <c r="L85" s="363"/>
-      <c r="M85" s="365"/>
-    </row>
-    <row r="86" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A86" s="301"/>
-      <c r="B86" s="311" t="s">
+      <c r="J85" s="357"/>
+      <c r="K85" s="363"/>
+      <c r="L85" s="390"/>
+      <c r="M85" s="392"/>
+    </row>
+    <row r="86" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="330"/>
+      <c r="B86" s="340" t="s">
         <v>83</v>
       </c>
       <c r="C86" s="45" t="s">
@@ -16762,18 +18022,18 @@
       <c r="H86" s="47">
         <v>2680</v>
       </c>
-      <c r="J86" s="330"/>
-      <c r="K86" s="336"/>
-      <c r="L86" s="363" t="s">
+      <c r="J86" s="357"/>
+      <c r="K86" s="363"/>
+      <c r="L86" s="390" t="s">
         <v>131</v>
       </c>
-      <c r="M86" s="365" t="s">
+      <c r="M86" s="392" t="s">
         <v>2187</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A87" s="301"/>
-      <c r="B87" s="311"/>
+    <row r="87" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="330"/>
+      <c r="B87" s="340"/>
       <c r="C87" s="45" t="s">
         <v>27</v>
       </c>
@@ -16792,14 +18052,14 @@
       <c r="H87" s="47">
         <v>2445</v>
       </c>
-      <c r="J87" s="330"/>
-      <c r="K87" s="336"/>
-      <c r="L87" s="363"/>
-      <c r="M87" s="365"/>
-    </row>
-    <row r="88" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A88" s="301"/>
-      <c r="B88" s="311"/>
+      <c r="J87" s="357"/>
+      <c r="K87" s="363"/>
+      <c r="L87" s="390"/>
+      <c r="M87" s="392"/>
+    </row>
+    <row r="88" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="330"/>
+      <c r="B88" s="340"/>
       <c r="C88" s="45" t="s">
         <v>28</v>
       </c>
@@ -16818,14 +18078,14 @@
       <c r="H88" s="47">
         <v>2245</v>
       </c>
-      <c r="J88" s="330"/>
-      <c r="K88" s="336"/>
-      <c r="L88" s="363"/>
-      <c r="M88" s="365"/>
-    </row>
-    <row r="89" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="301"/>
-      <c r="B89" s="311"/>
+      <c r="J88" s="357"/>
+      <c r="K88" s="363"/>
+      <c r="L88" s="390"/>
+      <c r="M88" s="392"/>
+    </row>
+    <row r="89" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="330"/>
+      <c r="B89" s="340"/>
       <c r="C89" s="45" t="s">
         <v>23</v>
       </c>
@@ -16844,14 +18104,14 @@
       <c r="H89" s="47">
         <v>2380</v>
       </c>
-      <c r="J89" s="330"/>
-      <c r="K89" s="336"/>
-      <c r="L89" s="363"/>
-      <c r="M89" s="365"/>
-    </row>
-    <row r="90" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="301"/>
-      <c r="B90" s="311"/>
+      <c r="J89" s="357"/>
+      <c r="K89" s="363"/>
+      <c r="L89" s="390"/>
+      <c r="M89" s="392"/>
+    </row>
+    <row r="90" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="330"/>
+      <c r="B90" s="340"/>
       <c r="C90" s="45" t="s">
         <v>27</v>
       </c>
@@ -16870,14 +18130,14 @@
       <c r="H90" s="47">
         <v>2185</v>
       </c>
-      <c r="J90" s="330"/>
-      <c r="K90" s="336"/>
-      <c r="L90" s="363"/>
-      <c r="M90" s="365"/>
+      <c r="J90" s="357"/>
+      <c r="K90" s="363"/>
+      <c r="L90" s="390"/>
+      <c r="M90" s="392"/>
     </row>
     <row r="91" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="303"/>
-      <c r="B91" s="312"/>
+      <c r="A91" s="332"/>
+      <c r="B91" s="341"/>
       <c r="C91" s="48" t="s">
         <v>28</v>
       </c>
@@ -16896,16 +18156,16 @@
       <c r="H91" s="50">
         <v>1995</v>
       </c>
-      <c r="J91" s="331"/>
-      <c r="K91" s="337"/>
-      <c r="L91" s="366"/>
-      <c r="M91" s="367"/>
+      <c r="J91" s="358"/>
+      <c r="K91" s="364"/>
+      <c r="L91" s="393"/>
+      <c r="M91" s="394"/>
     </row>
     <row r="92" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="300" t="s">
+      <c r="A92" s="329" t="s">
         <v>87</v>
       </c>
-      <c r="B92" s="313" t="s">
+      <c r="B92" s="342" t="s">
         <v>85</v>
       </c>
       <c r="C92" s="43" t="s">
@@ -16926,22 +18186,22 @@
       <c r="H92" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="J92" s="342" t="s">
+      <c r="J92" s="369" t="s">
         <v>147</v>
       </c>
-      <c r="K92" s="335" t="s">
+      <c r="K92" s="362" t="s">
         <v>84</v>
       </c>
-      <c r="L92" s="338" t="s">
+      <c r="L92" s="365" t="s">
         <v>148</v>
       </c>
-      <c r="M92" s="346" t="s">
+      <c r="M92" s="373" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A93" s="301"/>
-      <c r="B93" s="314"/>
+    <row r="93" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="330"/>
+      <c r="B93" s="343"/>
       <c r="C93" s="46" t="s">
         <v>27</v>
       </c>
@@ -16960,14 +18220,14 @@
       <c r="H93" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="J93" s="330"/>
-      <c r="K93" s="336"/>
-      <c r="L93" s="339"/>
-      <c r="M93" s="347"/>
-    </row>
-    <row r="94" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A94" s="301"/>
-      <c r="B94" s="314"/>
+      <c r="J93" s="357"/>
+      <c r="K93" s="363"/>
+      <c r="L93" s="366"/>
+      <c r="M93" s="374"/>
+    </row>
+    <row r="94" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="330"/>
+      <c r="B94" s="343"/>
       <c r="C94" s="46" t="s">
         <v>23</v>
       </c>
@@ -16986,14 +18246,14 @@
       <c r="H94" s="73">
         <v>1260</v>
       </c>
-      <c r="J94" s="330"/>
-      <c r="K94" s="336"/>
-      <c r="L94" s="339"/>
-      <c r="M94" s="347"/>
-    </row>
-    <row r="95" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A95" s="301"/>
-      <c r="B95" s="314"/>
+      <c r="J94" s="357"/>
+      <c r="K94" s="363"/>
+      <c r="L94" s="366"/>
+      <c r="M94" s="374"/>
+    </row>
+    <row r="95" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="330"/>
+      <c r="B95" s="343"/>
       <c r="C95" s="46" t="s">
         <v>27</v>
       </c>
@@ -17012,14 +18272,14 @@
       <c r="H95" s="73">
         <v>1200</v>
       </c>
-      <c r="J95" s="330"/>
-      <c r="K95" s="336"/>
-      <c r="L95" s="339"/>
-      <c r="M95" s="347"/>
-    </row>
-    <row r="96" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A96" s="301"/>
-      <c r="B96" s="349" t="s">
+      <c r="J95" s="357"/>
+      <c r="K95" s="363"/>
+      <c r="L95" s="366"/>
+      <c r="M95" s="374"/>
+    </row>
+    <row r="96" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="330"/>
+      <c r="B96" s="376" t="s">
         <v>89</v>
       </c>
       <c r="C96" s="46" t="s">
@@ -17040,18 +18300,18 @@
       <c r="H96" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="J96" s="330"/>
-      <c r="K96" s="336"/>
-      <c r="L96" s="339" t="s">
+      <c r="J96" s="357"/>
+      <c r="K96" s="363"/>
+      <c r="L96" s="366" t="s">
         <v>149</v>
       </c>
-      <c r="M96" s="348" t="s">
+      <c r="M96" s="375" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A97" s="301"/>
-      <c r="B97" s="349"/>
+    <row r="97" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="330"/>
+      <c r="B97" s="376"/>
       <c r="C97" s="46" t="s">
         <v>27</v>
       </c>
@@ -17070,14 +18330,14 @@
       <c r="H97" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="J97" s="330"/>
-      <c r="K97" s="336"/>
-      <c r="L97" s="339"/>
-      <c r="M97" s="348"/>
-    </row>
-    <row r="98" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A98" s="301"/>
-      <c r="B98" s="349"/>
+      <c r="J97" s="357"/>
+      <c r="K97" s="363"/>
+      <c r="L97" s="366"/>
+      <c r="M97" s="375"/>
+    </row>
+    <row r="98" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="330"/>
+      <c r="B98" s="376"/>
       <c r="C98" s="46" t="s">
         <v>23</v>
       </c>
@@ -17096,14 +18356,14 @@
       <c r="H98" s="73">
         <v>1260</v>
       </c>
-      <c r="J98" s="330"/>
-      <c r="K98" s="336"/>
-      <c r="L98" s="339"/>
-      <c r="M98" s="348"/>
-    </row>
-    <row r="99" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A99" s="301"/>
-      <c r="B99" s="349"/>
+      <c r="J98" s="357"/>
+      <c r="K98" s="363"/>
+      <c r="L98" s="366"/>
+      <c r="M98" s="375"/>
+    </row>
+    <row r="99" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="330"/>
+      <c r="B99" s="376"/>
       <c r="C99" s="46" t="s">
         <v>27</v>
       </c>
@@ -17122,13 +18382,13 @@
       <c r="H99" s="73">
         <v>1200</v>
       </c>
-      <c r="J99" s="343"/>
-      <c r="K99" s="344"/>
-      <c r="L99" s="339"/>
-      <c r="M99" s="348"/>
+      <c r="J99" s="370"/>
+      <c r="K99" s="371"/>
+      <c r="L99" s="366"/>
+      <c r="M99" s="375"/>
     </row>
     <row r="100" spans="1:13" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="303"/>
+      <c r="A100" s="332"/>
       <c r="B100" s="152" t="s">
         <v>2188</v>
       </c>
@@ -17152,7 +18412,7 @@
       </c>
     </row>
     <row r="101" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="300" t="s">
+      <c r="A101" s="329" t="s">
         <v>91</v>
       </c>
       <c r="B101" s="153" t="s">
@@ -17166,21 +18426,21 @@
       <c r="F101" s="71"/>
       <c r="G101" s="43"/>
       <c r="H101" s="60"/>
-      <c r="J101" s="342" t="s">
+      <c r="J101" s="369" t="s">
         <v>146</v>
       </c>
-      <c r="K101" s="335" t="s">
+      <c r="K101" s="362" t="s">
         <v>90</v>
       </c>
-      <c r="L101" s="352" t="s">
+      <c r="L101" s="379" t="s">
         <v>2227</v>
       </c>
-      <c r="M101" s="354" t="s">
+      <c r="M101" s="381" t="s">
         <v>2226</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="301"/>
+    <row r="102" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="330"/>
       <c r="B102" s="154" t="s">
         <v>2223</v>
       </c>
@@ -17192,13 +18452,13 @@
       <c r="F102" s="72"/>
       <c r="G102" s="46"/>
       <c r="H102" s="61"/>
-      <c r="J102" s="330"/>
-      <c r="K102" s="336"/>
-      <c r="L102" s="353"/>
-      <c r="M102" s="351"/>
-    </row>
-    <row r="103" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="301"/>
+      <c r="J102" s="357"/>
+      <c r="K102" s="363"/>
+      <c r="L102" s="380"/>
+      <c r="M102" s="378"/>
+    </row>
+    <row r="103" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="330"/>
       <c r="B103" s="154" t="s">
         <v>2225</v>
       </c>
@@ -17210,17 +18470,17 @@
       <c r="F103" s="72"/>
       <c r="G103" s="46"/>
       <c r="H103" s="61"/>
-      <c r="J103" s="330"/>
-      <c r="K103" s="336"/>
-      <c r="L103" s="345" t="s">
+      <c r="J103" s="357"/>
+      <c r="K103" s="363"/>
+      <c r="L103" s="372" t="s">
         <v>154</v>
       </c>
-      <c r="M103" s="350" t="s">
+      <c r="M103" s="377" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="302"/>
+    <row r="104" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="331"/>
       <c r="B104" s="154" t="s">
         <v>2225</v>
       </c>
@@ -17232,13 +18492,13 @@
       <c r="F104" s="72"/>
       <c r="G104" s="46"/>
       <c r="H104" s="61"/>
-      <c r="J104" s="343"/>
-      <c r="K104" s="344"/>
-      <c r="L104" s="340"/>
-      <c r="M104" s="351"/>
+      <c r="J104" s="370"/>
+      <c r="K104" s="371"/>
+      <c r="L104" s="367"/>
+      <c r="M104" s="378"/>
     </row>
     <row r="105" spans="1:13" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="303"/>
+      <c r="A105" s="332"/>
       <c r="B105" s="152" t="s">
         <v>2188</v>
       </c>
@@ -17313,11 +18573,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="329" t="s">
+    <row r="108" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="356" t="s">
         <v>133</v>
       </c>
-      <c r="B108" s="359" t="s">
+      <c r="B108" s="386" t="s">
         <v>98</v>
       </c>
       <c r="C108" s="84" t="s">
@@ -17338,22 +18598,22 @@
       <c r="H108" s="87">
         <v>1915</v>
       </c>
-      <c r="J108" s="330" t="s">
+      <c r="J108" s="357" t="s">
         <v>151</v>
       </c>
-      <c r="K108" s="336" t="s">
+      <c r="K108" s="363" t="s">
         <v>97</v>
       </c>
-      <c r="L108" s="340" t="s">
+      <c r="L108" s="367" t="s">
         <v>152</v>
       </c>
-      <c r="M108" s="355" t="s">
+      <c r="M108" s="382" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="301"/>
-      <c r="B109" s="360"/>
+    <row r="109" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="330"/>
+      <c r="B109" s="387"/>
       <c r="C109" s="45" t="s">
         <v>27</v>
       </c>
@@ -17372,14 +18632,14 @@
       <c r="H109" s="47">
         <v>1775</v>
       </c>
-      <c r="J109" s="330"/>
-      <c r="K109" s="336"/>
-      <c r="L109" s="341"/>
-      <c r="M109" s="356"/>
-    </row>
-    <row r="110" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="301"/>
-      <c r="B110" s="360"/>
+      <c r="J109" s="357"/>
+      <c r="K109" s="363"/>
+      <c r="L109" s="368"/>
+      <c r="M109" s="383"/>
+    </row>
+    <row r="110" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="330"/>
+      <c r="B110" s="387"/>
       <c r="C110" s="45" t="s">
         <v>23</v>
       </c>
@@ -17398,14 +18658,14 @@
       <c r="H110" s="47">
         <v>1705</v>
       </c>
-      <c r="J110" s="330"/>
-      <c r="K110" s="336"/>
-      <c r="L110" s="341"/>
-      <c r="M110" s="356"/>
-    </row>
-    <row r="111" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A111" s="301"/>
-      <c r="B111" s="360"/>
+      <c r="J110" s="357"/>
+      <c r="K110" s="363"/>
+      <c r="L110" s="368"/>
+      <c r="M110" s="383"/>
+    </row>
+    <row r="111" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="330"/>
+      <c r="B111" s="387"/>
       <c r="C111" s="45" t="s">
         <v>27</v>
       </c>
@@ -17424,14 +18684,14 @@
       <c r="H111" s="47">
         <v>1570</v>
       </c>
-      <c r="J111" s="330"/>
-      <c r="K111" s="336"/>
-      <c r="L111" s="341"/>
-      <c r="M111" s="356"/>
-    </row>
-    <row r="112" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A112" s="301"/>
-      <c r="B112" s="349" t="s">
+      <c r="J111" s="357"/>
+      <c r="K111" s="363"/>
+      <c r="L111" s="368"/>
+      <c r="M111" s="383"/>
+    </row>
+    <row r="112" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="330"/>
+      <c r="B112" s="376" t="s">
         <v>2228</v>
       </c>
       <c r="C112" s="45" t="s">
@@ -17452,18 +18712,18 @@
       <c r="H112" s="47">
         <v>1915</v>
       </c>
-      <c r="J112" s="330"/>
-      <c r="K112" s="336"/>
-      <c r="L112" s="341" t="s">
+      <c r="J112" s="357"/>
+      <c r="K112" s="363"/>
+      <c r="L112" s="368" t="s">
         <v>153</v>
       </c>
-      <c r="M112" s="348" t="s">
+      <c r="M112" s="375" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="301"/>
-      <c r="B113" s="349"/>
+    <row r="113" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="330"/>
+      <c r="B113" s="376"/>
       <c r="C113" s="45" t="s">
         <v>27</v>
       </c>
@@ -17482,14 +18742,14 @@
       <c r="H113" s="47">
         <v>1775</v>
       </c>
-      <c r="J113" s="330"/>
-      <c r="K113" s="336"/>
-      <c r="L113" s="341"/>
-      <c r="M113" s="348"/>
-    </row>
-    <row r="114" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="301"/>
-      <c r="B114" s="349"/>
+      <c r="J113" s="357"/>
+      <c r="K113" s="363"/>
+      <c r="L113" s="368"/>
+      <c r="M113" s="375"/>
+    </row>
+    <row r="114" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="330"/>
+      <c r="B114" s="376"/>
       <c r="C114" s="45" t="s">
         <v>23</v>
       </c>
@@ -17508,14 +18768,14 @@
       <c r="H114" s="47">
         <v>1705</v>
       </c>
-      <c r="J114" s="330"/>
-      <c r="K114" s="336"/>
-      <c r="L114" s="341"/>
-      <c r="M114" s="348"/>
+      <c r="J114" s="357"/>
+      <c r="K114" s="363"/>
+      <c r="L114" s="368"/>
+      <c r="M114" s="375"/>
     </row>
     <row r="115" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="303"/>
-      <c r="B115" s="361"/>
+      <c r="A115" s="332"/>
+      <c r="B115" s="388"/>
       <c r="C115" s="48" t="s">
         <v>27</v>
       </c>
@@ -17534,10 +18794,10 @@
       <c r="H115" s="50">
         <v>1570</v>
       </c>
-      <c r="J115" s="331"/>
-      <c r="K115" s="337"/>
-      <c r="L115" s="357"/>
-      <c r="M115" s="358"/>
+      <c r="J115" s="358"/>
+      <c r="K115" s="364"/>
+      <c r="L115" s="384"/>
+      <c r="M115" s="385"/>
     </row>
     <row r="116" spans="1:13" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
@@ -17566,8 +18826,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A117" s="319" t="s">
+    <row r="117" spans="1:13" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="348" t="s">
         <v>103</v>
       </c>
       <c r="B117" s="89" t="s">
@@ -17591,10 +18851,10 @@
       <c r="H117" s="44">
         <v>14800</v>
       </c>
-      <c r="J117" s="332" t="s">
+      <c r="J117" s="359" t="s">
         <v>159</v>
       </c>
-      <c r="K117" s="335" t="s">
+      <c r="K117" s="362" t="s">
         <v>165</v>
       </c>
       <c r="L117" s="100" t="s">
@@ -17604,8 +18864,8 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A118" s="320"/>
+    <row r="118" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="349"/>
       <c r="B118" s="56" t="s">
         <v>2230</v>
       </c>
@@ -17627,8 +18887,8 @@
       <c r="H118" s="47">
         <v>13880</v>
       </c>
-      <c r="J118" s="333"/>
-      <c r="K118" s="336"/>
+      <c r="J118" s="360"/>
+      <c r="K118" s="363"/>
       <c r="L118" s="24" t="s">
         <v>132</v>
       </c>
@@ -17636,8 +18896,8 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A119" s="320"/>
+    <row r="119" spans="1:13" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="349"/>
       <c r="B119" s="56" t="s">
         <v>2231</v>
       </c>
@@ -17659,8 +18919,8 @@
       <c r="H119" s="47">
         <v>12940</v>
       </c>
-      <c r="J119" s="333"/>
-      <c r="K119" s="336"/>
+      <c r="J119" s="360"/>
+      <c r="K119" s="363"/>
       <c r="L119" s="101" t="s">
         <v>132</v>
       </c>
@@ -17669,7 +18929,7 @@
       </c>
     </row>
     <row r="120" spans="1:13" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="321"/>
+      <c r="A120" s="350"/>
       <c r="B120" s="91" t="s">
         <v>2232</v>
       </c>
@@ -17691,8 +18951,8 @@
       <c r="H120" s="83">
         <v>12000</v>
       </c>
-      <c r="J120" s="334"/>
-      <c r="K120" s="337"/>
+      <c r="J120" s="361"/>
+      <c r="K120" s="364"/>
       <c r="L120" s="25" t="s">
         <v>132</v>
       </c>
@@ -17755,10 +19015,10 @@
       </c>
     </row>
     <row r="123" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="322" t="s">
+      <c r="A123" s="311" t="s">
         <v>2247</v>
       </c>
-      <c r="B123" s="324" t="s">
+      <c r="B123" s="351" t="s">
         <v>2250</v>
       </c>
       <c r="C123" s="190" t="s">
@@ -17785,8 +19045,8 @@
       <c r="M123" s="189"/>
     </row>
     <row r="124" spans="1:13" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="323"/>
-      <c r="B124" s="325"/>
+      <c r="A124" s="313"/>
+      <c r="B124" s="352"/>
       <c r="C124" s="192" t="s">
         <v>27</v>
       </c>
@@ -17811,10 +19071,10 @@
       <c r="M124" s="189"/>
     </row>
     <row r="125" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="288" t="s">
+      <c r="A125" s="305" t="s">
         <v>2248</v>
       </c>
-      <c r="B125" s="326" t="s">
+      <c r="B125" s="353" t="s">
         <v>2261</v>
       </c>
       <c r="C125" s="190" t="s">
@@ -17840,9 +19100,9 @@
       <c r="L125" s="189"/>
       <c r="M125" s="189"/>
     </row>
-    <row r="126" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="289"/>
-      <c r="B126" s="327"/>
+    <row r="126" spans="1:13" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="306"/>
+      <c r="B126" s="354"/>
       <c r="C126" s="191" t="s">
         <v>27</v>
       </c>
@@ -17866,9 +19126,9 @@
       <c r="L126" s="189"/>
       <c r="M126" s="189"/>
     </row>
-    <row r="127" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="289"/>
-      <c r="B127" s="327"/>
+    <row r="127" spans="1:13" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="306"/>
+      <c r="B127" s="354"/>
       <c r="C127" s="191" t="s">
         <v>23</v>
       </c>
@@ -17893,8 +19153,8 @@
       <c r="M127" s="189"/>
     </row>
     <row r="128" spans="1:13" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="290"/>
-      <c r="B128" s="328"/>
+      <c r="A128" s="307"/>
+      <c r="B128" s="355"/>
       <c r="C128" s="192" t="s">
         <v>27</v>
       </c>
@@ -17919,10 +19179,10 @@
       <c r="M128" s="189"/>
     </row>
     <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="409" t="s">
+      <c r="A129" s="436" t="s">
         <v>109</v>
       </c>
-      <c r="B129" s="326" t="s">
+      <c r="B129" s="353" t="s">
         <v>2236</v>
       </c>
       <c r="C129" s="190" t="s">
@@ -17948,9 +19208,9 @@
       <c r="L129" s="189"/>
       <c r="M129" s="189"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" s="410"/>
-      <c r="B130" s="327"/>
+    <row r="130" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="437"/>
+      <c r="B130" s="354"/>
       <c r="C130" s="191" t="s">
         <v>27</v>
       </c>
@@ -17974,9 +19234,9 @@
       <c r="L130" s="189"/>
       <c r="M130" s="189"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" s="410"/>
-      <c r="B131" s="327"/>
+    <row r="131" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="437"/>
+      <c r="B131" s="354"/>
       <c r="C131" s="191" t="s">
         <v>28</v>
       </c>
@@ -18000,9 +19260,9 @@
       <c r="L131" s="189"/>
       <c r="M131" s="189"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132" s="410"/>
-      <c r="B132" s="327" t="s">
+    <row r="132" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="437"/>
+      <c r="B132" s="354" t="s">
         <v>2237</v>
       </c>
       <c r="C132" s="191" t="s">
@@ -18028,9 +19288,9 @@
       <c r="L132" s="189"/>
       <c r="M132" s="189"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" s="410"/>
-      <c r="B133" s="327"/>
+    <row r="133" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="437"/>
+      <c r="B133" s="354"/>
       <c r="C133" s="191" t="s">
         <v>27</v>
       </c>
@@ -18054,9 +19314,9 @@
       <c r="L133" s="189"/>
       <c r="M133" s="189"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" s="410"/>
-      <c r="B134" s="327"/>
+    <row r="134" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="437"/>
+      <c r="B134" s="354"/>
       <c r="C134" s="191" t="s">
         <v>28</v>
       </c>
@@ -18080,9 +19340,9 @@
       <c r="L134" s="189"/>
       <c r="M134" s="189"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" s="410"/>
-      <c r="B135" s="327" t="s">
+    <row r="135" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="437"/>
+      <c r="B135" s="354" t="s">
         <v>2238</v>
       </c>
       <c r="C135" s="191" t="s">
@@ -18108,9 +19368,9 @@
       <c r="L135" s="189"/>
       <c r="M135" s="189"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" s="410"/>
-      <c r="B136" s="327"/>
+    <row r="136" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="437"/>
+      <c r="B136" s="354"/>
       <c r="C136" s="191" t="s">
         <v>27</v>
       </c>
@@ -18135,8 +19395,8 @@
       <c r="M136" s="189"/>
     </row>
     <row r="137" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="411"/>
-      <c r="B137" s="328"/>
+      <c r="A137" s="438"/>
+      <c r="B137" s="355"/>
       <c r="C137" s="192" t="s">
         <v>28</v>
       </c>
@@ -18160,11 +19420,11 @@
       <c r="L137" s="189"/>
       <c r="M137" s="189"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138" s="409" t="s">
+    <row r="138" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="436" t="s">
         <v>106</v>
       </c>
-      <c r="B138" s="326" t="s">
+      <c r="B138" s="353" t="s">
         <v>2240</v>
       </c>
       <c r="C138" s="190" t="s">
@@ -18190,9 +19450,9 @@
       <c r="L138" s="189"/>
       <c r="M138" s="189"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139" s="410"/>
-      <c r="B139" s="327"/>
+    <row r="139" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="437"/>
+      <c r="B139" s="354"/>
       <c r="C139" s="191" t="s">
         <v>27</v>
       </c>
@@ -18216,9 +19476,9 @@
       <c r="L139" s="189"/>
       <c r="M139" s="189"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140" s="410"/>
-      <c r="B140" s="327"/>
+    <row r="140" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="437"/>
+      <c r="B140" s="354"/>
       <c r="C140" s="191" t="s">
         <v>28</v>
       </c>
@@ -18242,9 +19502,9 @@
       <c r="L140" s="189"/>
       <c r="M140" s="189"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" s="410"/>
-      <c r="B141" s="327" t="s">
+    <row r="141" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="437"/>
+      <c r="B141" s="354" t="s">
         <v>2241</v>
       </c>
       <c r="C141" s="191" t="s">
@@ -18270,9 +19530,9 @@
       <c r="L141" s="189"/>
       <c r="M141" s="189"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142" s="410"/>
-      <c r="B142" s="327"/>
+    <row r="142" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="437"/>
+      <c r="B142" s="354"/>
       <c r="C142" s="191" t="s">
         <v>27</v>
       </c>
@@ -18296,9 +19556,9 @@
       <c r="L142" s="189"/>
       <c r="M142" s="189"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="410"/>
-      <c r="B143" s="327"/>
+    <row r="143" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="437"/>
+      <c r="B143" s="354"/>
       <c r="C143" s="191" t="s">
         <v>28</v>
       </c>
@@ -18322,9 +19582,9 @@
       <c r="L143" s="189"/>
       <c r="M143" s="189"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="410"/>
-      <c r="B144" s="327" t="s">
+    <row r="144" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="437"/>
+      <c r="B144" s="354" t="s">
         <v>2242</v>
       </c>
       <c r="C144" s="191" t="s">
@@ -18350,9 +19610,9 @@
       <c r="L144" s="189"/>
       <c r="M144" s="189"/>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145" s="410"/>
-      <c r="B145" s="327"/>
+    <row r="145" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="437"/>
+      <c r="B145" s="354"/>
       <c r="C145" s="191" t="s">
         <v>27</v>
       </c>
@@ -18377,8 +19637,8 @@
       <c r="M145" s="189"/>
     </row>
     <row r="146" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="411"/>
-      <c r="B146" s="328"/>
+      <c r="A146" s="438"/>
+      <c r="B146" s="355"/>
       <c r="C146" s="192" t="s">
         <v>28</v>
       </c>
@@ -18402,11 +19662,11 @@
       <c r="L146" s="189"/>
       <c r="M146" s="189"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A147" s="322" t="s">
+    <row r="147" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="311" t="s">
         <v>2271</v>
       </c>
-      <c r="B147" s="326" t="s">
+      <c r="B147" s="353" t="s">
         <v>2243</v>
       </c>
       <c r="C147" s="190" t="s">
@@ -18433,8 +19693,8 @@
       <c r="M147" s="189"/>
     </row>
     <row r="148" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="323"/>
-      <c r="B148" s="328"/>
+      <c r="A148" s="313"/>
+      <c r="B148" s="355"/>
       <c r="C148" s="192" t="s">
         <v>27</v>
       </c>
@@ -18459,10 +19719,10 @@
       <c r="M148" s="189"/>
     </row>
     <row r="149" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="288" t="s">
+      <c r="A149" s="305" t="s">
         <v>104</v>
       </c>
-      <c r="B149" s="326" t="s">
+      <c r="B149" s="353" t="s">
         <v>2244</v>
       </c>
       <c r="C149" s="190" t="s">
@@ -18489,8 +19749,8 @@
       <c r="M149" s="189"/>
     </row>
     <row r="150" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="289"/>
-      <c r="B150" s="327"/>
+      <c r="A150" s="306"/>
+      <c r="B150" s="354"/>
       <c r="C150" s="191" t="s">
         <v>27</v>
       </c>
@@ -18515,8 +19775,8 @@
       <c r="M150" s="189"/>
     </row>
     <row r="151" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="289"/>
-      <c r="B151" s="327"/>
+      <c r="A151" s="306"/>
+      <c r="B151" s="354"/>
       <c r="C151" s="191" t="s">
         <v>28</v>
       </c>
@@ -18541,8 +19801,8 @@
       <c r="M151" s="189"/>
     </row>
     <row r="152" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="289"/>
-      <c r="B152" s="327" t="s">
+      <c r="A152" s="306"/>
+      <c r="B152" s="354" t="s">
         <v>2245</v>
       </c>
       <c r="C152" s="191" t="s">
@@ -18569,8 +19829,8 @@
       <c r="M152" s="189"/>
     </row>
     <row r="153" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="289"/>
-      <c r="B153" s="327"/>
+      <c r="A153" s="306"/>
+      <c r="B153" s="354"/>
       <c r="C153" s="191" t="s">
         <v>27</v>
       </c>
@@ -18595,8 +19855,8 @@
       <c r="M153" s="189"/>
     </row>
     <row r="154" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="289"/>
-      <c r="B154" s="327"/>
+      <c r="A154" s="306"/>
+      <c r="B154" s="354"/>
       <c r="C154" s="191" t="s">
         <v>28</v>
       </c>
@@ -18621,8 +19881,8 @@
       <c r="M154" s="189"/>
     </row>
     <row r="155" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="289"/>
-      <c r="B155" s="327" t="s">
+      <c r="A155" s="306"/>
+      <c r="B155" s="354" t="s">
         <v>2246</v>
       </c>
       <c r="C155" s="191" t="s">
@@ -18649,8 +19909,8 @@
       <c r="M155" s="189"/>
     </row>
     <row r="156" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="289"/>
-      <c r="B156" s="327"/>
+      <c r="A156" s="306"/>
+      <c r="B156" s="354"/>
       <c r="C156" s="191" t="s">
         <v>27</v>
       </c>
@@ -18675,8 +19935,8 @@
       <c r="M156" s="189"/>
     </row>
     <row r="157" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="290"/>
-      <c r="B157" s="328"/>
+      <c r="A157" s="307"/>
+      <c r="B157" s="355"/>
       <c r="C157" s="192" t="s">
         <v>28</v>
       </c>
@@ -18701,10 +19961,10 @@
       <c r="M157" s="189"/>
     </row>
     <row r="158" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="288" t="s">
+      <c r="A158" s="305" t="s">
         <v>2249</v>
       </c>
-      <c r="B158" s="326" t="s">
+      <c r="B158" s="353" t="s">
         <v>2280</v>
       </c>
       <c r="C158" s="190" t="s">
@@ -18731,8 +19991,8 @@
       <c r="M158" s="189"/>
     </row>
     <row r="159" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="289"/>
-      <c r="B159" s="327"/>
+      <c r="A159" s="306"/>
+      <c r="B159" s="354"/>
       <c r="C159" s="191" t="s">
         <v>27</v>
       </c>
@@ -18757,8 +20017,8 @@
       <c r="M159" s="189"/>
     </row>
     <row r="160" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="289"/>
-      <c r="B160" s="327" t="s">
+      <c r="A160" s="306"/>
+      <c r="B160" s="354" t="s">
         <v>2284</v>
       </c>
       <c r="C160" s="191" t="s">
@@ -18785,8 +20045,8 @@
       <c r="M160" s="189"/>
     </row>
     <row r="161" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="290"/>
-      <c r="B161" s="328"/>
+      <c r="A161" s="307"/>
+      <c r="B161" s="355"/>
       <c r="C161" s="192" t="s">
         <v>27</v>
       </c>
@@ -18810,8 +20070,8 @@
       <c r="L161" s="189"/>
       <c r="M161" s="189"/>
     </row>
-    <row r="162" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="288" t="s">
+    <row r="162" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="305" t="s">
         <v>2304</v>
       </c>
       <c r="B162" s="232" t="s">
@@ -18836,8 +20096,8 @@
         <v>5310</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="289"/>
+    <row r="163" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="306"/>
       <c r="B163" s="236" t="s">
         <v>2350</v>
       </c>
@@ -18860,8 +20120,8 @@
         <v>4860</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="289"/>
+    <row r="164" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="306"/>
       <c r="B164" s="236" t="s">
         <v>2350</v>
       </c>
@@ -18884,8 +20144,8 @@
         <v>3870</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="289"/>
+    <row r="165" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="306"/>
       <c r="B165" s="236" t="s">
         <v>2350</v>
       </c>
@@ -18908,8 +20168,8 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166" s="289"/>
+    <row r="166" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="306"/>
       <c r="B166" s="236" t="s">
         <v>2351</v>
       </c>
@@ -18932,8 +20192,8 @@
         <v>5310</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167" s="289"/>
+    <row r="167" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="306"/>
       <c r="B167" s="236" t="s">
         <v>2351</v>
       </c>
@@ -18956,8 +20216,8 @@
         <v>4860</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A168" s="289"/>
+    <row r="168" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="306"/>
       <c r="B168" s="236" t="s">
         <v>2351</v>
       </c>
@@ -18981,7 +20241,7 @@
       </c>
     </row>
     <row r="169" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="290"/>
+      <c r="A169" s="307"/>
       <c r="B169" s="240" t="s">
         <v>2351</v>
       </c>
@@ -19004,8 +20264,8 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="291" t="s">
+    <row r="170" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="320" t="s">
         <v>2324</v>
       </c>
       <c r="B170" s="232" t="s">
@@ -19030,8 +20290,8 @@
         <v>8280</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="292"/>
+    <row r="171" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="321"/>
       <c r="B171" s="236" t="s">
         <v>2352</v>
       </c>
@@ -19054,8 +20314,8 @@
         <v>7110</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A172" s="292"/>
+    <row r="172" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="321"/>
       <c r="B172" s="236" t="s">
         <v>2352</v>
       </c>
@@ -19078,8 +20338,8 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="292"/>
+    <row r="173" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="321"/>
       <c r="B173" s="236" t="s">
         <v>2352</v>
       </c>
@@ -19102,8 +20362,8 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="292"/>
+    <row r="174" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="321"/>
       <c r="B174" s="236" t="s">
         <v>2353</v>
       </c>
@@ -19126,8 +20386,8 @@
         <v>8280</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="292"/>
+    <row r="175" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="321"/>
       <c r="B175" s="236" t="s">
         <v>2353</v>
       </c>
@@ -19150,8 +20410,8 @@
         <v>7110</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="292"/>
+    <row r="176" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="321"/>
       <c r="B176" s="236" t="s">
         <v>2353</v>
       </c>
@@ -19174,8 +20434,8 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="292"/>
+    <row r="177" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="321"/>
       <c r="B177" s="236" t="s">
         <v>2353</v>
       </c>
@@ -19198,8 +20458,8 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A178" s="292"/>
+    <row r="178" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="321"/>
       <c r="B178" s="236" t="s">
         <v>2354</v>
       </c>
@@ -19222,8 +20482,8 @@
         <v>8280</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A179" s="292"/>
+    <row r="179" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="321"/>
       <c r="B179" s="236" t="s">
         <v>2354</v>
       </c>
@@ -19246,8 +20506,8 @@
         <v>7110</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A180" s="292"/>
+    <row r="180" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="321"/>
       <c r="B180" s="236" t="s">
         <v>2354</v>
       </c>
@@ -19271,7 +20531,7 @@
       </c>
     </row>
     <row r="181" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="293"/>
+      <c r="A181" s="322"/>
       <c r="B181" s="240" t="s">
         <v>2354</v>
       </c>
@@ -19294,8 +20554,8 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="291" t="s">
+    <row r="182" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="320" t="s">
         <v>2329</v>
       </c>
       <c r="B182" s="232" t="s">
@@ -19320,8 +20580,8 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A183" s="294"/>
+    <row r="183" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="323"/>
       <c r="B183" s="236" t="s">
         <v>2355</v>
       </c>
@@ -19344,8 +20604,8 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="294"/>
+    <row r="184" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="323"/>
       <c r="B184" s="236" t="s">
         <v>2355</v>
       </c>
@@ -19368,8 +20628,8 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A185" s="294"/>
+    <row r="185" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="323"/>
       <c r="B185" s="236" t="s">
         <v>2356</v>
       </c>
@@ -19392,8 +20652,8 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="294"/>
+    <row r="186" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="323"/>
       <c r="B186" s="236" t="s">
         <v>2356</v>
       </c>
@@ -19416,8 +20676,8 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="294"/>
+    <row r="187" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="323"/>
       <c r="B187" s="236" t="s">
         <v>2356</v>
       </c>
@@ -19440,8 +20700,8 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A188" s="294"/>
+    <row r="188" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="323"/>
       <c r="B188" s="236" t="s">
         <v>2357</v>
       </c>
@@ -19464,8 +20724,8 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A189" s="294"/>
+    <row r="189" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="323"/>
       <c r="B189" s="236" t="s">
         <v>2357</v>
       </c>
@@ -19489,7 +20749,7 @@
       </c>
     </row>
     <row r="190" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="295"/>
+      <c r="A190" s="324"/>
       <c r="B190" s="240" t="s">
         <v>2357</v>
       </c>
@@ -19512,8 +20772,8 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="291" t="s">
+    <row r="191" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="320" t="s">
         <v>2331</v>
       </c>
       <c r="B191" s="232" t="s">
@@ -19538,8 +20798,8 @@
         <v>4496</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A192" s="294"/>
+    <row r="192" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="323"/>
       <c r="B192" s="236" t="s">
         <v>2358</v>
       </c>
@@ -19562,8 +20822,8 @@
         <v>4163</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A193" s="294"/>
+    <row r="193" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="323"/>
       <c r="B193" s="236" t="s">
         <v>2358</v>
       </c>
@@ -19586,8 +20846,8 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A194" s="294"/>
+    <row r="194" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="323"/>
       <c r="B194" s="236" t="s">
         <v>2358</v>
       </c>
@@ -19610,8 +20870,8 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="294"/>
+    <row r="195" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="323"/>
       <c r="B195" s="236" t="s">
         <v>2359</v>
       </c>
@@ -19634,8 +20894,8 @@
         <v>4496</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="294"/>
+    <row r="196" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="323"/>
       <c r="B196" s="236" t="s">
         <v>2359</v>
       </c>
@@ -19658,8 +20918,8 @@
         <v>4163</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="294"/>
+    <row r="197" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="323"/>
       <c r="B197" s="236" t="s">
         <v>2359</v>
       </c>
@@ -19683,7 +20943,7 @@
       </c>
     </row>
     <row r="198" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="295"/>
+      <c r="A198" s="324"/>
       <c r="B198" s="240" t="s">
         <v>2359</v>
       </c>
@@ -19706,8 +20966,8 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A199" s="291" t="s">
+    <row r="199" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="320" t="s">
         <v>2333</v>
       </c>
       <c r="B199" s="245" t="s">
@@ -19732,8 +20992,8 @@
         <v>4496</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A200" s="292"/>
+    <row r="200" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="321"/>
       <c r="B200" s="246" t="s">
         <v>2360</v>
       </c>
@@ -19756,8 +21016,8 @@
         <v>4163</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A201" s="292"/>
+    <row r="201" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="321"/>
       <c r="B201" s="246" t="s">
         <v>2360</v>
       </c>
@@ -19780,8 +21040,8 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A202" s="292"/>
+    <row r="202" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="321"/>
       <c r="B202" s="246" t="s">
         <v>2360</v>
       </c>
@@ -19804,8 +21064,8 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A203" s="292"/>
+    <row r="203" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="321"/>
       <c r="B203" s="246" t="s">
         <v>2361</v>
       </c>
@@ -19828,8 +21088,8 @@
         <v>4496</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A204" s="292"/>
+    <row r="204" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="321"/>
       <c r="B204" s="246" t="s">
         <v>2361</v>
       </c>
@@ -19852,8 +21112,8 @@
         <v>4163</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A205" s="292"/>
+    <row r="205" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="321"/>
       <c r="B205" s="246" t="s">
         <v>2361</v>
       </c>
@@ -19876,8 +21136,8 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A206" s="292"/>
+    <row r="206" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="321"/>
       <c r="B206" s="246" t="s">
         <v>2361</v>
       </c>
@@ -19900,8 +21160,8 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A207" s="292"/>
+    <row r="207" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="321"/>
       <c r="B207" s="246" t="s">
         <v>2362</v>
       </c>
@@ -19924,8 +21184,8 @@
         <v>4496</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A208" s="292"/>
+    <row r="208" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="321"/>
       <c r="B208" s="246" t="s">
         <v>2362</v>
       </c>
@@ -19948,8 +21208,8 @@
         <v>4163</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A209" s="292"/>
+    <row r="209" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="321"/>
       <c r="B209" s="246" t="s">
         <v>2362</v>
       </c>
@@ -19973,7 +21233,7 @@
       </c>
     </row>
     <row r="210" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="293"/>
+      <c r="A210" s="322"/>
       <c r="B210" s="247" t="s">
         <v>2362</v>
       </c>
@@ -19996,8 +21256,8 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="291" t="s">
+    <row r="211" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="320" t="s">
         <v>2335</v>
       </c>
       <c r="B211" s="232" t="s">
@@ -20022,8 +21282,8 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A212" s="294"/>
+    <row r="212" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="323"/>
       <c r="B212" s="236" t="s">
         <v>2355</v>
       </c>
@@ -20046,8 +21306,8 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A213" s="294"/>
+    <row r="213" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="323"/>
       <c r="B213" s="236" t="s">
         <v>2355</v>
       </c>
@@ -20070,8 +21330,8 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A214" s="294"/>
+    <row r="214" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="323"/>
       <c r="B214" s="236" t="s">
         <v>2356</v>
       </c>
@@ -20094,8 +21354,8 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A215" s="294"/>
+    <row r="215" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="323"/>
       <c r="B215" s="236" t="s">
         <v>2356</v>
       </c>
@@ -20118,8 +21378,8 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A216" s="294"/>
+    <row r="216" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="323"/>
       <c r="B216" s="236" t="s">
         <v>2356</v>
       </c>
@@ -20142,8 +21402,8 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="294"/>
+    <row r="217" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="323"/>
       <c r="B217" s="236" t="s">
         <v>2357</v>
       </c>
@@ -20166,8 +21426,8 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="294"/>
+    <row r="218" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="323"/>
       <c r="B218" s="236" t="s">
         <v>2357</v>
       </c>
@@ -20191,7 +21451,7 @@
       </c>
     </row>
     <row r="219" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="295"/>
+      <c r="A219" s="324"/>
       <c r="B219" s="240" t="s">
         <v>2357</v>
       </c>
@@ -20214,8 +21474,8 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A220" s="296" t="s">
+    <row r="220" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="325" t="s">
         <v>2337</v>
       </c>
       <c r="B220" s="232" t="s">
@@ -20240,8 +21500,8 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A221" s="294"/>
+    <row r="221" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="323"/>
       <c r="B221" s="236" t="s">
         <v>2363</v>
       </c>
@@ -20264,8 +21524,8 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A222" s="294"/>
+    <row r="222" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="323"/>
       <c r="B222" s="236" t="s">
         <v>2364</v>
       </c>
@@ -20289,7 +21549,7 @@
       </c>
     </row>
     <row r="223" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="295"/>
+      <c r="A223" s="324"/>
       <c r="B223" s="240" t="s">
         <v>2364</v>
       </c>
@@ -20312,8 +21572,8 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A224" s="291" t="s">
+    <row r="224" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="320" t="s">
         <v>2342</v>
       </c>
       <c r="B224" s="232" t="s">
@@ -20338,8 +21598,8 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A225" s="294"/>
+    <row r="225" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="323"/>
       <c r="B225" s="236" t="s">
         <v>2365</v>
       </c>
@@ -20362,8 +21622,8 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A226" s="294"/>
+    <row r="226" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="323"/>
       <c r="B226" s="236" t="s">
         <v>2366</v>
       </c>
@@ -20386,8 +21646,8 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A227" s="294"/>
+    <row r="227" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="323"/>
       <c r="B227" s="236" t="s">
         <v>2366</v>
       </c>
@@ -20410,8 +21670,8 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A228" s="294"/>
+    <row r="228" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="323"/>
       <c r="B228" s="236" t="s">
         <v>2367</v>
       </c>
@@ -20435,7 +21695,7 @@
       </c>
     </row>
     <row r="229" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="295"/>
+      <c r="A229" s="324"/>
       <c r="B229" s="240" t="s">
         <v>2367</v>
       </c>
@@ -20458,8 +21718,8 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A230" s="282" t="s">
+    <row r="230" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="314" t="s">
         <v>109</v>
       </c>
       <c r="B230" s="232" t="s">
@@ -20484,8 +21744,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A231" s="283"/>
+    <row r="231" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="315"/>
       <c r="B231" s="236" t="s">
         <v>2236</v>
       </c>
@@ -20508,8 +21768,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A232" s="283"/>
+    <row r="232" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="315"/>
       <c r="B232" s="236" t="s">
         <v>2236</v>
       </c>
@@ -20532,8 +21792,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A233" s="283"/>
+    <row r="233" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="315"/>
       <c r="B233" s="236" t="s">
         <v>2237</v>
       </c>
@@ -20556,8 +21816,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A234" s="283"/>
+    <row r="234" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="315"/>
       <c r="B234" s="236" t="s">
         <v>2237</v>
       </c>
@@ -20580,8 +21840,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A235" s="283"/>
+    <row r="235" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="315"/>
       <c r="B235" s="236" t="s">
         <v>2237</v>
       </c>
@@ -20604,8 +21864,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A236" s="283"/>
+    <row r="236" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="315"/>
       <c r="B236" s="236" t="s">
         <v>2238</v>
       </c>
@@ -20628,8 +21888,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A237" s="283"/>
+    <row r="237" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="315"/>
       <c r="B237" s="236" t="s">
         <v>2238</v>
       </c>
@@ -20653,7 +21913,7 @@
       </c>
     </row>
     <row r="238" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="284"/>
+      <c r="A238" s="316"/>
       <c r="B238" s="240" t="s">
         <v>2238</v>
       </c>
@@ -20676,8 +21936,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A239" s="282" t="s">
+    <row r="239" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="314" t="s">
         <v>106</v>
       </c>
       <c r="B239" s="254" t="s">
@@ -20702,8 +21962,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A240" s="283"/>
+    <row r="240" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="315"/>
       <c r="B240" s="255" t="s">
         <v>2240</v>
       </c>
@@ -20726,8 +21986,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="283"/>
+    <row r="241" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="315"/>
       <c r="B241" s="255" t="s">
         <v>2240</v>
       </c>
@@ -20750,8 +22010,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A242" s="283"/>
+    <row r="242" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="315"/>
       <c r="B242" s="255" t="s">
         <v>2241</v>
       </c>
@@ -20774,8 +22034,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A243" s="283"/>
+    <row r="243" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="315"/>
       <c r="B243" s="255" t="s">
         <v>2241</v>
       </c>
@@ -20798,8 +22058,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A244" s="283"/>
+    <row r="244" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="315"/>
       <c r="B244" s="255" t="s">
         <v>2241</v>
       </c>
@@ -20822,8 +22082,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A245" s="283"/>
+    <row r="245" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="315"/>
       <c r="B245" s="255" t="s">
         <v>2242</v>
       </c>
@@ -20846,8 +22106,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A246" s="283"/>
+    <row r="246" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="315"/>
       <c r="B246" s="255" t="s">
         <v>2242</v>
       </c>
@@ -20871,7 +22131,7 @@
       </c>
     </row>
     <row r="247" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="284"/>
+      <c r="A247" s="316"/>
       <c r="B247" s="256" t="s">
         <v>2242</v>
       </c>
@@ -20894,8 +22154,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" s="282" t="s">
+    <row r="248" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="314" t="s">
         <v>2373</v>
       </c>
       <c r="B248" s="254" t="s">
@@ -20921,7 +22181,7 @@
       </c>
     </row>
     <row r="249" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="284"/>
+      <c r="A249" s="316"/>
       <c r="B249" s="256" t="s">
         <v>2243</v>
       </c>
@@ -20944,8 +22204,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A250" s="285" t="s">
+    <row r="250" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="317" t="s">
         <v>104</v>
       </c>
       <c r="B250" s="254" t="s">
@@ -20970,8 +22230,8 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A251" s="286"/>
+    <row r="251" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="318"/>
       <c r="B251" s="255" t="s">
         <v>2244</v>
       </c>
@@ -20994,8 +22254,8 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A252" s="286"/>
+    <row r="252" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="318"/>
       <c r="B252" s="255" t="s">
         <v>2244</v>
       </c>
@@ -21018,8 +22278,8 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A253" s="286"/>
+    <row r="253" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="318"/>
       <c r="B253" s="255" t="s">
         <v>2245</v>
       </c>
@@ -21042,8 +22302,8 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A254" s="286"/>
+    <row r="254" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="318"/>
       <c r="B254" s="255" t="s">
         <v>2245</v>
       </c>
@@ -21066,8 +22326,8 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A255" s="286"/>
+    <row r="255" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="318"/>
       <c r="B255" s="255" t="s">
         <v>2245</v>
       </c>
@@ -21090,8 +22350,8 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A256" s="286"/>
+    <row r="256" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="318"/>
       <c r="B256" s="255" t="s">
         <v>2246</v>
       </c>
@@ -21114,8 +22374,8 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A257" s="286"/>
+    <row r="257" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="318"/>
       <c r="B257" s="255" t="s">
         <v>2246</v>
       </c>
@@ -21139,7 +22399,7 @@
       </c>
     </row>
     <row r="258" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="287"/>
+      <c r="A258" s="319"/>
       <c r="B258" s="256" t="s">
         <v>2246</v>
       </c>
@@ -21162,9 +22422,721 @@
         <v>1800</v>
       </c>
     </row>
+    <row r="259" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="305" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B259" s="308" t="s">
+        <v>2420</v>
+      </c>
+      <c r="C259" s="234" t="s">
+        <v>23</v>
+      </c>
+      <c r="D259" s="43" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E259" s="167" t="s">
+        <v>86</v>
+      </c>
+      <c r="F259" s="233">
+        <v>11340</v>
+      </c>
+      <c r="G259" s="168">
+        <v>7090</v>
+      </c>
+      <c r="H259" s="169" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="306"/>
+      <c r="B260" s="309"/>
+      <c r="C260" s="238" t="s">
+        <v>27</v>
+      </c>
+      <c r="D260" s="46" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E260" s="170" t="s">
+        <v>86</v>
+      </c>
+      <c r="F260" s="237">
+        <v>10800</v>
+      </c>
+      <c r="G260" s="171">
+        <v>6750</v>
+      </c>
+      <c r="H260" s="172" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="306"/>
+      <c r="B261" s="309" t="s">
+        <v>2422</v>
+      </c>
+      <c r="C261" s="238" t="s">
+        <v>23</v>
+      </c>
+      <c r="D261" s="46" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E261" s="170" t="s">
+        <v>2215</v>
+      </c>
+      <c r="F261" s="237">
+        <v>11340</v>
+      </c>
+      <c r="G261" s="171">
+        <v>7090</v>
+      </c>
+      <c r="H261" s="172" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="306"/>
+      <c r="B262" s="309"/>
+      <c r="C262" s="238" t="s">
+        <v>27</v>
+      </c>
+      <c r="D262" s="46" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E262" s="170" t="s">
+        <v>2215</v>
+      </c>
+      <c r="F262" s="237">
+        <v>10800</v>
+      </c>
+      <c r="G262" s="171">
+        <v>6750</v>
+      </c>
+      <c r="H262" s="172" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="307"/>
+      <c r="B263" s="280" t="s">
+        <v>2423</v>
+      </c>
+      <c r="C263" s="242"/>
+      <c r="D263" s="49"/>
+      <c r="E263" s="173"/>
+      <c r="F263" s="174"/>
+      <c r="G263" s="173"/>
+      <c r="H263" s="175"/>
+    </row>
+    <row r="264" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="311" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B264" s="308" t="s">
+        <v>2424</v>
+      </c>
+      <c r="C264" s="234" t="s">
+        <v>23</v>
+      </c>
+      <c r="D264" s="43" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E264" s="167" t="s">
+        <v>77</v>
+      </c>
+      <c r="F264" s="168">
+        <v>36210</v>
+      </c>
+      <c r="G264" s="167" t="s">
+        <v>2425</v>
+      </c>
+      <c r="H264" s="169" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="312"/>
+      <c r="B265" s="309"/>
+      <c r="C265" s="238" t="s">
+        <v>27</v>
+      </c>
+      <c r="D265" s="46" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E265" s="170" t="s">
+        <v>77</v>
+      </c>
+      <c r="F265" s="171">
+        <v>32130</v>
+      </c>
+      <c r="G265" s="170" t="s">
+        <v>70</v>
+      </c>
+      <c r="H265" s="172" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="312"/>
+      <c r="B266" s="309"/>
+      <c r="C266" s="238" t="s">
+        <v>28</v>
+      </c>
+      <c r="D266" s="46" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E266" s="170" t="s">
+        <v>77</v>
+      </c>
+      <c r="F266" s="171">
+        <v>25500</v>
+      </c>
+      <c r="G266" s="170" t="s">
+        <v>2426</v>
+      </c>
+      <c r="H266" s="172" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="312"/>
+      <c r="B267" s="309"/>
+      <c r="C267" s="238" t="s">
+        <v>29</v>
+      </c>
+      <c r="D267" s="46" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E267" s="170" t="s">
+        <v>77</v>
+      </c>
+      <c r="F267" s="171">
+        <v>20400</v>
+      </c>
+      <c r="G267" s="170" t="s">
+        <v>2427</v>
+      </c>
+      <c r="H267" s="172" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="312"/>
+      <c r="B268" s="309" t="s">
+        <v>2428</v>
+      </c>
+      <c r="C268" s="238" t="s">
+        <v>23</v>
+      </c>
+      <c r="D268" s="46" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E268" s="170" t="s">
+        <v>49</v>
+      </c>
+      <c r="F268" s="171">
+        <v>36210</v>
+      </c>
+      <c r="G268" s="170" t="s">
+        <v>2425</v>
+      </c>
+      <c r="H268" s="172" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="312"/>
+      <c r="B269" s="309"/>
+      <c r="C269" s="238" t="s">
+        <v>27</v>
+      </c>
+      <c r="D269" s="46" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E269" s="170" t="s">
+        <v>49</v>
+      </c>
+      <c r="F269" s="171">
+        <v>32130</v>
+      </c>
+      <c r="G269" s="170" t="s">
+        <v>70</v>
+      </c>
+      <c r="H269" s="172" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="312"/>
+      <c r="B270" s="309"/>
+      <c r="C270" s="238" t="s">
+        <v>28</v>
+      </c>
+      <c r="D270" s="46" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E270" s="170" t="s">
+        <v>49</v>
+      </c>
+      <c r="F270" s="171">
+        <v>25500</v>
+      </c>
+      <c r="G270" s="170" t="s">
+        <v>2426</v>
+      </c>
+      <c r="H270" s="172" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="312"/>
+      <c r="B271" s="309"/>
+      <c r="C271" s="238" t="s">
+        <v>29</v>
+      </c>
+      <c r="D271" s="46" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E271" s="170" t="s">
+        <v>49</v>
+      </c>
+      <c r="F271" s="171">
+        <v>20400</v>
+      </c>
+      <c r="G271" s="170" t="s">
+        <v>2427</v>
+      </c>
+      <c r="H271" s="172" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="313"/>
+      <c r="B272" s="280" t="s">
+        <v>2423</v>
+      </c>
+      <c r="C272" s="242"/>
+      <c r="D272" s="173"/>
+      <c r="E272" s="173"/>
+      <c r="F272" s="174"/>
+      <c r="G272" s="173"/>
+      <c r="H272" s="272"/>
+    </row>
+    <row r="273" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="305" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B273" s="308" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C273" s="234" t="s">
+        <v>23</v>
+      </c>
+      <c r="D273" s="43" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E273" s="167" t="s">
+        <v>2217</v>
+      </c>
+      <c r="F273" s="168">
+        <v>19660</v>
+      </c>
+      <c r="G273" s="167" t="s">
+        <v>2430</v>
+      </c>
+      <c r="H273" s="270">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="306"/>
+      <c r="B274" s="309"/>
+      <c r="C274" s="238" t="s">
+        <v>27</v>
+      </c>
+      <c r="D274" s="46" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E274" s="170" t="s">
+        <v>2217</v>
+      </c>
+      <c r="F274" s="171">
+        <v>17930</v>
+      </c>
+      <c r="G274" s="170" t="s">
+        <v>2431</v>
+      </c>
+      <c r="H274" s="172" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="306"/>
+      <c r="B275" s="309"/>
+      <c r="C275" s="238" t="s">
+        <v>28</v>
+      </c>
+      <c r="D275" s="46" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E275" s="170" t="s">
+        <v>2217</v>
+      </c>
+      <c r="F275" s="171">
+        <v>16480</v>
+      </c>
+      <c r="G275" s="170" t="s">
+        <v>2218</v>
+      </c>
+      <c r="H275" s="172" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="306"/>
+      <c r="B276" s="309" t="s">
+        <v>2434</v>
+      </c>
+      <c r="C276" s="238" t="s">
+        <v>23</v>
+      </c>
+      <c r="D276" s="46" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E276" s="170" t="s">
+        <v>49</v>
+      </c>
+      <c r="F276" s="171">
+        <v>19660</v>
+      </c>
+      <c r="G276" s="170" t="s">
+        <v>2430</v>
+      </c>
+      <c r="H276" s="271">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="306"/>
+      <c r="B277" s="309"/>
+      <c r="C277" s="238" t="s">
+        <v>27</v>
+      </c>
+      <c r="D277" s="46" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E277" s="170" t="s">
+        <v>49</v>
+      </c>
+      <c r="F277" s="171">
+        <v>17930</v>
+      </c>
+      <c r="G277" s="170" t="s">
+        <v>2431</v>
+      </c>
+      <c r="H277" s="172" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="306"/>
+      <c r="B278" s="309"/>
+      <c r="C278" s="238" t="s">
+        <v>28</v>
+      </c>
+      <c r="D278" s="46" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E278" s="170" t="s">
+        <v>49</v>
+      </c>
+      <c r="F278" s="171">
+        <v>16480</v>
+      </c>
+      <c r="G278" s="170" t="s">
+        <v>2218</v>
+      </c>
+      <c r="H278" s="172" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="306"/>
+      <c r="B279" s="309" t="s">
+        <v>2435</v>
+      </c>
+      <c r="C279" s="238" t="s">
+        <v>23</v>
+      </c>
+      <c r="D279" s="46" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E279" s="170" t="s">
+        <v>61</v>
+      </c>
+      <c r="F279" s="171">
+        <v>19660</v>
+      </c>
+      <c r="G279" s="170" t="s">
+        <v>2430</v>
+      </c>
+      <c r="H279" s="271">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="306"/>
+      <c r="B280" s="309"/>
+      <c r="C280" s="238" t="s">
+        <v>27</v>
+      </c>
+      <c r="D280" s="46" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E280" s="170" t="s">
+        <v>61</v>
+      </c>
+      <c r="F280" s="171">
+        <v>17930</v>
+      </c>
+      <c r="G280" s="170" t="s">
+        <v>2431</v>
+      </c>
+      <c r="H280" s="172" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="307"/>
+      <c r="B281" s="310"/>
+      <c r="C281" s="242" t="s">
+        <v>28</v>
+      </c>
+      <c r="D281" s="49" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E281" s="173" t="s">
+        <v>61</v>
+      </c>
+      <c r="F281" s="174">
+        <v>16480</v>
+      </c>
+      <c r="G281" s="173" t="s">
+        <v>2218</v>
+      </c>
+      <c r="H281" s="175" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A282" s="305" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B282" s="308" t="s">
+        <v>2436</v>
+      </c>
+      <c r="C282" s="234" t="s">
+        <v>23</v>
+      </c>
+      <c r="D282" s="245" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E282" s="167" t="s">
+        <v>2437</v>
+      </c>
+      <c r="F282" s="168">
+        <v>57900</v>
+      </c>
+      <c r="G282" s="234" t="s">
+        <v>25</v>
+      </c>
+      <c r="H282" s="270">
+        <v>10210</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A283" s="306"/>
+      <c r="B283" s="309"/>
+      <c r="C283" s="238" t="s">
+        <v>27</v>
+      </c>
+      <c r="D283" s="246" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E283" s="170" t="s">
+        <v>2437</v>
+      </c>
+      <c r="F283" s="171">
+        <v>49640</v>
+      </c>
+      <c r="G283" s="238" t="s">
+        <v>25</v>
+      </c>
+      <c r="H283" s="172" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A284" s="306"/>
+      <c r="B284" s="309"/>
+      <c r="C284" s="238" t="s">
+        <v>28</v>
+      </c>
+      <c r="D284" s="246" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E284" s="170" t="s">
+        <v>2437</v>
+      </c>
+      <c r="F284" s="171">
+        <v>42330</v>
+      </c>
+      <c r="G284" s="238" t="s">
+        <v>25</v>
+      </c>
+      <c r="H284" s="172" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A285" s="306"/>
+      <c r="B285" s="309" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C285" s="238" t="s">
+        <v>23</v>
+      </c>
+      <c r="D285" s="246" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E285" s="170" t="s">
+        <v>2233</v>
+      </c>
+      <c r="F285" s="171">
+        <v>57900</v>
+      </c>
+      <c r="G285" s="238" t="s">
+        <v>25</v>
+      </c>
+      <c r="H285" s="271">
+        <v>10210</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A286" s="306"/>
+      <c r="B286" s="309"/>
+      <c r="C286" s="238" t="s">
+        <v>27</v>
+      </c>
+      <c r="D286" s="246" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E286" s="170" t="s">
+        <v>2233</v>
+      </c>
+      <c r="F286" s="171">
+        <v>49640</v>
+      </c>
+      <c r="G286" s="238" t="s">
+        <v>25</v>
+      </c>
+      <c r="H286" s="172" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A287" s="306"/>
+      <c r="B287" s="309"/>
+      <c r="C287" s="238" t="s">
+        <v>28</v>
+      </c>
+      <c r="D287" s="246" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E287" s="170" t="s">
+        <v>2233</v>
+      </c>
+      <c r="F287" s="171">
+        <v>42330</v>
+      </c>
+      <c r="G287" s="238" t="s">
+        <v>25</v>
+      </c>
+      <c r="H287" s="172" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A288" s="306"/>
+      <c r="B288" s="309" t="s">
+        <v>2441</v>
+      </c>
+      <c r="C288" s="238" t="s">
+        <v>23</v>
+      </c>
+      <c r="D288" s="246" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E288" s="170" t="s">
+        <v>2234</v>
+      </c>
+      <c r="F288" s="171">
+        <v>57900</v>
+      </c>
+      <c r="G288" s="238" t="s">
+        <v>25</v>
+      </c>
+      <c r="H288" s="271">
+        <v>10210</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A289" s="306"/>
+      <c r="B289" s="309"/>
+      <c r="C289" s="238" t="s">
+        <v>27</v>
+      </c>
+      <c r="D289" s="246" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E289" s="170" t="s">
+        <v>2234</v>
+      </c>
+      <c r="F289" s="171">
+        <v>49640</v>
+      </c>
+      <c r="G289" s="238" t="s">
+        <v>25</v>
+      </c>
+      <c r="H289" s="172" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="307"/>
+      <c r="B290" s="310"/>
+      <c r="C290" s="242" t="s">
+        <v>28</v>
+      </c>
+      <c r="D290" s="247" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E290" s="173" t="s">
+        <v>2234</v>
+      </c>
+      <c r="F290" s="174">
+        <v>42330</v>
+      </c>
+      <c r="G290" s="242" t="s">
+        <v>25</v>
+      </c>
+      <c r="H290" s="175" t="s">
+        <v>2439</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:M258" xr:uid="{B4D574EA-E516-4953-A923-0CCC6DF4424A}"/>
-  <mergeCells count="137">
+  <autoFilter ref="A3:M290" xr:uid="{B4D574EA-E516-4953-A923-0CCC6DF4424A}"/>
+  <mergeCells count="151">
     <mergeCell ref="B152:B154"/>
     <mergeCell ref="B155:B157"/>
     <mergeCell ref="A149:A157"/>
@@ -21302,6 +23274,20 @@
     <mergeCell ref="A220:A223"/>
     <mergeCell ref="A224:A229"/>
     <mergeCell ref="A230:A238"/>
+    <mergeCell ref="A282:A290"/>
+    <mergeCell ref="B282:B284"/>
+    <mergeCell ref="B285:B287"/>
+    <mergeCell ref="B288:B290"/>
+    <mergeCell ref="A259:A263"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="B261:B262"/>
+    <mergeCell ref="A264:A272"/>
+    <mergeCell ref="B264:B267"/>
+    <mergeCell ref="B268:B271"/>
+    <mergeCell ref="A273:A281"/>
+    <mergeCell ref="B273:B275"/>
+    <mergeCell ref="B276:B278"/>
+    <mergeCell ref="B279:B281"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A20" r:id="rId1" xr:uid="{63A9A583-FCEB-4029-8F6A-952B151ADC16}"/>
@@ -21347,10 +23333,16 @@
     <hyperlink ref="A220" r:id="rId30" xr:uid="{BB5912F6-DFD5-48BA-BD1F-2C91A4213EEC}"/>
     <hyperlink ref="A224" r:id="rId31" xr:uid="{A4F60119-8B5F-4971-8232-FB1BBBE2D304}"/>
     <hyperlink ref="A239" r:id="rId32" xr:uid="{4EE40C9B-846A-4A56-9705-8728AF62EC31}"/>
+    <hyperlink ref="A259" r:id="rId33" xr:uid="{13495104-8C17-450E-BC35-68B58EDD95C1}"/>
+    <hyperlink ref="B263" location="'Barèmes réglementaires'!B271" display=" Emploi fonctionnel" xr:uid="{E843C5DE-EAD7-417D-A337-56A6FC1874DA}"/>
+    <hyperlink ref="A264" r:id="rId34" xr:uid="{9F3245E3-A393-48EB-942C-B11CE7202F52}"/>
+    <hyperlink ref="B272" location="'Barèmes réglementaires'!B145" display=" Emploi fonctionnel" xr:uid="{48D4654C-1F3F-4B17-85CA-53B8C1EEBDE8}"/>
+    <hyperlink ref="A273" r:id="rId35" xr:uid="{98DEF3AC-C18D-4D84-A200-67F04EAA09BC}"/>
+    <hyperlink ref="A282" r:id="rId36" xr:uid="{8C3BF8B5-D5FE-4A46-862C-440958EDBE28}"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="8" scale="73" fitToHeight="5" orientation="landscape" r:id="rId33"/>
-  <drawing r:id="rId34"/>
+  <pageSetup paperSize="8" scale="73" fitToHeight="5" orientation="landscape" r:id="rId37"/>
+  <drawing r:id="rId38"/>
 </worksheet>
 </file>
 
@@ -38694,40 +40686,40 @@
       <c r="A3" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="B3" s="412" t="s">
+      <c r="B3" s="439" t="s">
         <v>2180</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="324" t="s">
+      <c r="F3" s="351" t="s">
         <v>2181</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="324" t="s">
+      <c r="J3" s="351" t="s">
         <v>2182</v>
       </c>
-      <c r="K3" s="324">
+      <c r="K3" s="351">
         <v>1</v>
       </c>
       <c r="L3" s="10"/>
-      <c r="M3" s="417">
+      <c r="M3" s="444">
         <v>6000</v>
       </c>
-      <c r="N3" s="417">
+      <c r="N3" s="444">
         <v>115000</v>
       </c>
-      <c r="O3" s="417"/>
-      <c r="P3" s="417">
+      <c r="O3" s="444"/>
+      <c r="P3" s="444">
         <v>50000</v>
       </c>
-      <c r="Q3" s="430">
+      <c r="Q3" s="457">
         <v>44927</v>
       </c>
-      <c r="R3" s="324"/>
-      <c r="S3" s="420" t="s">
+      <c r="R3" s="351"/>
+      <c r="S3" s="447" t="s">
         <v>170</v>
       </c>
     </row>
@@ -38735,394 +40727,394 @@
       <c r="A4" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="B4" s="413"/>
+      <c r="B4" s="440"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="415"/>
+      <c r="F4" s="442"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="415"/>
-      <c r="K4" s="415"/>
+      <c r="J4" s="442"/>
+      <c r="K4" s="442"/>
       <c r="L4" s="11"/>
-      <c r="M4" s="418"/>
-      <c r="N4" s="418"/>
-      <c r="O4" s="418"/>
-      <c r="P4" s="418"/>
-      <c r="Q4" s="425"/>
-      <c r="R4" s="415"/>
-      <c r="S4" s="421"/>
+      <c r="M4" s="445"/>
+      <c r="N4" s="445"/>
+      <c r="O4" s="445"/>
+      <c r="P4" s="445"/>
+      <c r="Q4" s="452"/>
+      <c r="R4" s="442"/>
+      <c r="S4" s="448"/>
     </row>
     <row r="5" spans="1:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="B5" s="413"/>
+      <c r="B5" s="440"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="415"/>
+      <c r="F5" s="442"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="415"/>
-      <c r="K5" s="415"/>
+      <c r="J5" s="442"/>
+      <c r="K5" s="442"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="418"/>
-      <c r="N5" s="418"/>
-      <c r="O5" s="418"/>
-      <c r="P5" s="418"/>
-      <c r="Q5" s="425"/>
-      <c r="R5" s="415"/>
-      <c r="S5" s="421"/>
+      <c r="M5" s="445"/>
+      <c r="N5" s="445"/>
+      <c r="O5" s="445"/>
+      <c r="P5" s="445"/>
+      <c r="Q5" s="452"/>
+      <c r="R5" s="442"/>
+      <c r="S5" s="448"/>
     </row>
     <row r="6" spans="1:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="B6" s="414"/>
+      <c r="B6" s="441"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="416"/>
+      <c r="F6" s="443"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="416"/>
-      <c r="K6" s="416"/>
+      <c r="J6" s="443"/>
+      <c r="K6" s="443"/>
       <c r="L6" s="11"/>
-      <c r="M6" s="419"/>
-      <c r="N6" s="419"/>
-      <c r="O6" s="419"/>
-      <c r="P6" s="419"/>
-      <c r="Q6" s="426"/>
-      <c r="R6" s="416"/>
-      <c r="S6" s="421"/>
+      <c r="M6" s="446"/>
+      <c r="N6" s="446"/>
+      <c r="O6" s="446"/>
+      <c r="P6" s="446"/>
+      <c r="Q6" s="453"/>
+      <c r="R6" s="443"/>
+      <c r="S6" s="448"/>
     </row>
     <row r="7" spans="1:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="B7" s="431" t="s">
+      <c r="B7" s="458" t="s">
         <v>2183</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="427" t="s">
+      <c r="F7" s="454" t="s">
         <v>2181</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="427" t="s">
+      <c r="J7" s="454" t="s">
         <v>2182</v>
       </c>
-      <c r="K7" s="427">
+      <c r="K7" s="454">
         <v>2</v>
       </c>
       <c r="L7" s="11"/>
-      <c r="M7" s="423">
+      <c r="M7" s="450">
         <v>5600</v>
       </c>
-      <c r="N7" s="423">
+      <c r="N7" s="450">
         <v>101000</v>
       </c>
-      <c r="O7" s="423"/>
-      <c r="P7" s="423">
+      <c r="O7" s="450"/>
+      <c r="P7" s="450">
         <v>44000</v>
       </c>
-      <c r="Q7" s="424">
+      <c r="Q7" s="451">
         <v>44927</v>
       </c>
-      <c r="R7" s="427"/>
-      <c r="S7" s="421"/>
+      <c r="R7" s="454"/>
+      <c r="S7" s="448"/>
     </row>
     <row r="8" spans="1:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="B8" s="413"/>
+      <c r="B8" s="440"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="415"/>
+      <c r="F8" s="442"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="415"/>
-      <c r="K8" s="415"/>
+      <c r="J8" s="442"/>
+      <c r="K8" s="442"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="418"/>
-      <c r="N8" s="418"/>
-      <c r="O8" s="418"/>
-      <c r="P8" s="418"/>
-      <c r="Q8" s="425"/>
-      <c r="R8" s="415"/>
-      <c r="S8" s="421"/>
+      <c r="M8" s="445"/>
+      <c r="N8" s="445"/>
+      <c r="O8" s="445"/>
+      <c r="P8" s="445"/>
+      <c r="Q8" s="452"/>
+      <c r="R8" s="442"/>
+      <c r="S8" s="448"/>
     </row>
     <row r="9" spans="1:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="B9" s="413"/>
+      <c r="B9" s="440"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="415"/>
+      <c r="F9" s="442"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="415"/>
-      <c r="K9" s="415"/>
+      <c r="J9" s="442"/>
+      <c r="K9" s="442"/>
       <c r="L9" s="11"/>
-      <c r="M9" s="418"/>
-      <c r="N9" s="418"/>
-      <c r="O9" s="418"/>
-      <c r="P9" s="418"/>
-      <c r="Q9" s="425"/>
-      <c r="R9" s="415"/>
-      <c r="S9" s="421"/>
+      <c r="M9" s="445"/>
+      <c r="N9" s="445"/>
+      <c r="O9" s="445"/>
+      <c r="P9" s="445"/>
+      <c r="Q9" s="452"/>
+      <c r="R9" s="442"/>
+      <c r="S9" s="448"/>
     </row>
     <row r="10" spans="1:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="B10" s="414"/>
+      <c r="B10" s="441"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="416"/>
+      <c r="F10" s="443"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="416"/>
-      <c r="K10" s="416"/>
+      <c r="J10" s="443"/>
+      <c r="K10" s="443"/>
       <c r="L10" s="11"/>
-      <c r="M10" s="419"/>
-      <c r="N10" s="419"/>
-      <c r="O10" s="419"/>
-      <c r="P10" s="419"/>
-      <c r="Q10" s="426"/>
-      <c r="R10" s="416"/>
-      <c r="S10" s="421"/>
+      <c r="M10" s="446"/>
+      <c r="N10" s="446"/>
+      <c r="O10" s="446"/>
+      <c r="P10" s="446"/>
+      <c r="Q10" s="453"/>
+      <c r="R10" s="443"/>
+      <c r="S10" s="448"/>
     </row>
     <row r="11" spans="1:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="431" t="s">
+      <c r="B11" s="458" t="s">
         <v>707</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="427" t="s">
+      <c r="F11" s="454" t="s">
         <v>2181</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="427" t="s">
+      <c r="J11" s="454" t="s">
         <v>2182</v>
       </c>
-      <c r="K11" s="427">
+      <c r="K11" s="454">
         <v>3</v>
       </c>
       <c r="L11" s="11"/>
-      <c r="M11" s="423">
+      <c r="M11" s="450">
         <v>5250</v>
       </c>
-      <c r="N11" s="423">
+      <c r="N11" s="450">
         <v>77000</v>
       </c>
-      <c r="O11" s="423"/>
-      <c r="P11" s="423">
+      <c r="O11" s="450"/>
+      <c r="P11" s="450">
         <v>33000</v>
       </c>
-      <c r="Q11" s="424">
+      <c r="Q11" s="451">
         <v>44927</v>
       </c>
-      <c r="R11" s="427"/>
-      <c r="S11" s="421"/>
+      <c r="R11" s="454"/>
+      <c r="S11" s="448"/>
     </row>
     <row r="12" spans="1:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="B12" s="413"/>
+      <c r="B12" s="440"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="415"/>
+      <c r="F12" s="442"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="415"/>
-      <c r="K12" s="415"/>
+      <c r="J12" s="442"/>
+      <c r="K12" s="442"/>
       <c r="L12" s="11"/>
-      <c r="M12" s="418"/>
-      <c r="N12" s="418"/>
-      <c r="O12" s="418"/>
-      <c r="P12" s="418"/>
-      <c r="Q12" s="425"/>
-      <c r="R12" s="415"/>
-      <c r="S12" s="421"/>
+      <c r="M12" s="445"/>
+      <c r="N12" s="445"/>
+      <c r="O12" s="445"/>
+      <c r="P12" s="445"/>
+      <c r="Q12" s="452"/>
+      <c r="R12" s="442"/>
+      <c r="S12" s="448"/>
     </row>
     <row r="13" spans="1:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="B13" s="413"/>
+      <c r="B13" s="440"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="415"/>
+      <c r="F13" s="442"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="415"/>
-      <c r="K13" s="415"/>
+      <c r="J13" s="442"/>
+      <c r="K13" s="442"/>
       <c r="L13" s="11"/>
-      <c r="M13" s="418"/>
-      <c r="N13" s="418"/>
-      <c r="O13" s="418"/>
-      <c r="P13" s="418"/>
-      <c r="Q13" s="425"/>
-      <c r="R13" s="415"/>
-      <c r="S13" s="421"/>
+      <c r="M13" s="445"/>
+      <c r="N13" s="445"/>
+      <c r="O13" s="445"/>
+      <c r="P13" s="445"/>
+      <c r="Q13" s="452"/>
+      <c r="R13" s="442"/>
+      <c r="S13" s="448"/>
     </row>
     <row r="14" spans="1:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="B14" s="414"/>
+      <c r="B14" s="441"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="416"/>
+      <c r="F14" s="443"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="416"/>
-      <c r="K14" s="416"/>
+      <c r="J14" s="443"/>
+      <c r="K14" s="443"/>
       <c r="L14" s="11"/>
-      <c r="M14" s="419"/>
-      <c r="N14" s="419"/>
-      <c r="O14" s="419"/>
-      <c r="P14" s="419"/>
-      <c r="Q14" s="426"/>
-      <c r="R14" s="416"/>
-      <c r="S14" s="421"/>
+      <c r="M14" s="446"/>
+      <c r="N14" s="446"/>
+      <c r="O14" s="446"/>
+      <c r="P14" s="446"/>
+      <c r="Q14" s="453"/>
+      <c r="R14" s="443"/>
+      <c r="S14" s="448"/>
     </row>
     <row r="15" spans="1:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="B15" s="427" t="s">
+      <c r="B15" s="454" t="s">
         <v>722</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="427" t="s">
+      <c r="F15" s="454" t="s">
         <v>2181</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="427" t="s">
+      <c r="J15" s="454" t="s">
         <v>2182</v>
       </c>
-      <c r="K15" s="427">
+      <c r="K15" s="454">
         <v>4</v>
       </c>
       <c r="L15" s="11"/>
-      <c r="M15" s="423">
+      <c r="M15" s="450">
         <v>4750</v>
       </c>
-      <c r="N15" s="423">
+      <c r="N15" s="450">
         <v>63000</v>
       </c>
-      <c r="O15" s="423"/>
-      <c r="P15" s="423">
+      <c r="O15" s="450"/>
+      <c r="P15" s="450">
         <v>27000</v>
       </c>
-      <c r="Q15" s="424">
+      <c r="Q15" s="451">
         <v>44927</v>
       </c>
-      <c r="R15" s="427"/>
-      <c r="S15" s="421"/>
+      <c r="R15" s="454"/>
+      <c r="S15" s="448"/>
     </row>
     <row r="16" spans="1:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="B16" s="415"/>
+      <c r="B16" s="442"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="415"/>
+      <c r="F16" s="442"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="415"/>
-      <c r="K16" s="415"/>
+      <c r="J16" s="442"/>
+      <c r="K16" s="442"/>
       <c r="L16" s="11"/>
-      <c r="M16" s="418"/>
-      <c r="N16" s="418"/>
-      <c r="O16" s="418"/>
-      <c r="P16" s="418"/>
-      <c r="Q16" s="425"/>
-      <c r="R16" s="415"/>
-      <c r="S16" s="421"/>
+      <c r="M16" s="445"/>
+      <c r="N16" s="445"/>
+      <c r="O16" s="445"/>
+      <c r="P16" s="445"/>
+      <c r="Q16" s="452"/>
+      <c r="R16" s="442"/>
+      <c r="S16" s="448"/>
     </row>
     <row r="17" spans="1:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="B17" s="415"/>
+      <c r="B17" s="442"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="415"/>
+      <c r="F17" s="442"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="415"/>
-      <c r="K17" s="415"/>
+      <c r="J17" s="442"/>
+      <c r="K17" s="442"/>
       <c r="L17" s="11"/>
-      <c r="M17" s="418"/>
-      <c r="N17" s="418"/>
-      <c r="O17" s="418"/>
-      <c r="P17" s="418"/>
-      <c r="Q17" s="425"/>
-      <c r="R17" s="415"/>
-      <c r="S17" s="421"/>
+      <c r="M17" s="445"/>
+      <c r="N17" s="445"/>
+      <c r="O17" s="445"/>
+      <c r="P17" s="445"/>
+      <c r="Q17" s="452"/>
+      <c r="R17" s="442"/>
+      <c r="S17" s="448"/>
     </row>
     <row r="18" spans="1:19" s="1" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="B18" s="325"/>
+      <c r="B18" s="352"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="325"/>
+      <c r="F18" s="352"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="325"/>
-      <c r="K18" s="325"/>
+      <c r="J18" s="352"/>
+      <c r="K18" s="352"/>
       <c r="L18" s="12"/>
-      <c r="M18" s="428"/>
-      <c r="N18" s="428"/>
-      <c r="O18" s="428"/>
-      <c r="P18" s="428"/>
-      <c r="Q18" s="429"/>
-      <c r="R18" s="325"/>
-      <c r="S18" s="422"/>
+      <c r="M18" s="455"/>
+      <c r="N18" s="455"/>
+      <c r="O18" s="455"/>
+      <c r="P18" s="455"/>
+      <c r="Q18" s="456"/>
+      <c r="R18" s="352"/>
+      <c r="S18" s="449"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:S18" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
